--- a/data/hotels_by_city/Denver/Denver_shard_131.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_131.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="543">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g33345-d7184997-Reviews-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
   </si>
   <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-Holiday-Inn-Express-Suites-Denver-South-Castle-Rock.h9236705.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1503 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/02/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r594025262-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>33345</t>
+  </si>
+  <si>
+    <t>7184997</t>
+  </si>
+  <si>
+    <t>594025262</t>
+  </si>
+  <si>
+    <t>07/08/2018</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>This is a new facility and the staff was great. Clean rooms and the price was right. Very close to everything in Castle Rock. IHOP next door and you MUST visit Burly Brewery. It’s just down the road. A really chill and awesome microbrewery. Family friendly place with great brew.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Brigitte R, Director of Sales at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>This is a new facility and the staff was great. Clean rooms and the price was right. Very close to everything in Castle Rock. IHOP next door and you MUST visit Burly Brewery. It’s just down the road. A really chill and awesome microbrewery. Family friendly place with great brew.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r593308226-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>593308226</t>
+  </si>
+  <si>
+    <t>07/05/2018</t>
+  </si>
+  <si>
+    <t>Excellent hotel! Very Clean and Modern!</t>
+  </si>
+  <si>
+    <t>Family recommended this hotel and we were very pleased. I had assumed it would be pricey but it was very reasonable! Clean, modern, lots of amenities, plenty of electrical outlets and USB ports, and excellent staff. Staff was very attentive to requests for additional items needed. I will stay here again and I highly recommend it.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Family recommended this hotel and we were very pleased. I had assumed it would be pricey but it was very reasonable! Clean, modern, lots of amenities, plenty of electrical outlets and USB ports, and excellent staff. Staff was very attentive to requests for additional items needed. I will stay here again and I highly recommend it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r585179214-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>585179214</t>
+  </si>
+  <si>
+    <t>06/04/2018</t>
+  </si>
+  <si>
+    <t>AMAZING.</t>
+  </si>
+  <si>
+    <t>The staff at the front desk went above and beyond to make our stay the best it could be. They gave great suggestions for food and provided honest care. The employees here remmember a face and a conversation. This is the best experience I have ever had with a hotel. 10/10MoreShow less</t>
+  </si>
+  <si>
+    <t>The staff at the front desk went above and beyond to make our stay the best it could be. They gave great suggestions for food and provided honest care. The employees here remmember a face and a conversation. This is the best experience I have ever had with a hotel. 10/10More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r563698896-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>563698896</t>
+  </si>
+  <si>
+    <t>03/02/2018</t>
+  </si>
+  <si>
+    <t>GREAT BEDS!</t>
+  </si>
+  <si>
+    <t>We were just traveling through and only spent one night but it was the best nights sleep we got on our whole trip. Our only regret is that we forgot to leave housekeeping a tip. Easily the cleanest place I've seen in a long time. Great breakfast and very helpful staff.</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r559473796-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>559473796</t>
+  </si>
+  <si>
+    <t>02/09/2018</t>
+  </si>
+  <si>
+    <t>Great hotel. Wonderful Staff!</t>
+  </si>
+  <si>
+    <t>This is everything you would expect from a Holiday Inn Express.  We stayed two nights for a family event. The hotel is nice, well maintained, clean.  He stayed in an Executive Suite so that we'd have a fridge and microwave. Nice large room and quiet.The staff was beyond friendly and helpful. They gave us suggestions of where to eat and places we might visit if we had time. There was nothing that we asked for or about that was not answered quickly and happily. I seriously only found one thing wrong with the hotel - the water pressure - which is probably not their fault. Just know that if you stay there you'll need to put the shower head on the strongest setting to get the shampoo out of your hair.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Bryce M, Front Office Manager at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded February 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 11, 2018</t>
+  </si>
+  <si>
+    <t>This is everything you would expect from a Holiday Inn Express.  We stayed two nights for a family event. The hotel is nice, well maintained, clean.  He stayed in an Executive Suite so that we'd have a fridge and microwave. Nice large room and quiet.The staff was beyond friendly and helpful. They gave us suggestions of where to eat and places we might visit if we had time. There was nothing that we asked for or about that was not answered quickly and happily. I seriously only found one thing wrong with the hotel - the water pressure - which is probably not their fault. Just know that if you stay there you'll need to put the shower head on the strongest setting to get the shampoo out of your hair.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r555518069-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>555518069</t>
+  </si>
+  <si>
+    <t>01/22/2018</t>
+  </si>
+  <si>
+    <t>Top Quality place to stay</t>
+  </si>
+  <si>
+    <t>This hotel has superior service and top quality amenities.  It is immaculate. It is located right off I25 for easy access and near numerous stores and restaurants. Incredible workout room.  Breakfast was well done.  We were very pleased with our stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r545272430-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>545272430</t>
+  </si>
+  <si>
+    <t>12/05/2017</t>
+  </si>
+  <si>
+    <t>Highly Recommended</t>
+  </si>
+  <si>
+    <t>My wife and I had a one night reservation, we had to drive up to Denver to see about adopting a rescue dog.  The hotel is 3 years old but looks brand new, the staff keep it in pristine condition.  The parking lot is easy to access and the grounds are well kept.  The public areas are open and inviting and clean.  The front desk staff were superb and very professional and friendly.  Our room was very clean and well appointed.  Everything was very comfortable.  Breakfast was pretty good and the kitchen staff worked hard to ensure that tables were kept clean and the food area was well stocked and clean.  We had to add one night to our stay after having already checked out, but the staff did a great job helping us find a great room.  We were very impressed with this hotel and brand.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Mallory S, Director of Sales at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded December 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 8, 2017</t>
+  </si>
+  <si>
+    <t>My wife and I had a one night reservation, we had to drive up to Denver to see about adopting a rescue dog.  The hotel is 3 years old but looks brand new, the staff keep it in pristine condition.  The parking lot is easy to access and the grounds are well kept.  The public areas are open and inviting and clean.  The front desk staff were superb and very professional and friendly.  Our room was very clean and well appointed.  Everything was very comfortable.  Breakfast was pretty good and the kitchen staff worked hard to ensure that tables were kept clean and the food area was well stocked and clean.  We had to add one night to our stay after having already checked out, but the staff did a great job helping us find a great room.  We were very impressed with this hotel and brand.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r543241132-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>543241132</t>
+  </si>
+  <si>
+    <t>11/25/2017</t>
+  </si>
+  <si>
+    <t>Good value</t>
+  </si>
+  <si>
+    <t>This hotel is perfect for Black Friday sales. We stayed and walked across the road to the outlet center.  The reception staff ware friendly and helpful. We were on the ground floor which made it easy access with luggage.  Rooms were nice size. We had a king, which had a sofa lounge as well.  Nice indoor heated spa and pool.It was right on the highway but we didn't hear any traffic all night Good parking.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>This hotel is perfect for Black Friday sales. We stayed and walked across the road to the outlet center.  The reception staff ware friendly and helpful. We were on the ground floor which made it easy access with luggage.  Rooms were nice size. We had a king, which had a sofa lounge as well.  Nice indoor heated spa and pool.It was right on the highway but we didn't hear any traffic all night Good parking.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r539448308-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>539448308</t>
+  </si>
+  <si>
+    <t>11/08/2017</t>
+  </si>
+  <si>
+    <t>Superb Hotel</t>
+  </si>
+  <si>
+    <t>Having landed early in Denver, we made our way to the hotel to see if we could check in early.  The staff was not only accommodating, but friendly, efficient, and very courteous!Our room...wow! Clean as clean can be! It was spacious, well equipped, and quiet!  We enjoyed our short stay of 2 days, but will DEFINITELY stay here again on our travels! Mountain views were fantastic, close to shopping, and dining.MoreShow less</t>
+  </si>
+  <si>
+    <t>Mallory S, Director of Sales at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded December 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 11, 2017</t>
+  </si>
+  <si>
+    <t>Having landed early in Denver, we made our way to the hotel to see if we could check in early.  The staff was not only accommodating, but friendly, efficient, and very courteous!Our room...wow! Clean as clean can be! It was spacious, well equipped, and quiet!  We enjoyed our short stay of 2 days, but will DEFINITELY stay here again on our travels! Mountain views were fantastic, close to shopping, and dining.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r525858871-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>525858871</t>
+  </si>
+  <si>
+    <t>09/19/2017</t>
+  </si>
+  <si>
+    <t>Lots around hotel</t>
+  </si>
+  <si>
+    <t>We selected this hotel to kick back and relax, after a 3 week/8 states road trip, before flying home.  Hotel less than an hour away from Denver International Airport.  Great outlet mall close by and several restaurants,  Clean pool and spa.  I noticed that the implements, (plates, can opener etc,) that normally are already in the mini kitchen, in suites had to be gotten at the front desk.  Hot coffee always available in lobby.  Breakfast the usual fare.  We did appreciate the courtesy extended by the hotel to check in an hour early.   Beautiful view of Rockies from suite.  Nice walk in shower.</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r525099276-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>525099276</t>
+  </si>
+  <si>
+    <t>09/17/2017</t>
+  </si>
+  <si>
+    <t>Welcoming stay close to the freeway</t>
+  </si>
+  <si>
+    <t>While Holiday Inn Express is a consistently good experience this hotel was especially nice. Current and clean decor. Suzette was so pleasant and welcoming. This is easy on to the freeway, but we slept peacefully with no road noise. Included breakfast and lots of restaurants and gas station right there. MoreShow less</t>
+  </si>
+  <si>
+    <t>Mallory S, Director of Sales at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded September 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 18, 2017</t>
+  </si>
+  <si>
+    <t>While Holiday Inn Express is a consistently good experience this hotel was especially nice. Current and clean decor. Suzette was so pleasant and welcoming. This is easy on to the freeway, but we slept peacefully with no road noise. Included breakfast and lots of restaurants and gas station right there. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r524656745-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>524656745</t>
+  </si>
+  <si>
+    <t>09/15/2017</t>
+  </si>
+  <si>
+    <t>Awesome Stay</t>
+  </si>
+  <si>
+    <t>We stayed here for one week, and the stay was wonderful.  One thing I will say first is watch out for the huge speed bumps in the parking lot. The staff there was awesome from front desk, to kitchen and housekeeping. They all had superior customer service. I would definately stay here again.  There's only one thing I wish they would change is there parking lot. Move some of the handicap spots. If the first two on the left or right side as your facing the building are full.  The ones on the far left is far for someone to walk, especially if they can't walk long distances.  So I would recommend putting a couple straight out as you walk out of the hotel. It is sad sometimes that regular parking is closer than handicap parking. MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here for one week, and the stay was wonderful.  One thing I will say first is watch out for the huge speed bumps in the parking lot. The staff there was awesome from front desk, to kitchen and housekeeping. They all had superior customer service. I would definately stay here again.  There's only one thing I wish they would change is there parking lot. Move some of the handicap spots. If the first two on the left or right side as your facing the building are full.  The ones on the far left is far for someone to walk, especially if they can't walk long distances.  So I would recommend putting a couple straight out as you walk out of the hotel. It is sad sometimes that regular parking is closer than handicap parking. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r513269892-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>513269892</t>
+  </si>
+  <si>
+    <t>08/15/2017</t>
+  </si>
+  <si>
+    <t>Clean, Comfy, Convenient</t>
+  </si>
+  <si>
+    <t>This Holiday Inn Express was AWESOME! We got a great deal on our king executive suite. It was large, roomy, clean, ac worked well &amp; well equip. Beds CLEAN, made, and furniture didn't give me the creeps. The bathroom was spacious, well lit, and VERY clean. This location is close  to gas stations, shopping mall, walmart, and close proximity to Denver.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r512451445-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>512451445</t>
+  </si>
+  <si>
+    <t>08/13/2017</t>
+  </si>
+  <si>
+    <t>One Of The Best!!!</t>
+  </si>
+  <si>
+    <t>I stay in a lot of HIE hotels; they are all good, a notch above Hampton IMO, but this one really stood out from the moment I walked through the door.  The staff was amazing and went out of their way to accomodate guests; I even saw the manager personally cleaning tables in the breakfast area and chatting with guests.  The hotel looked and smelled fresh throughout.  The bed was probably the comfiest I have ever slept in.  It was a little pricey, as it was a Friday night, but was well worth it.  Will definitely stay here again!!!</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r510987711-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>510987711</t>
+  </si>
+  <si>
+    <t>08/10/2017</t>
+  </si>
+  <si>
+    <t>Nice rooms, friendly staff!</t>
+  </si>
+  <si>
+    <t>Rooms very clean and staff very friendly.  We got in very late, kids were hungry.  They had a little market that offered frozen items.  They only offered/had styrofoam plates to microwave on -- SERIOUSLY HOLIDAY INN EXPRESS!!  There were no forks, etc. to eat with.  I think the breakfast at this Holiday Inn Express was below normal.  Things didn't seem very fresh.  Bacon soaked and was dripping with grease -- yuck.  Biscuits were hard.  They offered pancakes, but they were silver dollar sized and I think because of the size being so small they got over cooked and they were crispy when they came out.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r501081299-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>501081299</t>
+  </si>
+  <si>
+    <t>07/11/2017</t>
+  </si>
+  <si>
+    <t>Loved it!</t>
+  </si>
+  <si>
+    <t>I travel A LOT and it is always nice to be able to sit down and write a beaming review. This Holiday Inn is comfortable and clean but it's the staff that made it extra special. From the two gentlemen (wish I had caught their names) at check in to the lovely hostess at breakfast the staff were 5+ stars!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r500974987-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>500974987</t>
+  </si>
+  <si>
+    <t>Good Location, Good Hotel, Excellent Service</t>
+  </si>
+  <si>
+    <t>My family and I stayed here while visiting family.  This was our first time staying at a Holiday Inn Express since we usually stay at another hotel chain.  However, since a bad experience at the other hotel chain's Castle Rock location a few years ago I swore I would never stay at that chain's Castle Rock hotel again.  Therefore I picked the Holiday Inn Express.  It was a great decision.  The staff was very helpful and accommodating.  On our way driving to town we discovered we were going to be several hours early for check in time.  Even though it was last minute the hotel accommodated our needs with no problems at all.  The hotel itself is very clean and well maintained.  The rooms were nice and the beds were comfortable.  The fitness center was nice and of decent size.  The pool was clean and while small kept my kids entertained.  Breakfast at the hotel was the usual fair.  It was good and warm each day and the staff for the breakfast area were nice and kept the food filled.  The staff also made sure to clean up each table as quick as possible when customers left them.  This ensured there was always clean tables.  My only complaint about our stay is the room did not have a mini refrigerator.  This was disappointing since I'd expect it to to be standard in most hotels now days.  However, I will stay...My family and I stayed here while visiting family.  This was our first time staying at a Holiday Inn Express since we usually stay at another hotel chain.  However, since a bad experience at the other hotel chain's Castle Rock location a few years ago I swore I would never stay at that chain's Castle Rock hotel again.  Therefore I picked the Holiday Inn Express.  It was a great decision.  The staff was very helpful and accommodating.  On our way driving to town we discovered we were going to be several hours early for check in time.  Even though it was last minute the hotel accommodated our needs with no problems at all.  The hotel itself is very clean and well maintained.  The rooms were nice and the beds were comfortable.  The fitness center was nice and of decent size.  The pool was clean and while small kept my kids entertained.  Breakfast at the hotel was the usual fair.  It was good and warm each day and the staff for the breakfast area were nice and kept the food filled.  The staff also made sure to clean up each table as quick as possible when customers left them.  This ensured there was always clean tables.  My only complaint about our stay is the room did not have a mini refrigerator.  This was disappointing since I'd expect it to to be standard in most hotels now days.  However, I will stay here again when in town.MoreShow less</t>
+  </si>
+  <si>
+    <t>My family and I stayed here while visiting family.  This was our first time staying at a Holiday Inn Express since we usually stay at another hotel chain.  However, since a bad experience at the other hotel chain's Castle Rock location a few years ago I swore I would never stay at that chain's Castle Rock hotel again.  Therefore I picked the Holiday Inn Express.  It was a great decision.  The staff was very helpful and accommodating.  On our way driving to town we discovered we were going to be several hours early for check in time.  Even though it was last minute the hotel accommodated our needs with no problems at all.  The hotel itself is very clean and well maintained.  The rooms were nice and the beds were comfortable.  The fitness center was nice and of decent size.  The pool was clean and while small kept my kids entertained.  Breakfast at the hotel was the usual fair.  It was good and warm each day and the staff for the breakfast area were nice and kept the food filled.  The staff also made sure to clean up each table as quick as possible when customers left them.  This ensured there was always clean tables.  My only complaint about our stay is the room did not have a mini refrigerator.  This was disappointing since I'd expect it to to be standard in most hotels now days.  However, I will stay...My family and I stayed here while visiting family.  This was our first time staying at a Holiday Inn Express since we usually stay at another hotel chain.  However, since a bad experience at the other hotel chain's Castle Rock location a few years ago I swore I would never stay at that chain's Castle Rock hotel again.  Therefore I picked the Holiday Inn Express.  It was a great decision.  The staff was very helpful and accommodating.  On our way driving to town we discovered we were going to be several hours early for check in time.  Even though it was last minute the hotel accommodated our needs with no problems at all.  The hotel itself is very clean and well maintained.  The rooms were nice and the beds were comfortable.  The fitness center was nice and of decent size.  The pool was clean and while small kept my kids entertained.  Breakfast at the hotel was the usual fair.  It was good and warm each day and the staff for the breakfast area were nice and kept the food filled.  The staff also made sure to clean up each table as quick as possible when customers left them.  This ensured there was always clean tables.  My only complaint about our stay is the room did not have a mini refrigerator.  This was disappointing since I'd expect it to to be standard in most hotels now days.  However, I will stay here again when in town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r488323316-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>488323316</t>
+  </si>
+  <si>
+    <t>05/27/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great location </t>
+  </si>
+  <si>
+    <t>This is a newer property and it is clean and convenient to I-25. The staff is helpful and in tune to your needs. The rooms are nice and warm and very comfortable. The breakfast is hot and tasty and offers the typical choices. Next time I will request a mountain view as the view is spectacular from the hotels west side. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Mallory S, Director of Sales at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded May 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 31, 2017</t>
+  </si>
+  <si>
+    <t>This is a newer property and it is clean and convenient to I-25. The staff is helpful and in tune to your needs. The rooms are nice and warm and very comfortable. The breakfast is hot and tasty and offers the typical choices. Next time I will request a mountain view as the view is spectacular from the hotels west side. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r460687654-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>460687654</t>
+  </si>
+  <si>
+    <t>02/17/2017</t>
+  </si>
+  <si>
+    <t>This is a great Holiday Inn Express</t>
+  </si>
+  <si>
+    <t>I have said before that Holiday Inns can be hit and miss. This one definitly is a hit! It is a new hotel so very clean. The staff was extremely helpful and were quick to respond to any needs I had. I was hosting a meeting and my attendees raided their coffee which is for guests, but I didn't hear a word of complaint from the hotel. They were extremely accommodating, and hospitable. The meeting rooms were nice and well equipped with projectors and screens.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Mallory S, Director of Sales at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded February 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 21, 2017</t>
+  </si>
+  <si>
+    <t>I have said before that Holiday Inns can be hit and miss. This one definitly is a hit! It is a new hotel so very clean. The staff was extremely helpful and were quick to respond to any needs I had. I was hosting a meeting and my attendees raided their coffee which is for guests, but I didn't hear a word of complaint from the hotel. They were extremely accommodating, and hospitable. The meeting rooms were nice and well equipped with projectors and screens.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r458324633-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>458324633</t>
+  </si>
+  <si>
+    <t>02/09/2017</t>
+  </si>
+  <si>
+    <t>Business Meeting</t>
+  </si>
+  <si>
+    <t>Mallory Sortore is a true professional who helped us set up our meeting.  The room was perfect and ensured we had a perfect meeting.  Prices were excellent and they even provided coffee service.  We were all impressed with the Holiday Inn staff--very impressive.  Great support, thanks for your help--we'll be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Mallory S, Director of Sales at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded February 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 13, 2017</t>
+  </si>
+  <si>
+    <t>Mallory Sortore is a true professional who helped us set up our meeting.  The room was perfect and ensured we had a perfect meeting.  Prices were excellent and they even provided coffee service.  We were all impressed with the Holiday Inn staff--very impressive.  Great support, thanks for your help--we'll be back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r447534677-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>447534677</t>
+  </si>
+  <si>
+    <t>12/29/2016</t>
+  </si>
+  <si>
+    <t>Very clean and new, about 30-40 mins from the Denver airport, which was not a problem. If you'd like to save a couple buck, they serve a full breakfast and have coffee 24hrs a day. Would recommend the Holiday Inn Express &amp; Suites.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Mallory S, Director of Sales at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded December 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 30, 2016</t>
+  </si>
+  <si>
+    <t>Very clean and new, about 30-40 mins from the Denver airport, which was not a problem. If you'd like to save a couple buck, they serve a full breakfast and have coffee 24hrs a day. Would recommend the Holiday Inn Express &amp; Suites.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r426355568-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>426355568</t>
+  </si>
+  <si>
+    <t>10/09/2016</t>
+  </si>
+  <si>
+    <t>Excellent Service and Pleasant Stay</t>
+  </si>
+  <si>
+    <t>We were in Castle Rock for the wedding of a dear friend and had a wonderful stay at the Holiday Inn Express. The help was superb.  When we arrived late, the staff was gracious and accommodating. Each time we walked in or out in the evening hours they called us by name and asked how our visit was going. Very friendly staff. The breakfasts had a variety of everything for all health needs and the large eating area was very nice and comfortable. We will stay here again if we ever visit Castle Rock again. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Mallory S, Director of Sales at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded October 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 10, 2016</t>
+  </si>
+  <si>
+    <t>We were in Castle Rock for the wedding of a dear friend and had a wonderful stay at the Holiday Inn Express. The help was superb.  When we arrived late, the staff was gracious and accommodating. Each time we walked in or out in the evening hours they called us by name and asked how our visit was going. Very friendly staff. The breakfasts had a variety of everything for all health needs and the large eating area was very nice and comfortable. We will stay here again if we ever visit Castle Rock again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r425170720-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>425170720</t>
+  </si>
+  <si>
+    <t>10/04/2016</t>
+  </si>
+  <si>
+    <t>Extremely friendly service, new and updated rooms</t>
+  </si>
+  <si>
+    <t>The night staff, particularly, was very accommodating and extremely friendly.  The lobby as well as the room were both updated, very clean and modern.  The cleaning staff did a great job from one night to the next.  Beds and pillows were very comfortable.  The only downside I would say is that our room was on the side of the main highway, so you could hear traffic noise in the morning.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Mallory S, Director of Sales at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded October 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 5, 2016</t>
+  </si>
+  <si>
+    <t>The night staff, particularly, was very accommodating and extremely friendly.  The lobby as well as the room were both updated, very clean and modern.  The cleaning staff did a great job from one night to the next.  Beds and pillows were very comfortable.  The only downside I would say is that our room was on the side of the main highway, so you could hear traffic noise in the morning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r418838490-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>418838490</t>
+  </si>
+  <si>
+    <t>09/15/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good motel, great service </t>
+  </si>
+  <si>
+    <t>The room has quite a bit of room although the chair is squished between 2 tables. The bathroom is nice sized. The only thing I did not like about the room was that the bathroom door opened  outward and bumped into the entry door. Service was excellent. MoreShow less</t>
+  </si>
+  <si>
+    <t>Mallory S, Director of Sales at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded September 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 16, 2016</t>
+  </si>
+  <si>
+    <t>The room has quite a bit of room although the chair is squished between 2 tables. The bathroom is nice sized. The only thing I did not like about the room was that the bathroom door opened  outward and bumped into the entry door. Service was excellent. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r415360994-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>415360994</t>
+  </si>
+  <si>
+    <t>09/06/2016</t>
+  </si>
+  <si>
+    <t>From the time we entered the front doors, the staff was very welcoming, friendly, and helpful. Our room was spacious and contained not only a Keurig coffee machine, but also a microwave, and a refrigerator with a freezer! The free breakfast was top of the line and included omelets, pancakes, different sausages, cereals, breads of all kinds, biscuits, and a wide variety of juices. The pool and hot tub were very relaxing and the 24 hour laundry was very useful. The location was great : Brewhouse (great place); Arby's (many $1.00 items from 2-5 everyday); and a Loaf N Jug store at the corner gas station that also included a Subway. All within walking distance. Many other restaurants and a grocery store are just across the freeway. Right across the street from the Outlet Malls and within 1 minute of I-25, the hotel was perfectly located. We would definitely stay at this hotel again!MoreShow less</t>
+  </si>
+  <si>
+    <t>Mallory S, Director of Sales at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded September 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 7, 2016</t>
+  </si>
+  <si>
+    <t>From the time we entered the front doors, the staff was very welcoming, friendly, and helpful. Our room was spacious and contained not only a Keurig coffee machine, but also a microwave, and a refrigerator with a freezer! The free breakfast was top of the line and included omelets, pancakes, different sausages, cereals, breads of all kinds, biscuits, and a wide variety of juices. The pool and hot tub were very relaxing and the 24 hour laundry was very useful. The location was great : Brewhouse (great place); Arby's (many $1.00 items from 2-5 everyday); and a Loaf N Jug store at the corner gas station that also included a Subway. All within walking distance. Many other restaurants and a grocery store are just across the freeway. Right across the street from the Outlet Malls and within 1 minute of I-25, the hotel was perfectly located. We would definitely stay at this hotel again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r414739653-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>414739653</t>
+  </si>
+  <si>
+    <t>09/04/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Highly recommended </t>
+  </si>
+  <si>
+    <t>We've been to several hotels during our trip. This one is by far the best. Friendly and helpful staff. Newer facility. Clean and modern room. Good exercise equipments. Located right by Castle Rock outlet. Highly recommended!MoreShow less</t>
+  </si>
+  <si>
+    <t>We've been to several hotels during our trip. This one is by far the best. Friendly and helpful staff. Newer facility. Clean and modern room. Good exercise equipments. Located right by Castle Rock outlet. Highly recommended!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r412531014-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>412531014</t>
+  </si>
+  <si>
+    <t>08/29/2016</t>
+  </si>
+  <si>
+    <t>Too good to be true? Yes, it is that good, and better!</t>
+  </si>
+  <si>
+    <t>I spent 3 nights at this Hotel- note that I refer to it as a hotel, as it in no way resembles a motel or motor in, except perhaps free parking. There is much to like about this hostlery:Double thick, firm mattresses , which by the way, I learned are rotated every 3-4 months: exercise facilities that include a variety of fitness equipment and a spotlessly maintained, indoor pool: extensive selection of breakfast items, including hot and cold items, and I have to say it is the best I have seen: two computers in the lobby including access to printers and of course WIFI, in your room, free of course.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Mallory S, Director of Sales at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded August 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 31, 2016</t>
+  </si>
+  <si>
+    <t>I spent 3 nights at this Hotel- note that I refer to it as a hotel, as it in no way resembles a motel or motor in, except perhaps free parking. There is much to like about this hostlery:Double thick, firm mattresses , which by the way, I learned are rotated every 3-4 months: exercise facilities that include a variety of fitness equipment and a spotlessly maintained, indoor pool: extensive selection of breakfast items, including hot and cold items, and I have to say it is the best I have seen: two computers in the lobby including access to printers and of course WIFI, in your room, free of course.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r396910345-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>396910345</t>
+  </si>
+  <si>
+    <t>07/25/2016</t>
+  </si>
+  <si>
+    <t>Great Holiday Inn</t>
+  </si>
+  <si>
+    <t>This Holiday Inn is a clean modern hotel located by the factory outlet stores and many other stores and restaurants.  The service is attentive, helpful and cheerful.  The hotel has a lovely hot breakfast, a great gym pool and hot tub.  The rooms are clean the beds are comfortable.  This is a great hotel to stay at.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Mallory S, Director of Sales at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded August 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 15, 2016</t>
+  </si>
+  <si>
+    <t>This Holiday Inn is a clean modern hotel located by the factory outlet stores and many other stores and restaurants.  The service is attentive, helpful and cheerful.  The hotel has a lovely hot breakfast, a great gym pool and hot tub.  The rooms are clean the beds are comfortable.  This is a great hotel to stay at.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r394009636-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>394009636</t>
+  </si>
+  <si>
+    <t>07/18/2016</t>
+  </si>
+  <si>
+    <t>GREAT</t>
+  </si>
+  <si>
+    <t>This location is pretty new and the team that works there is very friendly and helpful.The lobby is always clean and inviting and the staff greets you and does a great job at making your stay better than just acceptable !Warm cookies in the afternoon and a pleasant breakfast in the morning, nice work out room with a pool and Jacuzzi help to set this Holiday Inn among the best hotels in the area.  I have stayed at most of them.Good work !James EvansMoreShow less</t>
+  </si>
+  <si>
+    <t>Mallory S, Director of Sales at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded July 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2016</t>
+  </si>
+  <si>
+    <t>This location is pretty new and the team that works there is very friendly and helpful.The lobby is always clean and inviting and the staff greets you and does a great job at making your stay better than just acceptable !Warm cookies in the afternoon and a pleasant breakfast in the morning, nice work out room with a pool and Jacuzzi help to set this Holiday Inn among the best hotels in the area.  I have stayed at most of them.Good work !James EvansMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r393712082-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>393712082</t>
+  </si>
+  <si>
+    <t>07/17/2016</t>
+  </si>
+  <si>
+    <t>Clean, comfortable, helpful staff</t>
+  </si>
+  <si>
+    <t>I have made Holiday Inn Express my go-to place for lodging.  I am almost never disappointed and this location was no exception.  Good location, helpful and friendly staff, quiet and clean room.  This was a new facility so everything was particularly nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Mallory S, Director of Sales at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded July 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2016</t>
+  </si>
+  <si>
+    <t>I have made Holiday Inn Express my go-to place for lodging.  I am almost never disappointed and this location was no exception.  Good location, helpful and friendly staff, quiet and clean room.  This was a new facility so everything was particularly nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r390496804-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>390496804</t>
+  </si>
+  <si>
+    <t>07/08/2016</t>
+  </si>
+  <si>
+    <t>Good Location for Outlet Mall</t>
+  </si>
+  <si>
+    <t>Picked the location because of close promimity to the Castle Rock Outlet Mall.  Not sure of the age of this property but appears to be quite new?  Good sized king room with a modern appearance.While I found the bed a bit soft for my liking, I found the pillow sets to be an interesting concept.  Four pillows per bed - two marked soft and two marked firm.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Picked the location because of close promimity to the Castle Rock Outlet Mall.  Not sure of the age of this property but appears to be quite new?  Good sized king room with a modern appearance.While I found the bed a bit soft for my liking, I found the pillow sets to be an interesting concept.  Four pillows per bed - two marked soft and two marked firm.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r388747103-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>388747103</t>
+  </si>
+  <si>
+    <t>07/03/2016</t>
+  </si>
+  <si>
+    <t>Good location South Denver</t>
+  </si>
+  <si>
+    <t>The hotel is in a great location.  Outlet shopping and upper end malls nearby.  Only 40 minutes to airport.  Property is very clean.  All employees were very friendly. Not all rooms have tubs so if you want a tub you might request one. Good variety for free breakfastMoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel is in a great location.  Outlet shopping and upper end malls nearby.  Only 40 minutes to airport.  Property is very clean.  All employees were very friendly. Not all rooms have tubs so if you want a tub you might request one. Good variety for free breakfastMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r387861787-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>387861787</t>
+  </si>
+  <si>
+    <t>06/30/2016</t>
+  </si>
+  <si>
+    <t>Don't stay in 202 or any room like it!</t>
+  </si>
+  <si>
+    <t>Hotel was nice and new but the room was next to a maintenance closet. The staff was banging around in there till nearly 10pm and I was woken by the sounds of drilling on the other side of my headboard at 7am.  Aside from that annoyance, the hotel includes a great view, ask for a room on the front of the building to see it! Great proximity to a local microbrew and access to beautiful scenic drives. MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded July 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 16, 2016</t>
+  </si>
+  <si>
+    <t>Hotel was nice and new but the room was next to a maintenance closet. The staff was banging around in there till nearly 10pm and I was woken by the sounds of drilling on the other side of my headboard at 7am.  Aside from that annoyance, the hotel includes a great view, ask for a room on the front of the building to see it! Great proximity to a local microbrew and access to beautiful scenic drives. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r380094947-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>380094947</t>
+  </si>
+  <si>
+    <t>06/05/2016</t>
+  </si>
+  <si>
+    <t>A pleasant surprise!</t>
+  </si>
+  <si>
+    <t>The check-in was wonderful and easy with excellent customer service. The room was very comfortable with nice finishes. Suggest top floor with a west side view. There was a party in one of the rooms on the main floor, and they were very gracious to move us to a higher floor away from the noise. Breakfast was good and excellent coffee. Will stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Mallory S, Director of Sales at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded June 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 17, 2016</t>
+  </si>
+  <si>
+    <t>The check-in was wonderful and easy with excellent customer service. The room was very comfortable with nice finishes. Suggest top floor with a west side view. There was a party in one of the rooms on the main floor, and they were very gracious to move us to a higher floor away from the noise. Breakfast was good and excellent coffee. Will stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r373853445-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>373853445</t>
+  </si>
+  <si>
+    <t>05/17/2016</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>The desk clerk at night was very kind. He was super helpful and got me a room when I really needed the rest. The room was nice and clean and the style was very modern. The sheets smelt clean and the bed was comfortable. There were also many channels to pick from on the TV which was nice. Would visit again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Mallory S, Director of Sales at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded June 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 2, 2016</t>
+  </si>
+  <si>
+    <t>The desk clerk at night was very kind. He was super helpful and got me a room when I really needed the rest. The room was nice and clean and the style was very modern. The sheets smelt clean and the bed was comfortable. There were also many channels to pick from on the TV which was nice. Would visit again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r364370896-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>364370896</t>
+  </si>
+  <si>
+    <t>04/15/2016</t>
+  </si>
+  <si>
+    <t>Nice and Friendly</t>
+  </si>
+  <si>
+    <t>We stayed here for 2 nights. The facility is very appealing in all areas. The front lobby was large and comfortable. The evening desk staff were very friendly and helpful. The check in process was about as smooth as I have experienced in a while.  They were great to give us local restaurant and shopping information. ( which resulted in some great discounts at the outlet mall nearby!!!). There are many places to eat in the immediate area, some within walking distance. I did not use the fitness room but it appeared to have lots of usable equipment including medicine and exercise balls in addition to the normal machines. Breakfast included lots of options and of course the famous warm cinnamon rolls. The breakfast staff was friendly as well.  The rooms were standard and clean. The beds were comfortable, not to soft or not to hard. Our stay was pleasant and affordable.  Thanks for your hospitality!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Mallory S, Director of Sales at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded April 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 25, 2016</t>
+  </si>
+  <si>
+    <t>We stayed here for 2 nights. The facility is very appealing in all areas. The front lobby was large and comfortable. The evening desk staff were very friendly and helpful. The check in process was about as smooth as I have experienced in a while.  They were great to give us local restaurant and shopping information. ( which resulted in some great discounts at the outlet mall nearby!!!). There are many places to eat in the immediate area, some within walking distance. I did not use the fitness room but it appeared to have lots of usable equipment including medicine and exercise balls in addition to the normal machines. Breakfast included lots of options and of course the famous warm cinnamon rolls. The breakfast staff was friendly as well.  The rooms were standard and clean. The beds were comfortable, not to soft or not to hard. Our stay was pleasant and affordable.  Thanks for your hospitality!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r336558554-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>336558554</t>
+  </si>
+  <si>
+    <t>01/01/2016</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>Nice newer property.  Clean and well maintained. Enjoyed the large workout room and breakfast area. Good location and near shopping. Room was very clean and modern plus staff was very helpful. Definitely will return.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Mallory S, Director of Sales at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded January 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 4, 2016</t>
+  </si>
+  <si>
+    <t>Nice newer property.  Clean and well maintained. Enjoyed the large workout room and breakfast area. Good location and near shopping. Room was very clean and modern plus staff was very helpful. Definitely will return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r331405088-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>331405088</t>
+  </si>
+  <si>
+    <t>12/08/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beautiful room/Thin walls </t>
+  </si>
+  <si>
+    <t>The room was beautiful and very clean. The staff was friendly and attentive.  However we got very little sleep because the tv from neighboring room was directly behind our headboards and could be heard clearly well into the night.  Walking from people above was us was not buffered well and very loud.  I don't mind paying a little more to stay here then budget hotel but I have gotten more sleep at cheaper hotels.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Mallory S, Director of Sales at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded December 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 14, 2015</t>
+  </si>
+  <si>
+    <t>The room was beautiful and very clean. The staff was friendly and attentive.  However we got very little sleep because the tv from neighboring room was directly behind our headboards and could be heard clearly well into the night.  Walking from people above was us was not buffered well and very loud.  I don't mind paying a little more to stay here then budget hotel but I have gotten more sleep at cheaper hotels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r330323549-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>330323549</t>
+  </si>
+  <si>
+    <t>12/02/2015</t>
+  </si>
+  <si>
+    <t>Great stay at HI Express Castle Rock</t>
+  </si>
+  <si>
+    <t>Staff friendly and efficient (especially Stormy at the front desk).  Room nicely appointed and sparkling clean.  Wifi worked great.  Breakfast buffet had many options, was very good and the staff was attentive every morning.  Workout room big and well equipped &amp; hot tub was great after running the Castle Rock Trot on Thanksgiving day.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Mallory S, Director of Sales at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded December 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 4, 2015</t>
+  </si>
+  <si>
+    <t>Staff friendly and efficient (especially Stormy at the front desk).  Room nicely appointed and sparkling clean.  Wifi worked great.  Breakfast buffet had many options, was very good and the staff was attentive every morning.  Workout room big and well equipped &amp; hot tub was great after running the Castle Rock Trot on Thanksgiving day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r325802407-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>325802407</t>
+  </si>
+  <si>
+    <t>11/10/2015</t>
+  </si>
+  <si>
+    <t>A great stay</t>
+  </si>
+  <si>
+    <t>This hotel was very nice! The staff was friendly, the hotel and rooms were very clean, and the continental bfast was good! Recommend for everyone! Ps it's across the street from the mall, which idk who doesn't love to shop, and ihop is in the parking lot and the only time for pancakes is all the time! We will stay there again when we're in castle rock!  MoreShow less</t>
+  </si>
+  <si>
+    <t>Mallory S, Director of Sales at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded November 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 11, 2015</t>
+  </si>
+  <si>
+    <t>This hotel was very nice! The staff was friendly, the hotel and rooms were very clean, and the continental bfast was good! Recommend for everyone! Ps it's across the street from the mall, which idk who doesn't love to shop, and ihop is in the parking lot and the only time for pancakes is all the time! We will stay there again when we're in castle rock!  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r325301976-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>325301976</t>
+  </si>
+  <si>
+    <t>11/08/2015</t>
+  </si>
+  <si>
+    <t>great location</t>
+  </si>
+  <si>
+    <t>comfortable rooms, great location near outlet mall and lots of dining options. the staff was great and helped with all our needs. as usual the free breakfast is best skipped or stick to the cereal and yogurt.MoreShow less</t>
+  </si>
+  <si>
+    <t>Mallory S, Director of Sales at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded November 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 9, 2015</t>
+  </si>
+  <si>
+    <t>comfortable rooms, great location near outlet mall and lots of dining options. the staff was great and helped with all our needs. as usual the free breakfast is best skipped or stick to the cereal and yogurt.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r320180260-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>320180260</t>
+  </si>
+  <si>
+    <t>10/19/2015</t>
+  </si>
+  <si>
+    <t>Fan-freaking-tastic!</t>
+  </si>
+  <si>
+    <t>This might be one of the most pleasant stays at a hotel I've ever had. Let's break it down..Rooms: Clean, spacious, modern and comfortable.Food: Breakfast was fairly decent with hot food selection, fruit, yogurt, milk, bread items, etc. They also have a coffee and tea station that stays open all day AND they offer Otis Spunkmeyer cookies in the afternoon- yum!Service: This might have been the best part of our trip. Front desk was super friendly and accommodating. For instance, when they ran out of cookies we requested they make more and the front desk girl (Stormy) helped us right out! The lady who organized breakfast in the morning was also very friendly and helpful.Location: Easy access to Castle Rock, right off I25 which made it convenient to get around to any area around Denver. Also...right by the Outlet Malls (which are pretty fantastic for shopping).My only "complaint" is I wished their rooms had mini fridges so we could store bottled water for our hikes. Other than that, I would be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Mallory S, Director of Sales at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded October 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 21, 2015</t>
+  </si>
+  <si>
+    <t>This might be one of the most pleasant stays at a hotel I've ever had. Let's break it down..Rooms: Clean, spacious, modern and comfortable.Food: Breakfast was fairly decent with hot food selection, fruit, yogurt, milk, bread items, etc. They also have a coffee and tea station that stays open all day AND they offer Otis Spunkmeyer cookies in the afternoon- yum!Service: This might have been the best part of our trip. Front desk was super friendly and accommodating. For instance, when they ran out of cookies we requested they make more and the front desk girl (Stormy) helped us right out! The lady who organized breakfast in the morning was also very friendly and helpful.Location: Easy access to Castle Rock, right off I25 which made it convenient to get around to any area around Denver. Also...right by the Outlet Malls (which are pretty fantastic for shopping).My only "complaint" is I wished their rooms had mini fridges so we could store bottled water for our hikes. Other than that, I would be back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r314894290-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>314894290</t>
+  </si>
+  <si>
+    <t>09/29/2015</t>
+  </si>
+  <si>
+    <t>Loved staying here! clean, modern, fun and economical</t>
+  </si>
+  <si>
+    <t>I stayed here for 4 days when visiting my son and his family in CR. I loved this hotel. I never thought 10 years ago that a Holiday Inn would be my preference but it is. They have sure come a long way. I was impressed with how modern, clean, and nice everything was. The breakfast was good too. We enjoyed the indoor pool and really had a good time. The location is great - near the outlet mall and other stuff. Definitely would come back.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Mallory S, Director of Sales at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded September 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 30, 2015</t>
+  </si>
+  <si>
+    <t>I stayed here for 4 days when visiting my son and his family in CR. I loved this hotel. I never thought 10 years ago that a Holiday Inn would be my preference but it is. They have sure come a long way. I was impressed with how modern, clean, and nice everything was. The breakfast was good too. We enjoyed the indoor pool and really had a good time. The location is great - near the outlet mall and other stuff. Definitely would come back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r310779080-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>310779080</t>
+  </si>
+  <si>
+    <t>09/15/2015</t>
+  </si>
+  <si>
+    <t>A People Friendly Hotel</t>
+  </si>
+  <si>
+    <t>We recently spent 4 nights at The Holiday Inn Express and Suites in Castle Rock.  Overall we thought the hotel attractive and welcoming. The lobby is very open and has plenty of natural light.The manager couldn't have been more pleasant and helpful.  The rest of the staff rates highly also.Breakfast foods were fresh and plentiful.This review would be rated "excellent" if the bathroom had higher quality fixtures.  As it was, our shower fixtures were loose, the water faucets in the sink leaked copiously, and the toilet seat kept coming off.  It could be reattatched and my husband did so several times, but it continued to come off.The rest of the room was fine, clean and  well appointed and the bed was quite comfortable.  We would stay there again- after checking out the bathroom.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Mallory S, Director of Sales at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded September 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 16, 2015</t>
+  </si>
+  <si>
+    <t>We recently spent 4 nights at The Holiday Inn Express and Suites in Castle Rock.  Overall we thought the hotel attractive and welcoming. The lobby is very open and has plenty of natural light.The manager couldn't have been more pleasant and helpful.  The rest of the staff rates highly also.Breakfast foods were fresh and plentiful.This review would be rated "excellent" if the bathroom had higher quality fixtures.  As it was, our shower fixtures were loose, the water faucets in the sink leaked copiously, and the toilet seat kept coming off.  It could be reattatched and my husband did so several times, but it continued to come off.The rest of the room was fine, clean and  well appointed and the bed was quite comfortable.  We would stay there again- after checking out the bathroom.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r310722497-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>310722497</t>
+  </si>
+  <si>
+    <t>Clean and new hotel</t>
+  </si>
+  <si>
+    <t>Love this hotel, staff are accommodating and friendly. The interiors are modern.Only thing i noticed, all Holiday Inn I've stayed this is the only hotel without a refrigerator in our room. This hotel also is convenient to the outlet store and restaurants.MoreShow less</t>
+  </si>
+  <si>
+    <t>Love this hotel, staff are accommodating and friendly. The interiors are modern.Only thing i noticed, all Holiday Inn I've stayed this is the only hotel without a refrigerator in our room. This hotel also is convenient to the outlet store and restaurants.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r307865711-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>307865711</t>
+  </si>
+  <si>
+    <t>09/07/2015</t>
+  </si>
+  <si>
+    <t>convenience coupled with outstanding service and accomodations</t>
+  </si>
+  <si>
+    <t>Visiting my son and family for a week.  The hotel is convenient to restaurants, shopping and close to major highways.  About 45 minutes from the Denver Airport.The staff was outstanding, breakfasts excellent and I really have to applaud everyone on the cleanliness - a critical necessity for me!Lots of space, free wifi, free newspapers, and a surprise gift toward the end of our stay.Don't miss an afternoon of shopping in downtown Castle Rock...just lovely!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Mallory S, Director of Sales at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded September 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 8, 2015</t>
+  </si>
+  <si>
+    <t>Visiting my son and family for a week.  The hotel is convenient to restaurants, shopping and close to major highways.  About 45 minutes from the Denver Airport.The staff was outstanding, breakfasts excellent and I really have to applaud everyone on the cleanliness - a critical necessity for me!Lots of space, free wifi, free newspapers, and a surprise gift toward the end of our stay.Don't miss an afternoon of shopping in downtown Castle Rock...just lovely!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r305004112-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>305004112</t>
+  </si>
+  <si>
+    <t>08/30/2015</t>
+  </si>
+  <si>
+    <t>New Hotel</t>
+  </si>
+  <si>
+    <t>Greeted with a big smile from Tori at check in. All the staff were friendly. Lob=by area welcoming and bright,pool very nice.  Computer downstairs in lobby to use.Room was clean as was the bathroom. Quiet night sleep. Comfortable bed and pillows. Over all experience at this hotel was excellent. I just hope they continue to keep this standard up.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Mallory S, Director of Sales at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded September 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 1, 2015</t>
+  </si>
+  <si>
+    <t>Greeted with a big smile from Tori at check in. All the staff were friendly. Lob=by area welcoming and bright,pool very nice.  Computer downstairs in lobby to use.Room was clean as was the bathroom. Quiet night sleep. Comfortable bed and pillows. Over all experience at this hotel was excellent. I just hope they continue to keep this standard up.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r301314672-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>301314672</t>
+  </si>
+  <si>
+    <t>08/19/2015</t>
+  </si>
+  <si>
+    <t>Nice but lacking</t>
+  </si>
+  <si>
+    <t>The room was nice but for the price I demand a refrigerator.  In this price range I cannot go higher than a 3 if the room does not have a refrigerator, microwave, and coffee maker.  This was not a reasonable priced hotel.  I have a refrigerator in Super 8s .  That disappointed me.  Otherwise the place was good.  Man at the desk was very nice and helpful.  The bed was comfortable although I had trouble sleeping, just my problem, shower was good.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jackie L, General Manager at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded August 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 21, 2015</t>
+  </si>
+  <si>
+    <t>The room was nice but for the price I demand a refrigerator.  In this price range I cannot go higher than a 3 if the room does not have a refrigerator, microwave, and coffee maker.  This was not a reasonable priced hotel.  I have a refrigerator in Super 8s .  That disappointed me.  Otherwise the place was good.  Man at the desk was very nice and helpful.  The bed was comfortable although I had trouble sleeping, just my problem, shower was good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r296445293-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>296445293</t>
+  </si>
+  <si>
+    <t>08/06/2015</t>
+  </si>
+  <si>
+    <t>Beautiful hotel!!!</t>
+  </si>
+  <si>
+    <t>Took family on a 2 week vacation from Grand Canyon to Yellowstone and out of all the hotels we stayed at this was by far the nicest hotel we stayed at, it was also the the least expensive. sadly I think my kids like this hotel more than all the national parks we visited.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jackie L, General Manager at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded August 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 12, 2015</t>
+  </si>
+  <si>
+    <t>Took family on a 2 week vacation from Grand Canyon to Yellowstone and out of all the hotels we stayed at this was by far the nicest hotel we stayed at, it was also the the least expensive. sadly I think my kids like this hotel more than all the national parks we visited.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r293942268-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>293942268</t>
+  </si>
+  <si>
+    <t>07/29/2015</t>
+  </si>
+  <si>
+    <t>Overpriced and not so hot</t>
+  </si>
+  <si>
+    <t>We found this hotel to be quite sub-standard. While it is new, the beds are comfy, the pool is nice, has a better than continental breakfast, and the convenient location is great the cons outweighed for us. Brown water, repeatedly out of towels at the pool, very poor water pressure in our room shower, trouble with the key cards (twice), and so-so interactions with the hotel staff, sluggish wi-fi, and a good deal of disturbance in the hallway. Small details like toilet paper not replaced between days, and crummy toiletries all just added up. We've stayed in less expensive/nicer hotels, including other Holiday Inns.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jackie L, General Manager at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded July 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 30, 2015</t>
+  </si>
+  <si>
+    <t>We found this hotel to be quite sub-standard. While it is new, the beds are comfy, the pool is nice, has a better than continental breakfast, and the convenient location is great the cons outweighed for us. Brown water, repeatedly out of towels at the pool, very poor water pressure in our room shower, trouble with the key cards (twice), and so-so interactions with the hotel staff, sluggish wi-fi, and a good deal of disturbance in the hallway. Small details like toilet paper not replaced between days, and crummy toiletries all just added up. We've stayed in less expensive/nicer hotels, including other Holiday Inns.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r292486180-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>292486180</t>
+  </si>
+  <si>
+    <t>07/25/2015</t>
+  </si>
+  <si>
+    <t>Thank you for another successful business seminar!!</t>
+  </si>
+  <si>
+    <t>Five Star review for our recent meetings at the new Holiday Inn Express in Castle Rock, CO.  My compliments to the staff for being so patient with me as I had to change my dates due to illness the last minute.  All the attendees raved about the hotel and insisted we have our fall seminar at this Holiday Inn Express.  Some of my out of town guests booked rooms and  were very impressed with this facility including the complimentary breakfast buffet.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jackie L, General Manager at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded July 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2015</t>
+  </si>
+  <si>
+    <t>Five Star review for our recent meetings at the new Holiday Inn Express in Castle Rock, CO.  My compliments to the staff for being so patient with me as I had to change my dates due to illness the last minute.  All the attendees raved about the hotel and insisted we have our fall seminar at this Holiday Inn Express.  Some of my out of town guests booked rooms and  were very impressed with this facility including the complimentary breakfast buffet.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r287665997-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>287665997</t>
+  </si>
+  <si>
+    <t>07/10/2015</t>
+  </si>
+  <si>
+    <t>Highly Recommend you stay here!</t>
+  </si>
+  <si>
+    <t>Highly recommend staying here!  We were very impressed with how clean the hotel is, as well as how friendly and professional the staff was.  Rooms were very nice with spacious clean bathrooms, great pool area and wonderful breakfast selections.  After a very unpleasant stay at the Comfort Suites across the road, we checked in to this Holiday Inn and it exceeded our expectations!  Thanks Holiday Inn!  We look forward to staying here in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jackie L, General Manager at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded July 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2015</t>
+  </si>
+  <si>
+    <t>Highly recommend staying here!  We were very impressed with how clean the hotel is, as well as how friendly and professional the staff was.  Rooms were very nice with spacious clean bathrooms, great pool area and wonderful breakfast selections.  After a very unpleasant stay at the Comfort Suites across the road, we checked in to this Holiday Inn and it exceeded our expectations!  Thanks Holiday Inn!  We look forward to staying here in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r286077217-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>286077217</t>
+  </si>
+  <si>
+    <t>07/06/2015</t>
+  </si>
+  <si>
+    <t>Awesome!!!</t>
+  </si>
+  <si>
+    <t>Great experience. Stormy and Jodi were very helpful getting is settled in after a horrible stay at the comfort inn and suites located right next door!!! This was one of cleanest hotels I've been in! My family looks forward to staying here again next time in colorado MoreShow less</t>
+  </si>
+  <si>
+    <t>Jackie L, General Manager at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded July 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 7, 2015</t>
+  </si>
+  <si>
+    <t>Great experience. Stormy and Jodi were very helpful getting is settled in after a horrible stay at the comfort inn and suites located right next door!!! This was one of cleanest hotels I've been in! My family looks forward to staying here again next time in colorado More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r284557155-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>284557155</t>
+  </si>
+  <si>
+    <t>06/30/2015</t>
+  </si>
+  <si>
+    <t>Excellent hotel</t>
+  </si>
+  <si>
+    <t>The hotel was extremely clean &amp; neat. Kuddos to housekeeping.  Also, excellent customer service and attentive staff.  Breakfast was wonderful!  Special kuddos to Stormy &amp; the manager on duty who found my lost keys!  I did not discover that I lost my keys until days after our stay at the Holiday Inn.  After arrival in Michigan, I called the hotel &amp; Stormy said my keys were there &amp; they would Fed-Ex them to me.  Stormy needs to change her  name to "Sunny"!!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Jackie L, General Manager at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded July 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 1, 2015</t>
+  </si>
+  <si>
+    <t>The hotel was extremely clean &amp; neat. Kuddos to housekeeping.  Also, excellent customer service and attentive staff.  Breakfast was wonderful!  Special kuddos to Stormy &amp; the manager on duty who found my lost keys!  I did not discover that I lost my keys until days after our stay at the Holiday Inn.  After arrival in Michigan, I called the hotel &amp; Stormy said my keys were there &amp; they would Fed-Ex them to me.  Stormy needs to change her  name to "Sunny"!!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r282646693-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>282646693</t>
+  </si>
+  <si>
+    <t>06/24/2015</t>
+  </si>
+  <si>
+    <t>I don't want to leave!</t>
+  </si>
+  <si>
+    <t>Although I have beloved family in Denver, I needed a couple of days on my road trip to regroup and visit some friends on the south side of town.I'm a Hilton HHonors Diamond member, but I think Holiday Inn has my business from here on out. This property in particular is gorgeous. It's brand new. I checked in and my friend, who's an interior designer, asked me to take pictures of the lobby for her. The room is equally beautiful. Plus, the workout room has REAL equipment and it all works!The staff is really great, too. Bernadette, the breakfast attendant, was constantly cleaning. I was just going to have coffee, but the breakfast items were pretty enticing. I never see greek yogurt at the Hampton Inn. So, sorry, Hampton, it's Holiday Inn for me from now on.I thought about checking out a day early to be with the family, but they're going to have to wait. This place (which is across the street from the outlet mall) is too good to leave.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jackie L, General Manager at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded June 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 26, 2015</t>
+  </si>
+  <si>
+    <t>Although I have beloved family in Denver, I needed a couple of days on my road trip to regroup and visit some friends on the south side of town.I'm a Hilton HHonors Diamond member, but I think Holiday Inn has my business from here on out. This property in particular is gorgeous. It's brand new. I checked in and my friend, who's an interior designer, asked me to take pictures of the lobby for her. The room is equally beautiful. Plus, the workout room has REAL equipment and it all works!The staff is really great, too. Bernadette, the breakfast attendant, was constantly cleaning. I was just going to have coffee, but the breakfast items were pretty enticing. I never see greek yogurt at the Hampton Inn. So, sorry, Hampton, it's Holiday Inn for me from now on.I thought about checking out a day early to be with the family, but they're going to have to wait. This place (which is across the street from the outlet mall) is too good to leave.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r279413926-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>279413926</t>
+  </si>
+  <si>
+    <t>06/10/2015</t>
+  </si>
+  <si>
+    <t>Great workout equipment, very clean and felt comfortable</t>
+  </si>
+  <si>
+    <t>Very nice hotel and great location.  It seem new or just remodeled.  Comfortable rooms and very clean.  I don't like being close to elevators, but it was very quiet and peaceful while I was there.  I felt very safe and enjoyed my stay.  It is not right up against the interstate so it was not noisy with traffic.  I highly recommend staying here when in Castle Rock.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jackie L, General Manager at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded June 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 15, 2015</t>
+  </si>
+  <si>
+    <t>Very nice hotel and great location.  It seem new or just remodeled.  Comfortable rooms and very clean.  I don't like being close to elevators, but it was very quiet and peaceful while I was there.  I felt very safe and enjoyed my stay.  It is not right up against the interstate so it was not noisy with traffic.  I highly recommend staying here when in Castle Rock.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r278321046-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>278321046</t>
+  </si>
+  <si>
+    <t>06/06/2015</t>
+  </si>
+  <si>
+    <t>Great property, terrific staff</t>
+  </si>
+  <si>
+    <t>This is a new Holiday Inn Express, a very nice property.  The staff here is terrific, I did not get names but the young man who is the Operations Manager, the young lady who checked us in, and everyone else on the front desk were helpful, polite, friendly and professional.  A good breakfast selection with terrific staff too.  I highly recommend this Holiday Inn Express.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Jackie L, General Manager at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded June 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 8, 2015</t>
+  </si>
+  <si>
+    <t>This is a new Holiday Inn Express, a very nice property.  The staff here is terrific, I did not get names but the young man who is the Operations Manager, the young lady who checked us in, and everyone else on the front desk were helpful, polite, friendly and professional.  A good breakfast selection with terrific staff too.  I highly recommend this Holiday Inn Express.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r271631215-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>271631215</t>
+  </si>
+  <si>
+    <t>05/12/2015</t>
+  </si>
+  <si>
+    <t>GREAT UPDATED PROPERTY</t>
+  </si>
+  <si>
+    <t>Great location, easy access to dining and shopping (outlet mall 1 block away).  Front desk clerk Glenn was awesome and very inviting.  Gave great explanation of what all the hotel had to offer.  Water, coffee, tea, cookies were set out at all times free to guests.  Room was very clean and updated.  Nice bathroom and I enjoyed the full size hair dryer.  We were caught in a freak snow storm the week of May 7, 2015 and the hotel was busy with last minute travelers needing rooms and the staff was very helpful to all of them.  I will definately be returning to this location next time we are in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jackie L, Manager at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded May 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 13, 2015</t>
+  </si>
+  <si>
+    <t>Great location, easy access to dining and shopping (outlet mall 1 block away).  Front desk clerk Glenn was awesome and very inviting.  Gave great explanation of what all the hotel had to offer.  Water, coffee, tea, cookies were set out at all times free to guests.  Room was very clean and updated.  Nice bathroom and I enjoyed the full size hair dryer.  We were caught in a freak snow storm the week of May 7, 2015 and the hotel was busy with last minute travelers needing rooms and the staff was very helpful to all of them.  I will definately be returning to this location next time we are in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r270033625-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>270033625</t>
+  </si>
+  <si>
+    <t>05/04/2015</t>
+  </si>
+  <si>
+    <t>Nice hotel, great staff, awesome fitness room, decent location, would stay there again</t>
+  </si>
+  <si>
+    <t>I was really glad that I stayed at this hotel last Saturday night.  The hotel is fairly new.  The bed was great.  Most hotel gyms are really small and no real equipment.  I was very impressed by this hotel's gym.  The staff was awesome - very friendly and helpful.  The location is also very good.  I wanted to walk around after driving all day.  There were many restaurants, malls, and convenience stores to walk to.  I was so impressed by the hotel, I booked it for October for my next business trip to Castle Rock.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jackie L, General Manager at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded May 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 7, 2015</t>
+  </si>
+  <si>
+    <t>I was really glad that I stayed at this hotel last Saturday night.  The hotel is fairly new.  The bed was great.  Most hotel gyms are really small and no real equipment.  I was very impressed by this hotel's gym.  The staff was awesome - very friendly and helpful.  The location is also very good.  I wanted to walk around after driving all day.  There were many restaurants, malls, and convenience stores to walk to.  I was so impressed by the hotel, I booked it for October for my next business trip to Castle Rock.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r269523400-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>269523400</t>
+  </si>
+  <si>
+    <t>05/02/2015</t>
+  </si>
+  <si>
+    <t>Awesome Staff and Accomidations</t>
+  </si>
+  <si>
+    <t>I would like to express my continuing appreciation for the staff that always shows exemplary hospitality. Tori and Glenn at the front desk and Jackie and Steve at the management level. It is without question they are the best in the business. Thanks Bunches.Respectfully,PaulMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Jackie L, General Manager at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded May 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 4, 2015</t>
+  </si>
+  <si>
+    <t>I would like to express my continuing appreciation for the staff that always shows exemplary hospitality. Tori and Glenn at the front desk and Jackie and Steve at the management level. It is without question they are the best in the business. Thanks Bunches.Respectfully,PaulMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r259763456-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>259763456</t>
+  </si>
+  <si>
+    <t>03/16/2015</t>
+  </si>
+  <si>
+    <t>Best of its class I have ever visited!</t>
+  </si>
+  <si>
+    <t>I had to spend two weeks in Castle Rock for work.  I stayed the first week at the Best Western Plus (across the cul-de-sac from this hotel).  On a tip from a colleague, I stayed at this newly opened hotel the second week.I think it is the nicest hotel of its class in which I have ever stayed.  That it is minty fresh new certainly helps.  But it is more than that.  Very tasteful and relaxing choices throughout.  The beds are comfortable, the lighting excellent and it has a walk in shower with sliding glass door (I hate those hotel bathtub combinations). It has a great fitness center full of Precor machines, free and fast wi-fi, nice business alcove in the lobby with computers and printers and pretty good coffee with a decent breakfast choice.It was a terrific surprise.  The staff was wonderfully friendly and helpful (particularly Torie (?) and the manager who sent us to a nearby restaurant for a great burger!).All in all, a wonderful stay.  It is unquestionably the nicest place to stay in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Jackie L, General Manager at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded March 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 17, 2015</t>
+  </si>
+  <si>
+    <t>I had to spend two weeks in Castle Rock for work.  I stayed the first week at the Best Western Plus (across the cul-de-sac from this hotel).  On a tip from a colleague, I stayed at this newly opened hotel the second week.I think it is the nicest hotel of its class in which I have ever stayed.  That it is minty fresh new certainly helps.  But it is more than that.  Very tasteful and relaxing choices throughout.  The beds are comfortable, the lighting excellent and it has a walk in shower with sliding glass door (I hate those hotel bathtub combinations). It has a great fitness center full of Precor machines, free and fast wi-fi, nice business alcove in the lobby with computers and printers and pretty good coffee with a decent breakfast choice.It was a terrific surprise.  The staff was wonderfully friendly and helpful (particularly Torie (?) and the manager who sent us to a nearby restaurant for a great burger!).All in all, a wonderful stay.  It is unquestionably the nicest place to stay in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r259653729-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>259653729</t>
+  </si>
+  <si>
+    <t>03/15/2015</t>
+  </si>
+  <si>
+    <t>New and fresh</t>
+  </si>
+  <si>
+    <t>This is a brand new point of the express chain. The hotel has the updated fresh modern interior decor. The ac/heat was quiet and very functional. The tv is directtv and has gobs of channels. I wish other hotels would catch on to this format of tv since some places I stay I get about 15 channels at best. The food was good and the eating area is spacious. This location is next door to an ihop and across the street from the outlet mall. If you need something it is not far away. I will be back in the future. MoreShow less</t>
+  </si>
+  <si>
+    <t>Jackie L, General Manager at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded March 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 16, 2015</t>
+  </si>
+  <si>
+    <t>This is a brand new point of the express chain. The hotel has the updated fresh modern interior decor. The ac/heat was quiet and very functional. The tv is directtv and has gobs of channels. I wish other hotels would catch on to this format of tv since some places I stay I get about 15 channels at best. The food was good and the eating area is spacious. This location is next door to an ihop and across the street from the outlet mall. If you need something it is not far away. I will be back in the future. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r259472063-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>259472063</t>
+  </si>
+  <si>
+    <t>03/14/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newest Addition To The Castle Rock Area </t>
+  </si>
+  <si>
+    <t>I had the pleasure of staying in this hotel on my first business trip to Colorado. The hotel had only been open about a month. I have been traveling for business for the past 8 years and the customer service was unlike any I have experienced in a long time. Steven and Jackie (GM) were top notch. They acknowledged me, by name every time they saw me. The front desk staff were friendly and acommodating. Any questions or concerns I had were promptly answered and addressed. The housekeeping staff were just as friendly. I had an opportunity to chat with one young lady as she came to service my room. She left me the sweetest note of appreciation the day before I left. Every morning I had a delicious breakfast, with fresh bagels and fruit. I don't eat pork or beef and was pleasantly surprised that they served turkey sausage! The staff serving breakfast came out every morning to greet me and offered to refill my tea and to provide me with any additional good items I wanted. One young lady always brought a small bag over with an extra piece of fruit and my favorite muffin for me to take as a snack for the day. The hotel was clean and stylish. The gym and indoor pool and sauna were nice amenities that I had the pleasure of using.  I was there for 9 days and when I left,...I had the pleasure of staying in this hotel on my first business trip to Colorado. The hotel had only been open about a month. I have been traveling for business for the past 8 years and the customer service was unlike any I have experienced in a long time. Steven and Jackie (GM) were top notch. They acknowledged me, by name every time they saw me. The front desk staff were friendly and acommodating. Any questions or concerns I had were promptly answered and addressed. The housekeeping staff were just as friendly. I had an opportunity to chat with one young lady as she came to service my room. She left me the sweetest note of appreciation the day before I left. Every morning I had a delicious breakfast, with fresh bagels and fruit. I don't eat pork or beef and was pleasantly surprised that they served turkey sausage! The staff serving breakfast came out every morning to greet me and offered to refill my tea and to provide me with any additional good items I wanted. One young lady always brought a small bag over with an extra piece of fruit and my favorite muffin for me to take as a snack for the day. The hotel was clean and stylish. The gym and indoor pool and sauna were nice amenities that I had the pleasure of using.  I was there for 9 days and when I left, I felt like I was leaving from a visit with family. I highly recommend this hotel when visiting the Castle Rock area. It is worth the visit!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>I had the pleasure of staying in this hotel on my first business trip to Colorado. The hotel had only been open about a month. I have been traveling for business for the past 8 years and the customer service was unlike any I have experienced in a long time. Steven and Jackie (GM) were top notch. They acknowledged me, by name every time they saw me. The front desk staff were friendly and acommodating. Any questions or concerns I had were promptly answered and addressed. The housekeeping staff were just as friendly. I had an opportunity to chat with one young lady as she came to service my room. She left me the sweetest note of appreciation the day before I left. Every morning I had a delicious breakfast, with fresh bagels and fruit. I don't eat pork or beef and was pleasantly surprised that they served turkey sausage! The staff serving breakfast came out every morning to greet me and offered to refill my tea and to provide me with any additional good items I wanted. One young lady always brought a small bag over with an extra piece of fruit and my favorite muffin for me to take as a snack for the day. The hotel was clean and stylish. The gym and indoor pool and sauna were nice amenities that I had the pleasure of using.  I was there for 9 days and when I left,...I had the pleasure of staying in this hotel on my first business trip to Colorado. The hotel had only been open about a month. I have been traveling for business for the past 8 years and the customer service was unlike any I have experienced in a long time. Steven and Jackie (GM) were top notch. They acknowledged me, by name every time they saw me. The front desk staff were friendly and acommodating. Any questions or concerns I had were promptly answered and addressed. The housekeeping staff were just as friendly. I had an opportunity to chat with one young lady as she came to service my room. She left me the sweetest note of appreciation the day before I left. Every morning I had a delicious breakfast, with fresh bagels and fruit. I don't eat pork or beef and was pleasantly surprised that they served turkey sausage! The staff serving breakfast came out every morning to greet me and offered to refill my tea and to provide me with any additional good items I wanted. One young lady always brought a small bag over with an extra piece of fruit and my favorite muffin for me to take as a snack for the day. The hotel was clean and stylish. The gym and indoor pool and sauna were nice amenities that I had the pleasure of using.  I was there for 9 days and when I left, I felt like I was leaving from a visit with family. I highly recommend this hotel when visiting the Castle Rock area. It is worth the visit!More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2038,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2070,4052 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>63</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>54</v>
+      </c>
+      <c r="X4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" t="s">
+        <v>63</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" t="s">
+        <v>63</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>83</v>
+      </c>
+      <c r="X6" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>96</v>
+      </c>
+      <c r="O8" t="s">
+        <v>97</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>98</v>
+      </c>
+      <c r="X8" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" t="s">
+        <v>104</v>
+      </c>
+      <c r="L9" t="s">
+        <v>105</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>106</v>
+      </c>
+      <c r="O9" t="s">
+        <v>63</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>98</v>
+      </c>
+      <c r="X9" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" t="s">
+        <v>110</v>
+      </c>
+      <c r="K10" t="s">
+        <v>111</v>
+      </c>
+      <c r="L10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>106</v>
+      </c>
+      <c r="O10" t="s">
+        <v>97</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>113</v>
+      </c>
+      <c r="X10" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>117</v>
+      </c>
+      <c r="J11" t="s">
+        <v>118</v>
+      </c>
+      <c r="K11" t="s">
+        <v>119</v>
+      </c>
+      <c r="L11" t="s">
+        <v>120</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>121</v>
+      </c>
+      <c r="O11" t="s">
+        <v>97</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>123</v>
+      </c>
+      <c r="J12" t="s">
+        <v>124</v>
+      </c>
+      <c r="K12" t="s">
+        <v>125</v>
+      </c>
+      <c r="L12" t="s">
+        <v>126</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>121</v>
+      </c>
+      <c r="O12" t="s">
+        <v>97</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>127</v>
+      </c>
+      <c r="X12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>131</v>
+      </c>
+      <c r="J13" t="s">
+        <v>132</v>
+      </c>
+      <c r="K13" t="s">
+        <v>133</v>
+      </c>
+      <c r="L13" t="s">
+        <v>134</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>121</v>
+      </c>
+      <c r="O13" t="s">
+        <v>63</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>136</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>137</v>
+      </c>
+      <c r="J14" t="s">
+        <v>138</v>
+      </c>
+      <c r="K14" t="s">
+        <v>139</v>
+      </c>
+      <c r="L14" t="s">
+        <v>140</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>141</v>
+      </c>
+      <c r="O14" t="s">
+        <v>97</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>142</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>143</v>
+      </c>
+      <c r="J15" t="s">
+        <v>144</v>
+      </c>
+      <c r="K15" t="s">
+        <v>145</v>
+      </c>
+      <c r="L15" t="s">
+        <v>146</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>147</v>
+      </c>
+      <c r="O15" t="s">
+        <v>97</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>148</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>149</v>
+      </c>
+      <c r="J16" t="s">
+        <v>150</v>
+      </c>
+      <c r="K16" t="s">
+        <v>151</v>
+      </c>
+      <c r="L16" t="s">
+        <v>152</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>147</v>
+      </c>
+      <c r="O16" t="s">
+        <v>63</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>153</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>154</v>
+      </c>
+      <c r="J17" t="s">
+        <v>155</v>
+      </c>
+      <c r="K17" t="s">
+        <v>156</v>
+      </c>
+      <c r="L17" t="s">
+        <v>157</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>141</v>
+      </c>
+      <c r="O17" t="s">
+        <v>63</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>158</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>159</v>
+      </c>
+      <c r="J18" t="s">
+        <v>155</v>
+      </c>
+      <c r="K18" t="s">
+        <v>160</v>
+      </c>
+      <c r="L18" t="s">
+        <v>161</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>141</v>
+      </c>
+      <c r="O18" t="s">
+        <v>63</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>163</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>164</v>
+      </c>
+      <c r="J19" t="s">
+        <v>165</v>
+      </c>
+      <c r="K19" t="s">
+        <v>166</v>
+      </c>
+      <c r="L19" t="s">
+        <v>167</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>168</v>
+      </c>
+      <c r="O19" t="s">
+        <v>63</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>169</v>
+      </c>
+      <c r="X19" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>172</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>173</v>
+      </c>
+      <c r="J20" t="s">
+        <v>174</v>
+      </c>
+      <c r="K20" t="s">
+        <v>175</v>
+      </c>
+      <c r="L20" t="s">
+        <v>176</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>177</v>
+      </c>
+      <c r="O20" t="s">
+        <v>178</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>179</v>
+      </c>
+      <c r="X20" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>182</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>183</v>
+      </c>
+      <c r="J21" t="s">
+        <v>184</v>
+      </c>
+      <c r="K21" t="s">
+        <v>185</v>
+      </c>
+      <c r="L21" t="s">
+        <v>186</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>187</v>
+      </c>
+      <c r="O21" t="s">
+        <v>178</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>188</v>
+      </c>
+      <c r="X21" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>191</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>192</v>
+      </c>
+      <c r="J22" t="s">
+        <v>193</v>
+      </c>
+      <c r="K22" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" t="s">
+        <v>194</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>195</v>
+      </c>
+      <c r="O22" t="s">
+        <v>178</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>196</v>
+      </c>
+      <c r="X22" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>199</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>200</v>
+      </c>
+      <c r="J23" t="s">
+        <v>201</v>
+      </c>
+      <c r="K23" t="s">
+        <v>202</v>
+      </c>
+      <c r="L23" t="s">
+        <v>203</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>204</v>
+      </c>
+      <c r="O23" t="s">
+        <v>97</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>205</v>
+      </c>
+      <c r="X23" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>208</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>209</v>
+      </c>
+      <c r="J24" t="s">
+        <v>210</v>
+      </c>
+      <c r="K24" t="s">
+        <v>211</v>
+      </c>
+      <c r="L24" t="s">
+        <v>212</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>213</v>
+      </c>
+      <c r="O24" t="s">
+        <v>63</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>214</v>
+      </c>
+      <c r="X24" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>217</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>218</v>
+      </c>
+      <c r="J25" t="s">
+        <v>219</v>
+      </c>
+      <c r="K25" t="s">
+        <v>220</v>
+      </c>
+      <c r="L25" t="s">
+        <v>221</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>213</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>222</v>
+      </c>
+      <c r="X25" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>225</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>226</v>
+      </c>
+      <c r="J26" t="s">
+        <v>227</v>
+      </c>
+      <c r="K26" t="s">
+        <v>94</v>
+      </c>
+      <c r="L26" t="s">
+        <v>228</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>229</v>
+      </c>
+      <c r="X26" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>232</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>233</v>
+      </c>
+      <c r="J27" t="s">
+        <v>234</v>
+      </c>
+      <c r="K27" t="s">
+        <v>235</v>
+      </c>
+      <c r="L27" t="s">
+        <v>236</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>213</v>
+      </c>
+      <c r="O27" t="s">
+        <v>97</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>229</v>
+      </c>
+      <c r="X27" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>238</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>239</v>
+      </c>
+      <c r="J28" t="s">
+        <v>240</v>
+      </c>
+      <c r="K28" t="s">
+        <v>241</v>
+      </c>
+      <c r="L28" t="s">
+        <v>242</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>243</v>
+      </c>
+      <c r="O28" t="s">
+        <v>63</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>244</v>
+      </c>
+      <c r="X28" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>247</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>248</v>
+      </c>
+      <c r="J29" t="s">
+        <v>249</v>
+      </c>
+      <c r="K29" t="s">
+        <v>250</v>
+      </c>
+      <c r="L29" t="s">
+        <v>251</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>252</v>
+      </c>
+      <c r="O29" t="s">
+        <v>178</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>253</v>
+      </c>
+      <c r="X29" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>256</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>257</v>
+      </c>
+      <c r="J30" t="s">
+        <v>258</v>
+      </c>
+      <c r="K30" t="s">
+        <v>259</v>
+      </c>
+      <c r="L30" t="s">
+        <v>260</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>252</v>
+      </c>
+      <c r="O30" t="s">
+        <v>178</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>261</v>
+      </c>
+      <c r="X30" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>264</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>265</v>
+      </c>
+      <c r="J31" t="s">
+        <v>266</v>
+      </c>
+      <c r="K31" t="s">
+        <v>267</v>
+      </c>
+      <c r="L31" t="s">
+        <v>268</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>269</v>
+      </c>
+      <c r="O31" t="s">
+        <v>97</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>270</v>
+      </c>
+      <c r="X31" t="s">
+        <v>271</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>273</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>274</v>
+      </c>
+      <c r="J32" t="s">
+        <v>275</v>
+      </c>
+      <c r="K32" t="s">
+        <v>276</v>
+      </c>
+      <c r="L32" t="s">
+        <v>277</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>252</v>
+      </c>
+      <c r="O32" t="s">
+        <v>278</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>270</v>
+      </c>
+      <c r="X32" t="s">
+        <v>271</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>280</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>281</v>
+      </c>
+      <c r="J33" t="s">
+        <v>282</v>
+      </c>
+      <c r="K33" t="s">
+        <v>283</v>
+      </c>
+      <c r="L33" t="s">
+        <v>284</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>252</v>
+      </c>
+      <c r="O33" t="s">
+        <v>63</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>270</v>
+      </c>
+      <c r="X33" t="s">
+        <v>271</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>286</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>287</v>
+      </c>
+      <c r="J34" t="s">
+        <v>288</v>
+      </c>
+      <c r="K34" t="s">
+        <v>289</v>
+      </c>
+      <c r="L34" t="s">
+        <v>290</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>269</v>
+      </c>
+      <c r="O34" t="s">
+        <v>278</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>291</v>
+      </c>
+      <c r="X34" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>294</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>295</v>
+      </c>
+      <c r="J35" t="s">
+        <v>296</v>
+      </c>
+      <c r="K35" t="s">
+        <v>297</v>
+      </c>
+      <c r="L35" t="s">
+        <v>298</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>299</v>
+      </c>
+      <c r="O35" t="s">
+        <v>63</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>300</v>
+      </c>
+      <c r="X35" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>303</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>304</v>
+      </c>
+      <c r="J36" t="s">
+        <v>305</v>
+      </c>
+      <c r="K36" t="s">
+        <v>306</v>
+      </c>
+      <c r="L36" t="s">
+        <v>307</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>299</v>
+      </c>
+      <c r="O36" t="s">
+        <v>63</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>308</v>
+      </c>
+      <c r="X36" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>311</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>312</v>
+      </c>
+      <c r="J37" t="s">
+        <v>313</v>
+      </c>
+      <c r="K37" t="s">
+        <v>314</v>
+      </c>
+      <c r="L37" t="s">
+        <v>315</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>316</v>
+      </c>
+      <c r="O37" t="s">
+        <v>63</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>317</v>
+      </c>
+      <c r="X37" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>320</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>321</v>
+      </c>
+      <c r="J38" t="s">
+        <v>322</v>
+      </c>
+      <c r="K38" t="s">
+        <v>323</v>
+      </c>
+      <c r="L38" t="s">
+        <v>324</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>325</v>
+      </c>
+      <c r="O38" t="s">
+        <v>63</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>326</v>
+      </c>
+      <c r="X38" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>329</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>330</v>
+      </c>
+      <c r="J39" t="s">
+        <v>331</v>
+      </c>
+      <c r="K39" t="s">
+        <v>332</v>
+      </c>
+      <c r="L39" t="s">
+        <v>333</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>334</v>
+      </c>
+      <c r="O39" t="s">
+        <v>63</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>335</v>
+      </c>
+      <c r="X39" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>338</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>339</v>
+      </c>
+      <c r="J40" t="s">
+        <v>340</v>
+      </c>
+      <c r="K40" t="s">
+        <v>341</v>
+      </c>
+      <c r="L40" t="s">
+        <v>342</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>343</v>
+      </c>
+      <c r="O40" t="s">
+        <v>63</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>344</v>
+      </c>
+      <c r="X40" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>347</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>348</v>
+      </c>
+      <c r="J41" t="s">
+        <v>349</v>
+      </c>
+      <c r="K41" t="s">
+        <v>350</v>
+      </c>
+      <c r="L41" t="s">
+        <v>351</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>343</v>
+      </c>
+      <c r="O41" t="s">
+        <v>178</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>352</v>
+      </c>
+      <c r="X41" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>355</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>356</v>
+      </c>
+      <c r="J42" t="s">
+        <v>357</v>
+      </c>
+      <c r="K42" t="s">
+        <v>358</v>
+      </c>
+      <c r="L42" t="s">
+        <v>359</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>360</v>
+      </c>
+      <c r="X42" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>363</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>364</v>
+      </c>
+      <c r="J43" t="s">
+        <v>365</v>
+      </c>
+      <c r="K43" t="s">
+        <v>366</v>
+      </c>
+      <c r="L43" t="s">
+        <v>367</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>368</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>369</v>
+      </c>
+      <c r="X43" t="s">
+        <v>370</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>372</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>373</v>
+      </c>
+      <c r="J44" t="s">
+        <v>374</v>
+      </c>
+      <c r="K44" t="s">
+        <v>375</v>
+      </c>
+      <c r="L44" t="s">
+        <v>376</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>377</v>
+      </c>
+      <c r="O44" t="s">
+        <v>63</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>378</v>
+      </c>
+      <c r="X44" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>381</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>382</v>
+      </c>
+      <c r="J45" t="s">
+        <v>383</v>
+      </c>
+      <c r="K45" t="s">
+        <v>384</v>
+      </c>
+      <c r="L45" t="s">
+        <v>385</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>386</v>
+      </c>
+      <c r="O45" t="s">
+        <v>63</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>387</v>
+      </c>
+      <c r="X45" t="s">
+        <v>388</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>390</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>391</v>
+      </c>
+      <c r="J46" t="s">
+        <v>383</v>
+      </c>
+      <c r="K46" t="s">
+        <v>392</v>
+      </c>
+      <c r="L46" t="s">
+        <v>393</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>386</v>
+      </c>
+      <c r="O46" t="s">
+        <v>63</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>387</v>
+      </c>
+      <c r="X46" t="s">
+        <v>388</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>395</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>396</v>
+      </c>
+      <c r="J47" t="s">
+        <v>397</v>
+      </c>
+      <c r="K47" t="s">
+        <v>398</v>
+      </c>
+      <c r="L47" t="s">
+        <v>399</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>400</v>
+      </c>
+      <c r="O47" t="s">
+        <v>63</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>401</v>
+      </c>
+      <c r="X47" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>404</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>405</v>
+      </c>
+      <c r="J48" t="s">
+        <v>406</v>
+      </c>
+      <c r="K48" t="s">
+        <v>407</v>
+      </c>
+      <c r="L48" t="s">
+        <v>408</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>409</v>
+      </c>
+      <c r="O48" t="s">
+        <v>97</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>410</v>
+      </c>
+      <c r="X48" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>413</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>414</v>
+      </c>
+      <c r="J49" t="s">
+        <v>415</v>
+      </c>
+      <c r="K49" t="s">
+        <v>416</v>
+      </c>
+      <c r="L49" t="s">
+        <v>417</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>400</v>
+      </c>
+      <c r="O49" t="s">
+        <v>278</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="s"/>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>418</v>
+      </c>
+      <c r="X49" t="s">
+        <v>419</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>421</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>422</v>
+      </c>
+      <c r="J50" t="s">
+        <v>423</v>
+      </c>
+      <c r="K50" t="s">
+        <v>424</v>
+      </c>
+      <c r="L50" t="s">
+        <v>425</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>400</v>
+      </c>
+      <c r="O50" t="s">
+        <v>63</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>426</v>
+      </c>
+      <c r="X50" t="s">
+        <v>427</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>429</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>430</v>
+      </c>
+      <c r="J51" t="s">
+        <v>431</v>
+      </c>
+      <c r="K51" t="s">
+        <v>432</v>
+      </c>
+      <c r="L51" t="s">
+        <v>433</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>409</v>
+      </c>
+      <c r="O51" t="s">
+        <v>63</v>
+      </c>
+      <c r="P51" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>3</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>434</v>
+      </c>
+      <c r="X51" t="s">
+        <v>435</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>437</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>438</v>
+      </c>
+      <c r="J52" t="s">
+        <v>439</v>
+      </c>
+      <c r="K52" t="s">
+        <v>440</v>
+      </c>
+      <c r="L52" t="s">
+        <v>441</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>409</v>
+      </c>
+      <c r="O52" t="s">
+        <v>178</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>442</v>
+      </c>
+      <c r="X52" t="s">
+        <v>443</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>445</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>446</v>
+      </c>
+      <c r="J53" t="s">
+        <v>447</v>
+      </c>
+      <c r="K53" t="s">
+        <v>448</v>
+      </c>
+      <c r="L53" t="s">
+        <v>449</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>409</v>
+      </c>
+      <c r="O53" t="s">
+        <v>63</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>450</v>
+      </c>
+      <c r="X53" t="s">
+        <v>451</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>453</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>454</v>
+      </c>
+      <c r="J54" t="s">
+        <v>455</v>
+      </c>
+      <c r="K54" t="s">
+        <v>456</v>
+      </c>
+      <c r="L54" t="s">
+        <v>457</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>458</v>
+      </c>
+      <c r="X54" t="s">
+        <v>459</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>461</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>462</v>
+      </c>
+      <c r="J55" t="s">
+        <v>463</v>
+      </c>
+      <c r="K55" t="s">
+        <v>464</v>
+      </c>
+      <c r="L55" t="s">
+        <v>465</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>377</v>
+      </c>
+      <c r="O55" t="s">
+        <v>97</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>466</v>
+      </c>
+      <c r="X55" t="s">
+        <v>467</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>469</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>470</v>
+      </c>
+      <c r="J56" t="s">
+        <v>471</v>
+      </c>
+      <c r="K56" t="s">
+        <v>472</v>
+      </c>
+      <c r="L56" t="s">
+        <v>473</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>377</v>
+      </c>
+      <c r="O56" t="s">
+        <v>178</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>474</v>
+      </c>
+      <c r="X56" t="s">
+        <v>475</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>477</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>478</v>
+      </c>
+      <c r="J57" t="s">
+        <v>479</v>
+      </c>
+      <c r="K57" t="s">
+        <v>480</v>
+      </c>
+      <c r="L57" t="s">
+        <v>481</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>377</v>
+      </c>
+      <c r="O57" t="s">
+        <v>63</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>482</v>
+      </c>
+      <c r="X57" t="s">
+        <v>483</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>485</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>486</v>
+      </c>
+      <c r="J58" t="s">
+        <v>487</v>
+      </c>
+      <c r="K58" t="s">
+        <v>488</v>
+      </c>
+      <c r="L58" t="s">
+        <v>489</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>490</v>
+      </c>
+      <c r="O58" t="s">
+        <v>63</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>491</v>
+      </c>
+      <c r="X58" t="s">
+        <v>492</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>494</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>495</v>
+      </c>
+      <c r="J59" t="s">
+        <v>496</v>
+      </c>
+      <c r="K59" t="s">
+        <v>497</v>
+      </c>
+      <c r="L59" t="s">
+        <v>498</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>490</v>
+      </c>
+      <c r="O59" t="s">
+        <v>97</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>499</v>
+      </c>
+      <c r="X59" t="s">
+        <v>500</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>502</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>503</v>
+      </c>
+      <c r="J60" t="s">
+        <v>504</v>
+      </c>
+      <c r="K60" t="s">
+        <v>505</v>
+      </c>
+      <c r="L60" t="s">
+        <v>506</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>490</v>
+      </c>
+      <c r="O60" t="s">
+        <v>178</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>507</v>
+      </c>
+      <c r="X60" t="s">
+        <v>508</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>510</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>511</v>
+      </c>
+      <c r="J61" t="s">
+        <v>512</v>
+      </c>
+      <c r="K61" t="s">
+        <v>513</v>
+      </c>
+      <c r="L61" t="s">
+        <v>514</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>515</v>
+      </c>
+      <c r="O61" t="s">
+        <v>178</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>516</v>
+      </c>
+      <c r="X61" t="s">
+        <v>517</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>519</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>520</v>
+      </c>
+      <c r="J62" t="s">
+        <v>521</v>
+      </c>
+      <c r="K62" t="s">
+        <v>522</v>
+      </c>
+      <c r="L62" t="s">
+        <v>523</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>524</v>
+      </c>
+      <c r="O62" t="s">
+        <v>178</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>525</v>
+      </c>
+      <c r="X62" t="s">
+        <v>526</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>528</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>529</v>
+      </c>
+      <c r="J63" t="s">
+        <v>530</v>
+      </c>
+      <c r="K63" t="s">
+        <v>531</v>
+      </c>
+      <c r="L63" t="s">
+        <v>532</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>524</v>
+      </c>
+      <c r="O63" t="s">
+        <v>178</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>533</v>
+      </c>
+      <c r="X63" t="s">
+        <v>534</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>536</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>537</v>
+      </c>
+      <c r="J64" t="s">
+        <v>538</v>
+      </c>
+      <c r="K64" t="s">
+        <v>539</v>
+      </c>
+      <c r="L64" t="s">
+        <v>540</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>541</v>
+      </c>
+      <c r="O64" t="s">
+        <v>178</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>533</v>
+      </c>
+      <c r="X64" t="s">
+        <v>534</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>542</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Denver/Denver_shard_131.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_131.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="863">
   <si>
     <t>STR#</t>
   </si>
@@ -150,18 +150,148 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/02/2018</t>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r612425112-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>33345</t>
+  </si>
+  <si>
+    <t>7184997</t>
+  </si>
+  <si>
+    <t>612425112</t>
+  </si>
+  <si>
+    <t>08/30/2018</t>
+  </si>
+  <si>
+    <t>Perfect stay</t>
+  </si>
+  <si>
+    <t>We moved to Castle Rock and our movers were way behind on delivering our items which meant they had to put us up in a hotel. The Holiday Inn was a wonderful home away from home for a few nights. Their beds are unbelievably comfortable! Their rooms &amp; bathrooms are spotless. We did a new booking each day (not knowing when our furniture would be delivered) and so we got to experience the same cleanliness and comfort in each room. The daily fresh baked cookies are always a nice treat. I was impressed with their breakfast offerings and the breakfast staff are on top of everything... making sure it's hot &amp; topped off.. they work hard! Thank you for a lovely stay while we waited to move in to our home!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Brigitte R, Director of Sales at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded 3 days ago</t>
+  </si>
+  <si>
+    <t>Responded 3 days ago</t>
+  </si>
+  <si>
+    <t>We moved to Castle Rock and our movers were way behind on delivering our items which meant they had to put us up in a hotel. The Holiday Inn was a wonderful home away from home for a few nights. Their beds are unbelievably comfortable! Their rooms &amp; bathrooms are spotless. We did a new booking each day (not knowing when our furniture would be delivered) and so we got to experience the same cleanliness and comfort in each room. The daily fresh baked cookies are always a nice treat. I was impressed with their breakfast offerings and the breakfast staff are on top of everything... making sure it's hot &amp; topped off.. they work hard! Thank you for a lovely stay while we waited to move in to our home!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r593308226-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>593308226</t>
+  </si>
+  <si>
+    <t>07/05/2018</t>
+  </si>
+  <si>
+    <t>Excellent hotel! Very Clean and Modern!</t>
+  </si>
+  <si>
+    <t>Family recommended this hotel and we were very pleased. I had assumed it would be pricey but it was very reasonable! Clean, modern, lots of amenities, plenty of electrical outlets and USB ports, and excellent staff. Staff was very attentive to requests for additional items needed. I will stay here again and I highly recommend it.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>Brigitte R, Director of Sales at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded July 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 9, 2018</t>
+  </si>
+  <si>
+    <t>Family recommended this hotel and we were very pleased. I had assumed it would be pricey but it was very reasonable! Clean, modern, lots of amenities, plenty of electrical outlets and USB ports, and excellent staff. Staff was very attentive to requests for additional items needed. I will stay here again and I highly recommend it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r608842085-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>608842085</t>
+  </si>
+  <si>
+    <t>08/21/2018</t>
+  </si>
+  <si>
+    <t>Good One....</t>
+  </si>
+  <si>
+    <t>First stay at the Certificate of Excellence HIE-Castle Rock Thu 08/09/2018 as a 20K point reward night.  Hotel is just off the interstate near other hotels, gas and eateries.  You can walk to a well rated restaurant nearby.  Hotel is well marked and shows pride of ownership in the maintenance of this attractive 4 story new design property.
+The large lobby has the newer open design with lots of glass, nice floors and comfortable seating.  A single friendly clerk was being challenged by their IT system and called in someone in management who helped resolve the issues and both cordially and professionally book us in.  We got an upgrade as Spire members.  Restaurant recommendations were provided.  Cookies were available on the counter.
+Interior signage is good.  Two fast, clean elevators run you upstairs to find wide, well lit and clean hallways.  Room access is via a proximity badge reader.  No issues with door alignment or locking hardware.  Our 2Q suite was spacious with attractive light clean carpet and bamboo tile near entry.  A mini-fridge and all other expected amenities and furniture were present.  The window could be opened a bit which we liked.  Two power outlets were available between the beds, but one had a plug issue which caused the PC battery to drain.  WIFI was via IHG connect but was not stable.  TV was medium size, sat on the bureau and had no issues.  HVAC had wall mounted controls,...First stay at the Certificate of Excellence HIE-Castle Rock Thu 08/09/2018 as a 20K point reward night.  Hotel is just off the interstate near other hotels, gas and eateries.  You can walk to a well rated restaurant nearby.  Hotel is well marked and shows pride of ownership in the maintenance of this attractive 4 story new design property.The large lobby has the newer open design with lots of glass, nice floors and comfortable seating.  A single friendly clerk was being challenged by their IT system and called in someone in management who helped resolve the issues and both cordially and professionally book us in.  We got an upgrade as Spire members.  Restaurant recommendations were provided.  Cookies were available on the counter.Interior signage is good.  Two fast, clean elevators run you upstairs to find wide, well lit and clean hallways.  Room access is via a proximity badge reader.  No issues with door alignment or locking hardware.  Our 2Q suite was spacious with attractive light clean carpet and bamboo tile near entry.  A mini-fridge and all other expected amenities and furniture were present.  The window could be opened a bit which we liked.  Two power outlets were available between the beds, but one had a plug issue which caused the PC battery to drain.  WIFI was via IHG connect but was not stable.  TV was medium size, sat on the bureau and had no issues.  HVAC had wall mounted controls, worked well and was quiet.  Overall room noise was quiet.  Bathroom light could be seen in mirror  from bed.  Beds were comfortable with 4 pillows and clean sheets.Bathroom was average size and clean.  Everything worked as designed.  Average water pressure in shower and plenty of clean towels.  Everything in room appeared to be well maintained.  The attractive breakfast area had plenty of seating, early coffee and typical hotel food.Bottom line, this was a fine hotel with great staff in a beautiful location near a good restaurant.  Yea, we liked it, left happy and would return.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Brigitte R, Director of Sales at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>First stay at the Certificate of Excellence HIE-Castle Rock Thu 08/09/2018 as a 20K point reward night.  Hotel is just off the interstate near other hotels, gas and eateries.  You can walk to a well rated restaurant nearby.  Hotel is well marked and shows pride of ownership in the maintenance of this attractive 4 story new design property.
+The large lobby has the newer open design with lots of glass, nice floors and comfortable seating.  A single friendly clerk was being challenged by their IT system and called in someone in management who helped resolve the issues and both cordially and professionally book us in.  We got an upgrade as Spire members.  Restaurant recommendations were provided.  Cookies were available on the counter.
+Interior signage is good.  Two fast, clean elevators run you upstairs to find wide, well lit and clean hallways.  Room access is via a proximity badge reader.  No issues with door alignment or locking hardware.  Our 2Q suite was spacious with attractive light clean carpet and bamboo tile near entry.  A mini-fridge and all other expected amenities and furniture were present.  The window could be opened a bit which we liked.  Two power outlets were available between the beds, but one had a plug issue which caused the PC battery to drain.  WIFI was via IHG connect but was not stable.  TV was medium size, sat on the bureau and had no issues.  HVAC had wall mounted controls,...First stay at the Certificate of Excellence HIE-Castle Rock Thu 08/09/2018 as a 20K point reward night.  Hotel is just off the interstate near other hotels, gas and eateries.  You can walk to a well rated restaurant nearby.  Hotel is well marked and shows pride of ownership in the maintenance of this attractive 4 story new design property.The large lobby has the newer open design with lots of glass, nice floors and comfortable seating.  A single friendly clerk was being challenged by their IT system and called in someone in management who helped resolve the issues and both cordially and professionally book us in.  We got an upgrade as Spire members.  Restaurant recommendations were provided.  Cookies were available on the counter.Interior signage is good.  Two fast, clean elevators run you upstairs to find wide, well lit and clean hallways.  Room access is via a proximity badge reader.  No issues with door alignment or locking hardware.  Our 2Q suite was spacious with attractive light clean carpet and bamboo tile near entry.  A mini-fridge and all other expected amenities and furniture were present.  The window could be opened a bit which we liked.  Two power outlets were available between the beds, but one had a plug issue which caused the PC battery to drain.  WIFI was via IHG connect but was not stable.  TV was medium size, sat on the bureau and had no issues.  HVAC had wall mounted controls, worked well and was quiet.  Overall room noise was quiet.  Bathroom light could be seen in mirror  from bed.  Beds were comfortable with 4 pillows and clean sheets.Bathroom was average size and clean.  Everything worked as designed.  Average water pressure in shower and plenty of clean towels.  Everything in room appeared to be well maintained.  The attractive breakfast area had plenty of seating, early coffee and typical hotel food.Bottom line, this was a fine hotel with great staff in a beautiful location near a good restaurant.  Yea, we liked it, left happy and would return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r604102193-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>604102193</t>
+  </si>
+  <si>
+    <t>08/07/2018</t>
+  </si>
+  <si>
+    <t>Convenient</t>
+  </si>
+  <si>
+    <t>The staff here was so nice and accommodating.  The GM even jumped my daughter's Jeep when her battery went!! Will definitely stay here again.  Breakfast was standard Holiday Inn Express free breakfast, but it was fresh and the area was clean.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Brigitte R, Director of Sales at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>The staff here was so nice and accommodating.  The GM even jumped my daughter's Jeep when her battery went!! Will definitely stay here again.  Breakfast was standard Holiday Inn Express free breakfast, but it was fresh and the area was clean.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r596154819-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>596154819</t>
+  </si>
+  <si>
+    <t>07/14/2018</t>
+  </si>
+  <si>
+    <t>It's Very Okay</t>
+  </si>
+  <si>
+    <t>Rooms are very comfortable but bathroom  mirror lighting is set way to brightly, nothing but glare. The pool and hot tub were very nice and enjoyable. The staff was attentive, friendly, and helpful, too. The breakfast area was clean and presentable but the attendant appeared not to be able to keep up in what seemed like a slower Saturday morning. The TV and internet were good. The business center, to my amazement, has no available plug outlets, as well as no trash can. I like the hotel for its convenience but imagary over substance comes to mind.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r594025262-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
   </si>
   <si>
-    <t>33345</t>
-  </si>
-  <si>
-    <t>7184997</t>
-  </si>
-  <si>
     <t>594025262</t>
   </si>
   <si>
@@ -174,45 +304,12 @@
     <t>This is a new facility and the staff was great. Clean rooms and the price was right. Very close to everything in Castle Rock. IHOP next door and you MUST visit Burly Brewery. It’s just down the road. A really chill and awesome microbrewery. Family friendly place with great brew.MoreShow less</t>
   </si>
   <si>
-    <t>June 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
-    <t>Brigitte R, Director of Sales at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded 3 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 3 weeks ago</t>
-  </si>
-  <si>
     <t>This is a new facility and the staff was great. Clean rooms and the price was right. Very close to everything in Castle Rock. IHOP next door and you MUST visit Burly Brewery. It’s just down the road. A really chill and awesome microbrewery. Family friendly place with great brew.More</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r593308226-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
-  </si>
-  <si>
-    <t>593308226</t>
-  </si>
-  <si>
-    <t>07/05/2018</t>
-  </si>
-  <si>
-    <t>Excellent hotel! Very Clean and Modern!</t>
-  </si>
-  <si>
-    <t>Family recommended this hotel and we were very pleased. I had assumed it would be pricey but it was very reasonable! Clean, modern, lots of amenities, plenty of electrical outlets and USB ports, and excellent staff. Staff was very attentive to requests for additional items needed. I will stay here again and I highly recommend it.MoreShow less</t>
-  </si>
-  <si>
-    <t>July 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>Family recommended this hotel and we were very pleased. I had assumed it would be pricey but it was very reasonable! Clean, modern, lots of amenities, plenty of electrical outlets and USB ports, and excellent staff. Staff was very attentive to requests for additional items needed. I will stay here again and I highly recommend it.More</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r585179214-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
   </si>
   <si>
@@ -231,6 +328,63 @@
     <t>The staff at the front desk went above and beyond to make our stay the best it could be. They gave great suggestions for food and provided honest care. The employees here remmember a face and a conversation. This is the best experience I have ever had with a hotel. 10/10More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r583737515-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>583737515</t>
+  </si>
+  <si>
+    <t>05/29/2018</t>
+  </si>
+  <si>
+    <t>Seriously amazing staff!</t>
+  </si>
+  <si>
+    <t>We stayed over Memorial Day weekend 2018.  Between family commitments and running in a race that weekend, we had a number of unusual requests for the front desk.  The staff went above and beyond to make sure all of our needs were met.  Seriously the best hotel staff experience I've had, and I travel all of the time.  Way exceeded my expectations.  The room was great, the breakfast was perfect, and our nieces had a great time at the pool.  Five stars, no doubt.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>We stayed over Memorial Day weekend 2018.  Between family commitments and running in a race that weekend, we had a number of unusual requests for the front desk.  The staff went above and beyond to make sure all of our needs were met.  Seriously the best hotel staff experience I've had, and I travel all of the time.  Way exceeded my expectations.  The room was great, the breakfast was perfect, and our nieces had a great time at the pool.  Five stars, no doubt.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r577749942-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>577749942</t>
+  </si>
+  <si>
+    <t>05/03/2018</t>
+  </si>
+  <si>
+    <t>Looks like it is brand new</t>
+  </si>
+  <si>
+    <t>After driving for 12 hours from Phoenix we arrived in Castle Rock and checked into the holiday inn express just off the freeway for the evening. From the lobby it looked brand new but the front desk staff said it was over 3 years old. The room was clean and in great shape. They had one of the most up to date fitness room for a hotel (well done) and all the machines worked). The breakfast was excellent with plenty of room to eat.Next time passing through will definitely stay here.. well done!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r570629923-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>570629923</t>
+  </si>
+  <si>
+    <t>04/02/2018</t>
+  </si>
+  <si>
+    <t>Excellent Stay</t>
+  </si>
+  <si>
+    <t>Beautiful property (inside and out) with a great location right off I-25. There are several restaurants and shopping within a couple miles. Staff was super friendly and very helpful. And the best part...the price was more than reasonable. Highly recommended.</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r563698896-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
   </si>
   <si>
@@ -291,6 +445,51 @@
     <t>This hotel has superior service and top quality amenities.  It is immaculate. It is located right off I25 for easy access and near numerous stores and restaurants. Incredible workout room.  Breakfast was well done.  We were very pleased with our stay.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r554093091-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>554093091</t>
+  </si>
+  <si>
+    <t>01/15/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anniversary Trip </t>
+  </si>
+  <si>
+    <t>Clean and perfect distance from attractions in surrounding cities. Much nicer area than Colorado Springs.  We did not want to stay in Colorado Springs, it is worth driving to Castle Rock to have nicer, clean better hotels MoreShow less</t>
+  </si>
+  <si>
+    <t>Mallory S, Director of Sales at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded January 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 16, 2018</t>
+  </si>
+  <si>
+    <t>Clean and perfect distance from attractions in surrounding cities. Much nicer area than Colorado Springs.  We did not want to stay in Colorado Springs, it is worth driving to Castle Rock to have nicer, clean better hotels More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r549606010-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>549606010</t>
+  </si>
+  <si>
+    <t>12/27/2017</t>
+  </si>
+  <si>
+    <t>Super Friendly Staff</t>
+  </si>
+  <si>
+    <t>Super friendly and helpful staff at this one. The dining area is large, contemporary, clean,  and well organized. The rooom is predictably large, clean, comfortable. I can always count on a clean comfortable room with great pillows, comfy mattress and sheets. I used the exercise room; it was large, plenty of equipment and overlooks the mountains. Easy off of the highway.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Super friendly and helpful staff at this one. The dining area is large, contemporary, clean,  and well organized. The rooom is predictably large, clean, comfortable. I can always count on a clean comfortable room with great pillows, comfy mattress and sheets. I used the exercise room; it was large, plenty of equipment and overlooks the mountains. Easy off of the highway.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r545272430-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
   </si>
   <si>
@@ -306,12 +505,6 @@
     <t>My wife and I had a one night reservation, we had to drive up to Denver to see about adopting a rescue dog.  The hotel is 3 years old but looks brand new, the staff keep it in pristine condition.  The parking lot is easy to access and the grounds are well kept.  The public areas are open and inviting and clean.  The front desk staff were superb and very professional and friendly.  Our room was very clean and well appointed.  Everything was very comfortable.  Breakfast was pretty good and the kitchen staff worked hard to ensure that tables were kept clean and the food area was well stocked and clean.  We had to add one night to our stay after having already checked out, but the staff did a great job helping us find a great room.  We were very impressed with this hotel and brand.MoreShow less</t>
   </si>
   <si>
-    <t>December 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Mallory S, Director of Sales at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded December 8, 2017</t>
   </si>
   <si>
@@ -366,6 +559,39 @@
     <t>Having landed early in Denver, we made our way to the hotel to see if we could check in early.  The staff was not only accommodating, but friendly, efficient, and very courteous!Our room...wow! Clean as clean can be! It was spacious, well equipped, and quiet!  We enjoyed our short stay of 2 days, but will DEFINITELY stay here again on our travels! Mountain views were fantastic, close to shopping, and dining.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r534752174-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>534752174</t>
+  </si>
+  <si>
+    <t>10/20/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great location between Denver and Colorado Springs </t>
+  </si>
+  <si>
+    <t>Nice hotel with friendly staff. Our room was clean with comfortable beds. Breakfast was the typical hotel buffet spread. The only negatives were minor issues with WiFi and our tub wouldn’t drain well, so you’d stand in your dirty water. Overall it was a pleasant stay for what we needed.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r531862810-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>531862810</t>
+  </si>
+  <si>
+    <t>10/10/2017</t>
+  </si>
+  <si>
+    <t>Delivers as pormised</t>
+  </si>
+  <si>
+    <t>Overall, it is a lovely Holiday Inn.  The room was clean and well kept.  The lobby was fine.  The convenience store was poorly stocked, and the “business center” was a small nook with no door.  It is sniper area (part of the lobby) located directly across from the breakfast area.  I was supposed to  have important business to take care of in the “business center” but due to the fact that there was no way to have a quiet, or even somewhat professional conversation, I was unable.  This was very disappointing!</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r525858871-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
   </si>
   <si>
@@ -426,6 +652,48 @@
     <t>We stayed here for one week, and the stay was wonderful.  One thing I will say first is watch out for the huge speed bumps in the parking lot. The staff there was awesome from front desk, to kitchen and housekeeping. They all had superior customer service. I would definately stay here again.  There's only one thing I wish they would change is there parking lot. Move some of the handicap spots. If the first two on the left or right side as your facing the building are full.  The ones on the far left is far for someone to walk, especially if they can't walk long distances.  So I would recommend putting a couple straight out as you walk out of the hotel. It is sad sometimes that regular parking is closer than handicap parking. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r524373172-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>524373172</t>
+  </si>
+  <si>
+    <t>09/14/2017</t>
+  </si>
+  <si>
+    <t>A gem of a place!</t>
+  </si>
+  <si>
+    <t>With most all hotels filled up in the Denver area we had to look outwards and good thing we did.  This property does it right! Updated, good workout and adequate pool.  Rooms were clean and plenty of outlets to use.  Beds were comfy and the room pretty quiet.  Elevators ran pretty quick and the stairs are an easy access if one is so inclined.  Small pantry for snacks worked great and the breakfast in the am was pretty good.  The wifi worked well.  The area has plenty to walk to (if one wishes) for food and drink.  The laundry room at the hotel is awesome, 2 washers and 4 dryers which just made my day. Soap is available at the front desk as are the quarters.  The staff is very helpful and competent, they really put forth the extra effort.I'll return in a second.  Thanks again....MoreShow less</t>
+  </si>
+  <si>
+    <t>With most all hotels filled up in the Denver area we had to look outwards and good thing we did.  This property does it right! Updated, good workout and adequate pool.  Rooms were clean and plenty of outlets to use.  Beds were comfy and the room pretty quiet.  Elevators ran pretty quick and the stairs are an easy access if one is so inclined.  Small pantry for snacks worked great and the breakfast in the am was pretty good.  The wifi worked well.  The area has plenty to walk to (if one wishes) for food and drink.  The laundry room at the hotel is awesome, 2 washers and 4 dryers which just made my day. Soap is available at the front desk as are the quarters.  The staff is very helpful and competent, they really put forth the extra effort.I'll return in a second.  Thanks again....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r521554714-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>521554714</t>
+  </si>
+  <si>
+    <t>09/05/2017</t>
+  </si>
+  <si>
+    <t>Great!</t>
+  </si>
+  <si>
+    <t>Excellent service and friendly staff. Room was super well cleaned, as well as the bathrooms. There is free breakfast which is excellent in the morning, as well as free coffee all night long. Close walking distance to a few restaurants and stores. MoreShow less</t>
+  </si>
+  <si>
+    <t>Mallory S, Director of Sales at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded September 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 7, 2017</t>
+  </si>
+  <si>
+    <t>Excellent service and friendly staff. Room was super well cleaned, as well as the bathrooms. There is free breakfast which is excellent in the morning, as well as free coffee all night long. Close walking distance to a few restaurants and stores. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r513269892-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
   </si>
   <si>
@@ -477,6 +745,45 @@
     <t>Rooms very clean and staff very friendly.  We got in very late, kids were hungry.  They had a little market that offered frozen items.  They only offered/had styrofoam plates to microwave on -- SERIOUSLY HOLIDAY INN EXPRESS!!  There were no forks, etc. to eat with.  I think the breakfast at this Holiday Inn Express was below normal.  Things didn't seem very fresh.  Bacon soaked and was dripping with grease -- yuck.  Biscuits were hard.  They offered pancakes, but they were silver dollar sized and I think because of the size being so small they got over cooked and they were crispy when they came out.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r505659037-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>505659037</t>
+  </si>
+  <si>
+    <t>07/25/2017</t>
+  </si>
+  <si>
+    <t>Very nice</t>
+  </si>
+  <si>
+    <t>I was really surprised at how nice this hotel was. It's rated a 2 Star, but the lobby area was nicer than many 3 Star hotels. The rooms were well equipped and clean. The free breakfast offered good variety and quality. We will come back to this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Mallory S, Director of Sales at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded July 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2017</t>
+  </si>
+  <si>
+    <t>I was really surprised at how nice this hotel was. It's rated a 2 Star, but the lobby area was nicer than many 3 Star hotels. The rooms were well equipped and clean. The free breakfast offered good variety and quality. We will come back to this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r504628257-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>504628257</t>
+  </si>
+  <si>
+    <t>07/22/2017</t>
+  </si>
+  <si>
+    <t>A lovely hotel and wonderful staff!</t>
+  </si>
+  <si>
+    <t>Wow!  So very happy we chose this hotel.  The staff is friendly and attentive. The room is very clean.  The breakfast is DELICIOUS. The only minor complaint is the pool area. It's indoor and like 125 degrees. Too hot to be able to stay in. Overall, so thankful for this hotel. It was a bright spot in this town.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r501081299-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
   </si>
   <si>
@@ -534,6 +841,57 @@
     <t>This is a newer property and it is clean and convenient to I-25. The staff is helpful and in tune to your needs. The rooms are nice and warm and very comfortable. The breakfast is hot and tasty and offers the typical choices. Next time I will request a mountain view as the view is spectacular from the hotels west side. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r484934279-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>484934279</t>
+  </si>
+  <si>
+    <t>05/17/2017</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>Staff very helpful, room very workable.  This is where I will stay regularly when in Denver.  Beautiful location, felt very welcomed.  Breakfast excellent with many choices.And now I am suppose to write more.MoreShow less</t>
+  </si>
+  <si>
+    <t>Mallory S, Director of Sales at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded May 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 18, 2017</t>
+  </si>
+  <si>
+    <t>Staff very helpful, room very workable.  This is where I will stay regularly when in Denver.  Beautiful location, felt very welcomed.  Breakfast excellent with many choices.And now I am suppose to write more.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r465210314-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>465210314</t>
+  </si>
+  <si>
+    <t>03/06/2017</t>
+  </si>
+  <si>
+    <t>"Great hotel"</t>
+  </si>
+  <si>
+    <t>The hotel is in a great location with many restaurants, shopping and next to interstate. Very nice indoor pool, hot tube and gym. 30 minutes to downtown Denver without all the traffic. The staff was very helpful and the rooms were clean, comfortable and large.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Mallory S, Director of Sales at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded March 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 7, 2017</t>
+  </si>
+  <si>
+    <t>The hotel is in a great location with many restaurants, shopping and next to interstate. Very nice indoor pool, hot tube and gym. 30 minutes to downtown Denver without all the traffic. The staff was very helpful and the rooms were clean, comfortable and large.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r460687654-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
   </si>
   <si>
@@ -552,9 +910,6 @@
     <t>February 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Mallory S, Director of Sales at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded February 21, 2017</t>
   </si>
   <si>
@@ -615,6 +970,57 @@
     <t>Very clean and new, about 30-40 mins from the Denver airport, which was not a problem. If you'd like to save a couple buck, they serve a full breakfast and have coffee 24hrs a day. Would recommend the Holiday Inn Express &amp; Suites.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r442052974-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>442052974</t>
+  </si>
+  <si>
+    <t>12/04/2016</t>
+  </si>
+  <si>
+    <t>great stay --- affordable price</t>
+  </si>
+  <si>
+    <t>greeted by a nice entry way and lobby. very friendly and informative at check in. rooms are very nice. we had a 2 bed suite w/ a couch, desk, micro, refrig., and internet.very clean room, comfortable beds. large indoor pool.( did not use)full breakfast was excellent. great variety.MoreShow less</t>
+  </si>
+  <si>
+    <t>Mallory S, Director of Sales at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded December 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 6, 2016</t>
+  </si>
+  <si>
+    <t>greeted by a nice entry way and lobby. very friendly and informative at check in. rooms are very nice. we had a 2 bed suite w/ a couch, desk, micro, refrig., and internet.very clean room, comfortable beds. large indoor pool.( did not use)full breakfast was excellent. great variety.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r428962900-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>428962900</t>
+  </si>
+  <si>
+    <t>10/17/2016</t>
+  </si>
+  <si>
+    <t>Nicest Holiday Inn I have ever stayed at</t>
+  </si>
+  <si>
+    <t>The staff were so nice. I had a suite and it was extremely clean, bathroom was exceptionally clean, I had given up on Holiday Inns for awhile and went to a competitor, after staying at this one, I may be back for other s. It is so close to the outlets, restaurants and hospital and movie theaters, I really enjoyed myselfMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Mallory S, Director of Sales at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded October 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 20, 2016</t>
+  </si>
+  <si>
+    <t>The staff were so nice. I had a suite and it was extremely clean, bathroom was exceptionally clean, I had given up on Holiday Inns for awhile and went to a competitor, after staying at this one, I may be back for other s. It is so close to the outlets, restaurants and hospital and movie theaters, I really enjoyed myselfMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r426355568-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
   </si>
   <si>
@@ -630,9 +1036,6 @@
     <t>We were in Castle Rock for the wedding of a dear friend and had a wonderful stay at the Holiday Inn Express. The help was superb.  When we arrived late, the staff was gracious and accommodating. Each time we walked in or out in the evening hours they called us by name and asked how our visit was going. Very friendly staff. The breakfasts had a variety of everything for all health needs and the large eating area was very nice and comfortable. We will stay here again if we ever visit Castle Rock again. MoreShow less</t>
   </si>
   <si>
-    <t>October 2016</t>
-  </si>
-  <si>
     <t>Mallory S, Director of Sales at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded October 10, 2016</t>
   </si>
   <si>
@@ -693,6 +1096,48 @@
     <t>The room has quite a bit of room although the chair is squished between 2 tables. The bathroom is nice sized. The only thing I did not like about the room was that the bathroom door opened  outward and bumped into the entry door. Service was excellent. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r415942945-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>415942945</t>
+  </si>
+  <si>
+    <t>09/07/2016</t>
+  </si>
+  <si>
+    <t>Best In Castle Rock!!</t>
+  </si>
+  <si>
+    <t>This year for parent's weekend at USAFA we decided to stay in Castle Rock to avoid the crowds.  We decided on HI Express in Castle Rock.  Best decision ever!!  We had an early flight from Atlanta and arrived around 10:30.  We called on the way in to see if we could check in early.  The answer was a polite yes.  We were able to check in and get settled.  This hotel is new.  It is exceptionally clean and all of the staff are pleasant to talk to.  Your stay here includes breakfast but it's not the normal free breakfast.  Just about anything you could want is available.  Eggs, pancakes, bagels, juice, cereal, etc....It is all fresh and totally awesome.  Having a cadet at USAFA laundry is always something we do on parent's weekend.  There are 4 washers and 4 dryers and they are exceptionally fast.  The location is easy to get to off of I-25 with ample parking.  This location by far exceeded our expectations and we got a great price!MoreShow less</t>
+  </si>
+  <si>
+    <t>Mallory S, Director of Sales at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded September 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 9, 2016</t>
+  </si>
+  <si>
+    <t>This year for parent's weekend at USAFA we decided to stay in Castle Rock to avoid the crowds.  We decided on HI Express in Castle Rock.  Best decision ever!!  We had an early flight from Atlanta and arrived around 10:30.  We called on the way in to see if we could check in early.  The answer was a polite yes.  We were able to check in and get settled.  This hotel is new.  It is exceptionally clean and all of the staff are pleasant to talk to.  Your stay here includes breakfast but it's not the normal free breakfast.  Just about anything you could want is available.  Eggs, pancakes, bagels, juice, cereal, etc....It is all fresh and totally awesome.  Having a cadet at USAFA laundry is always something we do on parent's weekend.  There are 4 washers and 4 dryers and they are exceptionally fast.  The location is easy to get to off of I-25 with ample parking.  This location by far exceeded our expectations and we got a great price!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r415827799-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>415827799</t>
+  </si>
+  <si>
+    <t>One of the best Holiday Inn hotels I've ever stayed in.</t>
+  </si>
+  <si>
+    <t>This hotel was absolutely sparkling clean. Spacious rooms, great service by the staff. The bed was excellent for comfort. Overall, I would stay here every time I'm in this area. Access to restaurants, and golf is easy.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>This hotel was absolutely sparkling clean. Spacious rooms, great service by the staff. The bed was excellent for comfort. Overall, I would stay here every time I'm in this area. Access to restaurants, and golf is easy.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r415360994-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
   </si>
   <si>
@@ -747,9 +1192,6 @@
     <t>I spent 3 nights at this Hotel- note that I refer to it as a hotel, as it in no way resembles a motel or motor in, except perhaps free parking. There is much to like about this hostlery:Double thick, firm mattresses , which by the way, I learned are rotated every 3-4 months: exercise facilities that include a variety of fitness equipment and a spotlessly maintained, indoor pool: extensive selection of breakfast items, including hot and cold items, and I have to say it is the best I have seen: two computers in the lobby including access to printers and of course WIFI, in your room, free of course.MoreShow less</t>
   </si>
   <si>
-    <t>August 2016</t>
-  </si>
-  <si>
     <t>Mallory S, Director of Sales at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded August 31, 2016</t>
   </si>
   <si>
@@ -759,6 +1201,57 @@
     <t>I spent 3 nights at this Hotel- note that I refer to it as a hotel, as it in no way resembles a motel or motor in, except perhaps free parking. There is much to like about this hostlery:Double thick, firm mattresses , which by the way, I learned are rotated every 3-4 months: exercise facilities that include a variety of fitness equipment and a spotlessly maintained, indoor pool: extensive selection of breakfast items, including hot and cold items, and I have to say it is the best I have seen: two computers in the lobby including access to printers and of course WIFI, in your room, free of course.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r403834154-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>403834154</t>
+  </si>
+  <si>
+    <t>08/10/2016</t>
+  </si>
+  <si>
+    <t>5 star hotel for 1 star budget</t>
+  </si>
+  <si>
+    <t>Absolutely perfect hotel , beautiful rooms , great price! Highly recommend! This hotel is nicer than a lot of 5 star hotels and resorts we have stayed in and it was located in the heart of castle rock co. We will definitely stay there again............"..........................MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Mallory S, Director of Sales at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded August 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 22, 2016</t>
+  </si>
+  <si>
+    <t>Absolutely perfect hotel , beautiful rooms , great price! Highly recommend! This hotel is nicer than a lot of 5 star hotels and resorts we have stayed in and it was located in the heart of castle rock co. We will definitely stay there again............"..........................More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r402227595-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>402227595</t>
+  </si>
+  <si>
+    <t>08/06/2016</t>
+  </si>
+  <si>
+    <t>Great Experience</t>
+  </si>
+  <si>
+    <t>Stayed for 2 nights while in town for work. Room was very nice and comfortable. Plenty of lightening, plug ins and mirrors to accommodate anyone's "routine habits" when it comes to getting ready for work (steaming clothes, putting on makeup, etc) Often times rooms are so poorly lighted but not here. Plenty of linens and towels. The breakfast was fresh, different each day and offered several options. Will book again. MoreShow less</t>
+  </si>
+  <si>
+    <t>Mallory S, Director of Sales at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded August 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 15, 2016</t>
+  </si>
+  <si>
+    <t>Stayed for 2 nights while in town for work. Room was very nice and comfortable. Plenty of lightening, plug ins and mirrors to accommodate anyone's "routine habits" when it comes to getting ready for work (steaming clothes, putting on makeup, etc) Often times rooms are so poorly lighted but not here. Plenty of linens and towels. The breakfast was fresh, different each day and offered several options. Will book again. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r396910345-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
   </si>
   <si>
@@ -777,12 +1270,6 @@
     <t>July 2016</t>
   </si>
   <si>
-    <t>Mallory S, Director of Sales at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded August 15, 2016</t>
-  </si>
-  <si>
-    <t>Responded August 15, 2016</t>
-  </si>
-  <si>
     <t>This Holiday Inn is a clean modern hotel located by the factory outlet stores and many other stores and restaurants.  The service is attentive, helpful and cheerful.  The hotel has a lovely hot breakfast, a great gym pool and hot tub.  The rooms are clean the beds are comfortable.  This is a great hotel to stay at.More</t>
   </si>
   <si>
@@ -837,6 +1324,42 @@
     <t>I have made Holiday Inn Express my go-to place for lodging.  I am almost never disappointed and this location was no exception.  Good location, helpful and friendly staff, quiet and clean room.  This was a new facility so everything was particularly nice.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r392580218-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>392580218</t>
+  </si>
+  <si>
+    <t>07/14/2016</t>
+  </si>
+  <si>
+    <t>Quality as usual</t>
+  </si>
+  <si>
+    <t>This is one of the newer properties so everything is in tip top shape.  The room was nice and comfortable, air was down cold which is how I like it.  The bedding is excellent and consistent with other HI Express properties.Standard Continental breakfast included, my first day was scrambled eggs and next day was the cheese omelet.  As long as you catch them relatively fresh they're good to go.No refrigerator in room, and I didn't ask if they have one available to bring up so unknown there. Tip:  After you've checked in park around back if you're staying on an upper floor.  The rear entrance is right next to the elevator so you have a short walk from your car to the elevator.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is one of the newer properties so everything is in tip top shape.  The room was nice and comfortable, air was down cold which is how I like it.  The bedding is excellent and consistent with other HI Express properties.Standard Continental breakfast included, my first day was scrambled eggs and next day was the cheese omelet.  As long as you catch them relatively fresh they're good to go.No refrigerator in room, and I didn't ask if they have one available to bring up so unknown there. Tip:  After you've checked in park around back if you're staying on an upper floor.  The rear entrance is right next to the elevator so you have a short walk from your car to the elevator.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r391048257-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>391048257</t>
+  </si>
+  <si>
+    <t>07/10/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Castle Rock </t>
+  </si>
+  <si>
+    <t>We have family and visit this area 1-2 times a year -Love this hotel! VERY CLEAN, fresh and friendly staff. The rooms large are clean, bed was so comfortable (best bed I have ever had in a hotel). The pool and hot tub were the perfect end to a long day. Large continental breakfast choices. 5 Star - this is my favorite choice. MoreShow less</t>
+  </si>
+  <si>
+    <t>We have family and visit this area 1-2 times a year -Love this hotel! VERY CLEAN, fresh and friendly staff. The rooms large are clean, bed was so comfortable (best bed I have ever had in a hotel). The pool and hot tub were the perfect end to a long day. Large continental breakfast choices. 5 Star - this is my favorite choice. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r390496804-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
   </si>
   <si>
@@ -900,6 +1423,56 @@
     <t>Hotel was nice and new but the room was next to a maintenance closet. The staff was banging around in there till nearly 10pm and I was woken by the sounds of drilling on the other side of my headboard at 7am.  Aside from that annoyance, the hotel includes a great view, ask for a room on the front of the building to see it! Great proximity to a local microbrew and access to beautiful scenic drives. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r382966825-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>382966825</t>
+  </si>
+  <si>
+    <t>06/15/2016</t>
+  </si>
+  <si>
+    <t>Would Definitely Stay again</t>
+  </si>
+  <si>
+    <t>This is a brand new hotel only 18 mos old. It was absolutely pristine. It was easy to find off of I-25 &amp; is conveniently located between Denver &amp; Colorado Springs. Reasonable rates &amp; ample parking. Bed was comfortable although pillows were way too soft. Direct TV for cable was nice with quite a few HBO channels. Was able to control temp in room easily. Front desk gave us coupons for the nearby outlet mall. Hotel is in near proximity to restaurants, stores, gas stations, supermarkets &amp; interstate. There is a business center area in hotel lobby and also free WiFi. There is a pool &amp; hot tub. Definitely would stay again. 
+Cons: contrary to what the in-room literature states not every room has a microwave &amp; refrigerator. When we didn't find these amenities in our room we called the front desk &amp; were told that only the west side of the hotel has them. Of course we were on the east side. This was NOT mentioned when we booked the room &amp; was annoying. Luckily we had brought a cooler with us on the trip so that did help somewhat. The shower door did not close all the way which resulted in lots of water all over the bathroom floor. We mentioned this at check out &amp; were informed that there are 45 rooms with the issue due to the building being wood framed. Didn't really understand the correlation...This is a brand new hotel only 18 mos old. It was absolutely pristine. It was easy to find off of I-25 &amp; is conveniently located between Denver &amp; Colorado Springs. Reasonable rates &amp; ample parking. Bed was comfortable although pillows were way too soft. Direct TV for cable was nice with quite a few HBO channels. Was able to control temp in room easily. Front desk gave us coupons for the nearby outlet mall. Hotel is in near proximity to restaurants, stores, gas stations, supermarkets &amp; interstate. There is a business center area in hotel lobby and also free WiFi. There is a pool &amp; hot tub. Definitely would stay again. Cons: contrary to what the in-room literature states not every room has a microwave &amp; refrigerator. When we didn't find these amenities in our room we called the front desk &amp; were told that only the west side of the hotel has them. Of course we were on the east side. This was NOT mentioned when we booked the room &amp; was annoying. Luckily we had brought a cooler with us on the trip so that did help somewhat. The shower door did not close all the way which resulted in lots of water all over the bathroom floor. We mentioned this at check out &amp; were informed that there are 45 rooms with the issue due to the building being wood framed. Didn't really understand the correlation since the place is brand new nor why issue not rectified. the west side rooms have bathtubs. Fire alarm went off at 7am the second day were there. Thankfully it was a false alarm but not the best way to wake up. Apparently there was an issue the previous day as well. The breakfast was standard fare for a hotel of this class-bagels, donuts, juice, coffee,cereal, etc. If a more robust breakfast is desired, IHOP is right next door. Despite a few things, all in all a great stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Mallory S, Director of Sales at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded July 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2016</t>
+  </si>
+  <si>
+    <t>This is a brand new hotel only 18 mos old. It was absolutely pristine. It was easy to find off of I-25 &amp; is conveniently located between Denver &amp; Colorado Springs. Reasonable rates &amp; ample parking. Bed was comfortable although pillows were way too soft. Direct TV for cable was nice with quite a few HBO channels. Was able to control temp in room easily. Front desk gave us coupons for the nearby outlet mall. Hotel is in near proximity to restaurants, stores, gas stations, supermarkets &amp; interstate. There is a business center area in hotel lobby and also free WiFi. There is a pool &amp; hot tub. Definitely would stay again. 
+Cons: contrary to what the in-room literature states not every room has a microwave &amp; refrigerator. When we didn't find these amenities in our room we called the front desk &amp; were told that only the west side of the hotel has them. Of course we were on the east side. This was NOT mentioned when we booked the room &amp; was annoying. Luckily we had brought a cooler with us on the trip so that did help somewhat. The shower door did not close all the way which resulted in lots of water all over the bathroom floor. We mentioned this at check out &amp; were informed that there are 45 rooms with the issue due to the building being wood framed. Didn't really understand the correlation...This is a brand new hotel only 18 mos old. It was absolutely pristine. It was easy to find off of I-25 &amp; is conveniently located between Denver &amp; Colorado Springs. Reasonable rates &amp; ample parking. Bed was comfortable although pillows were way too soft. Direct TV for cable was nice with quite a few HBO channels. Was able to control temp in room easily. Front desk gave us coupons for the nearby outlet mall. Hotel is in near proximity to restaurants, stores, gas stations, supermarkets &amp; interstate. There is a business center area in hotel lobby and also free WiFi. There is a pool &amp; hot tub. Definitely would stay again. Cons: contrary to what the in-room literature states not every room has a microwave &amp; refrigerator. When we didn't find these amenities in our room we called the front desk &amp; were told that only the west side of the hotel has them. Of course we were on the east side. This was NOT mentioned when we booked the room &amp; was annoying. Luckily we had brought a cooler with us on the trip so that did help somewhat. The shower door did not close all the way which resulted in lots of water all over the bathroom floor. We mentioned this at check out &amp; were informed that there are 45 rooms with the issue due to the building being wood framed. Didn't really understand the correlation since the place is brand new nor why issue not rectified. the west side rooms have bathtubs. Fire alarm went off at 7am the second day were there. Thankfully it was a false alarm but not the best way to wake up. Apparently there was an issue the previous day as well. The breakfast was standard fare for a hotel of this class-bagels, donuts, juice, coffee,cereal, etc. If a more robust breakfast is desired, IHOP is right next door. Despite a few things, all in all a great stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r382591839-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>382591839</t>
+  </si>
+  <si>
+    <t>06/14/2016</t>
+  </si>
+  <si>
+    <t>Nice rooms but bombarded with horrendous scented linens</t>
+  </si>
+  <si>
+    <t>The scent of the linens is so strong that I promptly removed every piece of bedding including the mattress pad. Due to my asthma and allergies I bring my own sheets for this very reason but the chemicals were embedded in everything in the room. The towels are SO strong they made me gag each morning and when I got home every single thing that was in that room with me wreaked of the toxic chemicals used to scent the laundry. It was HORRIBLE!  I had to wash everything at least twice with white vinegar trying to remove the chemicals which exaserbate my asthma. I am returning to Castle Rock next week but will be staying next door where they do not use chemicalized sheets/towels. I am also a Platinum member of the IHG club and got no recognition, no upgrade and no free water/snack as usual. Also this is the only Holiday Inn Express that I've ever stayed at with no refrigerator which was inconvenient. Sorry...NOT IMPRESSED.MoreShow less</t>
+  </si>
+  <si>
+    <t>Mallory S, Director of Sales at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded June 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 17, 2016</t>
+  </si>
+  <si>
+    <t>The scent of the linens is so strong that I promptly removed every piece of bedding including the mattress pad. Due to my asthma and allergies I bring my own sheets for this very reason but the chemicals were embedded in everything in the room. The towels are SO strong they made me gag each morning and when I got home every single thing that was in that room with me wreaked of the toxic chemicals used to scent the laundry. It was HORRIBLE!  I had to wash everything at least twice with white vinegar trying to remove the chemicals which exaserbate my asthma. I am returning to Castle Rock next week but will be staying next door where they do not use chemicalized sheets/towels. I am also a Platinum member of the IHG club and got no recognition, no upgrade and no free water/snack as usual. Also this is the only Holiday Inn Express that I've ever stayed at with no refrigerator which was inconvenient. Sorry...NOT IMPRESSED.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r380094947-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
   </si>
   <si>
@@ -918,12 +1491,6 @@
     <t>May 2016</t>
   </si>
   <si>
-    <t>Mallory S, Director of Sales at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded June 17, 2016</t>
-  </si>
-  <si>
-    <t>Responded June 17, 2016</t>
-  </si>
-  <si>
     <t>The check-in was wonderful and easy with excellent customer service. The room was very comfortable with nice finishes. Suggest top floor with a west side view. There was a party in one of the rooms on the main floor, and they were very gracious to move us to a higher floor away from the noise. Breakfast was good and excellent coffee. Will stay here again!More</t>
   </si>
   <si>
@@ -978,6 +1545,60 @@
     <t>We stayed here for 2 nights. The facility is very appealing in all areas. The front lobby was large and comfortable. The evening desk staff were very friendly and helpful. The check in process was about as smooth as I have experienced in a while.  They were great to give us local restaurant and shopping information. ( which resulted in some great discounts at the outlet mall nearby!!!). There are many places to eat in the immediate area, some within walking distance. I did not use the fitness room but it appeared to have lots of usable equipment including medicine and exercise balls in addition to the normal machines. Breakfast included lots of options and of course the famous warm cinnamon rolls. The breakfast staff was friendly as well.  The rooms were standard and clean. The beds were comfortable, not to soft or not to hard. Our stay was pleasant and affordable.  Thanks for your hospitality!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r341989223-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>341989223</t>
+  </si>
+  <si>
+    <t>01/22/2016</t>
+  </si>
+  <si>
+    <t>Weekend wedding</t>
+  </si>
+  <si>
+    <t>Wow the place looks almost new. Breakfast was great. Clean everything. My mom is disabled and parking was simple. Wish I had brought my swim suit for the pool. Truly did not have time anyway. Gym was clean and large. My first time staying in Castle Rock. Outlets just across the street and food all around. Easy stay from Denver plane arrival to Larkspur wedding. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Mallory S, Director of Sales at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded January 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 26, 2016</t>
+  </si>
+  <si>
+    <t>Wow the place looks almost new. Breakfast was great. Clean everything. My mom is disabled and parking was simple. Wish I had brought my swim suit for the pool. Truly did not have time anyway. Gym was clean and large. My first time staying in Castle Rock. Outlets just across the street and food all around. Easy stay from Denver plane arrival to Larkspur wedding. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r340410516-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>340410516</t>
+  </si>
+  <si>
+    <t>01/16/2016</t>
+  </si>
+  <si>
+    <t>Highway Convenient, Consistently Comfortable</t>
+  </si>
+  <si>
+    <t>Nothing like a hot breakfast while looking out upon a late spring snowstorm to make you want to stay inside and work on conversation skills.  HIX is always a good oasis along the highway to get comfortable, relax, and enjoy a restful stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Mallory S, Director of Sales at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded January 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 18, 2016</t>
+  </si>
+  <si>
+    <t>Nothing like a hot breakfast while looking out upon a late spring snowstorm to make you want to stay inside and work on conversation skills.  HIX is always a good oasis along the highway to get comfortable, relax, and enjoy a restful stay.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r336558554-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
   </si>
   <si>
@@ -993,9 +1614,6 @@
     <t>Nice newer property.  Clean and well maintained. Enjoyed the large workout room and breakfast area. Good location and near shopping. Room was very clean and modern plus staff was very helpful. Definitely will return.MoreShow less</t>
   </si>
   <si>
-    <t>January 2016</t>
-  </si>
-  <si>
     <t>Mallory S, Director of Sales at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded January 4, 2016</t>
   </si>
   <si>
@@ -1059,6 +1677,57 @@
     <t>Staff friendly and efficient (especially Stormy at the front desk).  Room nicely appointed and sparkling clean.  Wifi worked great.  Breakfast buffet had many options, was very good and the staff was attentive every morning.  Workout room big and well equipped &amp; hot tub was great after running the Castle Rock Trot on Thanksgiving day.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r328181972-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>328181972</t>
+  </si>
+  <si>
+    <t>11/21/2015</t>
+  </si>
+  <si>
+    <t>Welcoming port in the storm</t>
+  </si>
+  <si>
+    <t>After a long day of flying, we got caught in a major snow storm driving from Denver to Pueblo. The cars were all moving only 10 mph. So we decided to make an emergency stop with our exhausted kids. The gentleman at the front desk could not have been nicer. He gave us a wonderful rate, and a very comfortable room with a much needed sofa bed for our kids.  The hot breakfast was ready at 6:00 am, and was a great start to our morning drive. Thanks to all for the good work you do! MoreShow less</t>
+  </si>
+  <si>
+    <t>Mallory S, Director of Sales at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded November 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 23, 2015</t>
+  </si>
+  <si>
+    <t>After a long day of flying, we got caught in a major snow storm driving from Denver to Pueblo. The cars were all moving only 10 mph. So we decided to make an emergency stop with our exhausted kids. The gentleman at the front desk could not have been nicer. He gave us a wonderful rate, and a very comfortable room with a much needed sofa bed for our kids.  The hot breakfast was ready at 6:00 am, and was a great start to our morning drive. Thanks to all for the good work you do! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r326666648-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>326666648</t>
+  </si>
+  <si>
+    <t>11/14/2015</t>
+  </si>
+  <si>
+    <t>Beautiful Holiday Inn Property</t>
+  </si>
+  <si>
+    <t>I believe this is a fairly new property in the Holiday Inn Family and it is a wonderful place to stay.  Friendly front desk staff, comfortable rooms and a quiet hotel. Close to the outlet mall for shopping and has an IHOP located next door for food choices. As a former Holiday Inn Employee I try and make it a policy to stay at these properties whenever I can.  This location does not disappoint and I will be staying again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Mallory S, Director of Sales at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded November 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 16, 2015</t>
+  </si>
+  <si>
+    <t>I believe this is a fairly new property in the Holiday Inn Family and it is a wonderful place to stay.  Friendly front desk staff, comfortable rooms and a quiet hotel. Close to the outlet mall for shopping and has an IHOP located next door for food choices. As a former Holiday Inn Employee I try and make it a policy to stay at these properties whenever I can.  This location does not disappoint and I will be staying again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r325802407-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
   </si>
   <si>
@@ -1122,9 +1791,6 @@
     <t>This might be one of the most pleasant stays at a hotel I've ever had. Let's break it down..Rooms: Clean, spacious, modern and comfortable.Food: Breakfast was fairly decent with hot food selection, fruit, yogurt, milk, bread items, etc. They also have a coffee and tea station that stays open all day AND they offer Otis Spunkmeyer cookies in the afternoon- yum!Service: This might have been the best part of our trip. Front desk was super friendly and accommodating. For instance, when they ran out of cookies we requested they make more and the front desk girl (Stormy) helped us right out! The lady who organized breakfast in the morning was also very friendly and helpful.Location: Easy access to Castle Rock, right off I25 which made it convenient to get around to any area around Denver. Also...right by the Outlet Malls (which are pretty fantastic for shopping).My only "complaint" is I wished their rooms had mini fridges so we could store bottled water for our hikes. Other than that, I would be back!MoreShow less</t>
   </si>
   <si>
-    <t>October 2015</t>
-  </si>
-  <si>
     <t>Mallory S, Director of Sales at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded October 21, 2015</t>
   </si>
   <si>
@@ -1134,15 +1800,60 @@
     <t>This might be one of the most pleasant stays at a hotel I've ever had. Let's break it down..Rooms: Clean, spacious, modern and comfortable.Food: Breakfast was fairly decent with hot food selection, fruit, yogurt, milk, bread items, etc. They also have a coffee and tea station that stays open all day AND they offer Otis Spunkmeyer cookies in the afternoon- yum!Service: This might have been the best part of our trip. Front desk was super friendly and accommodating. For instance, when they ran out of cookies we requested they make more and the front desk girl (Stormy) helped us right out! The lady who organized breakfast in the morning was also very friendly and helpful.Location: Easy access to Castle Rock, right off I25 which made it convenient to get around to any area around Denver. Also...right by the Outlet Malls (which are pretty fantastic for shopping).My only "complaint" is I wished their rooms had mini fridges so we could store bottled water for our hikes. Other than that, I would be back!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r318585357-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>318585357</t>
+  </si>
+  <si>
+    <t>10/14/2015</t>
+  </si>
+  <si>
+    <t>A great place to stay - a real home from home</t>
+  </si>
+  <si>
+    <t>Stayed here part way through our road trip and decided to come back for our last day before flying back to the England. This was because not only does it have easy access to the airport we consider this the best hotel we have stayed at in the 4 weeks of our holiday. The whole of the hotel team treat you as an honoured guest, always helpful with a friendly word and a smile. The hotel manager is always around and has a word with everyone, and Torie on the front desk is just first rate.The hotel is light and spacious and so are the rooms, and if you get rooms at the front you have views over to the mountains. The HIE breakfast is first rate, plenty of it and a great variety to suit every need. Rooms are very clean and tidy first rate. If you have time try out the pool, really refreshing after a hot day sight seeing and shopping at the Outlets.MoreShow less</t>
+  </si>
+  <si>
+    <t>Mallory S, Director of Sales at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded October 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 19, 2015</t>
+  </si>
+  <si>
+    <t>Stayed here part way through our road trip and decided to come back for our last day before flying back to the England. This was because not only does it have easy access to the airport we consider this the best hotel we have stayed at in the 4 weeks of our holiday. The whole of the hotel team treat you as an honoured guest, always helpful with a friendly word and a smile. The hotel manager is always around and has a word with everyone, and Torie on the front desk is just first rate.The hotel is light and spacious and so are the rooms, and if you get rooms at the front you have views over to the mountains. The HIE breakfast is first rate, plenty of it and a great variety to suit every need. Rooms are very clean and tidy first rate. If you have time try out the pool, really refreshing after a hot day sight seeing and shopping at the Outlets.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r314928530-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>314928530</t>
+  </si>
+  <si>
+    <t>09/29/2015</t>
+  </si>
+  <si>
+    <t>Return visit to a 5 star hotel</t>
+  </si>
+  <si>
+    <t>When I knew we were going to be in Castle Rock CO for business recently, I quickly made a hotel reservation at the Holiday Inn and Suites.  This would turn out to be my second visit in a few months.  The hotel was still new looking, modern and very clean.We enjoyed the hot breakfast buffet, especially the cinnamon rolls. We did see a few familar friendly staff faces during our stay.  The only suggestion I would give the hotel, would be to better train this one front desk person, Ane.  Whenever we passed by, she never smiled.  When I asked for directions, she seemed as I was a bother to her. Otherwise, we plan on returning around Thanksgiving.MoreShow less</t>
+  </si>
+  <si>
+    <t>Mallory S, Director of Sales at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded September 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 30, 2015</t>
+  </si>
+  <si>
+    <t>When I knew we were going to be in Castle Rock CO for business recently, I quickly made a hotel reservation at the Holiday Inn and Suites.  This would turn out to be my second visit in a few months.  The hotel was still new looking, modern and very clean.We enjoyed the hot breakfast buffet, especially the cinnamon rolls. We did see a few familar friendly staff faces during our stay.  The only suggestion I would give the hotel, would be to better train this one front desk person, Ane.  Whenever we passed by, she never smiled.  When I asked for directions, she seemed as I was a bother to her. Otherwise, we plan on returning around Thanksgiving.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r314894290-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
   </si>
   <si>
     <t>314894290</t>
   </si>
   <si>
-    <t>09/29/2015</t>
-  </si>
-  <si>
     <t>Loved staying here! clean, modern, fun and economical</t>
   </si>
   <si>
@@ -1152,12 +1863,6 @@
     <t>June 2015</t>
   </si>
   <si>
-    <t>Mallory S, Director of Sales at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded September 30, 2015</t>
-  </si>
-  <si>
-    <t>Responded September 30, 2015</t>
-  </si>
-  <si>
     <t>I stayed here for 4 days when visiting my son and his family in CR. I loved this hotel. I never thought 10 years ago that a Holiday Inn would be my preference but it is. They have sure come a long way. I was impressed with how modern, clean, and nice everything was. The breakfast was good too. We enjoyed the indoor pool and really had a good time. The location is great - near the outlet mall and other stuff. Definitely would come back.More</t>
   </si>
   <si>
@@ -1176,9 +1881,6 @@
     <t>We recently spent 4 nights at The Holiday Inn Express and Suites in Castle Rock.  Overall we thought the hotel attractive and welcoming. The lobby is very open and has plenty of natural light.The manager couldn't have been more pleasant and helpful.  The rest of the staff rates highly also.Breakfast foods were fresh and plentiful.This review would be rated "excellent" if the bathroom had higher quality fixtures.  As it was, our shower fixtures were loose, the water faucets in the sink leaked copiously, and the toilet seat kept coming off.  It could be reattatched and my husband did so several times, but it continued to come off.The rest of the room was fine, clean and  well appointed and the bed was quite comfortable.  We would stay there again- after checking out the bathroom.MoreShow less</t>
   </si>
   <si>
-    <t>September 2015</t>
-  </si>
-  <si>
     <t>Mallory S, Director of Sales at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded September 16, 2015</t>
   </si>
   <si>
@@ -1203,6 +1905,45 @@
     <t>Love this hotel, staff are accommodating and friendly. The interiors are modern.Only thing i noticed, all Holiday Inn I've stayed this is the only hotel without a refrigerator in our room. This hotel also is convenient to the outlet store and restaurants.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r310481770-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>310481770</t>
+  </si>
+  <si>
+    <t>Best Holiday Inn Ever</t>
+  </si>
+  <si>
+    <t>I don't normally write reviews for hotels, but this is hands down the nicest Holiday Inn I've ever stayed at. Immaculately clean rooms and common areas, large and comfortable suites, friendly and helpful employees (I wonder if it was something in the water or if they all truly enjoy their jobs this much), all at a vey affordable rate. I'll stay here every time I come back to visit my family! MoreShow less</t>
+  </si>
+  <si>
+    <t>I don't normally write reviews for hotels, but this is hands down the nicest Holiday Inn I've ever stayed at. Immaculately clean rooms and common areas, large and comfortable suites, friendly and helpful employees (I wonder if it was something in the water or if they all truly enjoy their jobs this much), all at a vey affordable rate. I'll stay here every time I come back to visit my family! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r308643611-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>308643611</t>
+  </si>
+  <si>
+    <t>09/09/2015</t>
+  </si>
+  <si>
+    <t>Family Reunion</t>
+  </si>
+  <si>
+    <t>Overall the hotel is very clean and in a quiet area.  It has easy access after exiting the freeway.The bed was very comfortable, and the room was very clean.We did not partake of the free breakfast.  We did walk by, and it is very continental, breads, cereals, waffle machine.My complaint was the air-conditioner shutting off completely all the time.  I did notify twice the problem, and it was never fixed.  Being a priority member, we never even offered bonus points or money off our room.MoreShow less</t>
+  </si>
+  <si>
+    <t>Mallory S, Director of Sales at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded September 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 11, 2015</t>
+  </si>
+  <si>
+    <t>Overall the hotel is very clean and in a quiet area.  It has easy access after exiting the freeway.The bed was very comfortable, and the room was very clean.We did not partake of the free breakfast.  We did walk by, and it is very continental, breads, cereals, waffle machine.My complaint was the air-conditioner shutting off completely all the time.  I did notify twice the problem, and it was never fixed.  Being a priority member, we never even offered bonus points or money off our room.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r307865711-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
   </si>
   <si>
@@ -1281,6 +2022,54 @@
     <t>The room was nice but for the price I demand a refrigerator.  In this price range I cannot go higher than a 3 if the room does not have a refrigerator, microwave, and coffee maker.  This was not a reasonable priced hotel.  I have a refrigerator in Super 8s .  That disappointed me.  Otherwise the place was good.  Man at the desk was very nice and helpful.  The bed was comfortable although I had trouble sleeping, just my problem, shower was good.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r300489106-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>300489106</t>
+  </si>
+  <si>
+    <t>08/17/2015</t>
+  </si>
+  <si>
+    <t>Nicer hotel</t>
+  </si>
+  <si>
+    <t>This large town has like 15 hotels and they were all full. This place had one room left. Room and bath was clean. Breakfast was good. I would for sure stay here again if I was in this area again. Also IHOP is in the same parking lot which is walking distance from the hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>Jackie L, General Manager at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded August 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 18, 2015</t>
+  </si>
+  <si>
+    <t>This large town has like 15 hotels and they were all full. This place had one room left. Room and bath was clean. Breakfast was good. I would for sure stay here again if I was in this area again. Also IHOP is in the same parking lot which is walking distance from the hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r296949618-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>296949618</t>
+  </si>
+  <si>
+    <t>08/08/2015</t>
+  </si>
+  <si>
+    <t>Nice New Hotel Experience</t>
+  </si>
+  <si>
+    <t>I arrived very tired and late in the evening and was checked in quickly. The hotel appearance was safe, clean, and inviting. The staff greeted me with a smile. The room was well lit, large, with clean bathroom. Water pressure at temperature were great. The breakfast area was clean with all the normal selections. The folded omelet cheesy eggs were actually yellow instead of the over cooked brown color like the previous Holiday Inn I stayed in the 3 nights before. The pool was just perfect for swimming. Small issue with empty tissues box and no plastic cups but quickly replaced. I requested and was granted a late checkout to 2pm but left at 2:45pm with no issues. A great hotel. I will be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jackie L, General Manager at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded August 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 13, 2015</t>
+  </si>
+  <si>
+    <t>I arrived very tired and late in the evening and was checked in quickly. The hotel appearance was safe, clean, and inviting. The staff greeted me with a smile. The room was well lit, large, with clean bathroom. Water pressure at temperature were great. The breakfast area was clean with all the normal selections. The folded omelet cheesy eggs were actually yellow instead of the over cooked brown color like the previous Holiday Inn I stayed in the 3 nights before. The pool was just perfect for swimming. Small issue with empty tissues box and no plastic cups but quickly replaced. I requested and was granted a late checkout to 2pm but left at 2:45pm with no issues. A great hotel. I will be back.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r296445293-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
   </si>
   <si>
@@ -1353,6 +2142,39 @@
     <t>Five Star review for our recent meetings at the new Holiday Inn Express in Castle Rock, CO.  My compliments to the staff for being so patient with me as I had to change my dates due to illness the last minute.  All the attendees raved about the hotel and insisted we have our fall seminar at this Holiday Inn Express.  Some of my out of town guests booked rooms and  were very impressed with this facility including the complimentary breakfast buffet.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r292474525-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>292474525</t>
+  </si>
+  <si>
+    <t>Great property, clean, friendly, convenient location!</t>
+  </si>
+  <si>
+    <t>The only reason this hotel did not get "Excellent" from me is because of one repeat problem I have experienced on two consecutive stays - the internet is AWFUL.  I'm a business traveler, so internet is essential, and when I stay here I have to use my phone hotspot to get work done.  I've called the tech support, it's just plain and simple slow.The Good: Great locations, lots of restaurants, shops and stores within a short distance.  A VERY good restaurant right across the lot, and an IHOP right next to the front door.  The staff is always friendly, smiling, and helpful.  The property is clean, attractive grounds, and very welcoming.The Bad:  Already hit that, the only bad part is the internet.Overall - I still highly recommend staying here.MoreShow less</t>
+  </si>
+  <si>
+    <t>The only reason this hotel did not get "Excellent" from me is because of one repeat problem I have experienced on two consecutive stays - the internet is AWFUL.  I'm a business traveler, so internet is essential, and when I stay here I have to use my phone hotspot to get work done.  I've called the tech support, it's just plain and simple slow.The Good: Great locations, lots of restaurants, shops and stores within a short distance.  A VERY good restaurant right across the lot, and an IHOP right next to the front door.  The staff is always friendly, smiling, and helpful.  The property is clean, attractive grounds, and very welcoming.The Bad:  Already hit that, the only bad part is the internet.Overall - I still highly recommend staying here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r291302033-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>291302033</t>
+  </si>
+  <si>
+    <t>07/21/2015</t>
+  </si>
+  <si>
+    <t>Meeting Rooms</t>
+  </si>
+  <si>
+    <t>I have rented their business rooms a few times (I'm a Castle Rock resident) and it's gotten worse each time. The equipment doesn't work, (one room had a broken projector and another room and a broken sound system), yet when we asked for a discount due to these misrepresentations at the time of rental, we were refused. The manager (Jackie) refused to accept our phone calls to discuss it and hid in her office when we stopped by to chat about it.  Completely unprofessional and unacceptable. This is a small town, and I own a small business. This could have been a great working relationship for many years to come, but instead I'll pass the word along to everyone to avoid them at all costs.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have rented their business rooms a few times (I'm a Castle Rock resident) and it's gotten worse each time. The equipment doesn't work, (one room had a broken projector and another room and a broken sound system), yet when we asked for a discount due to these misrepresentations at the time of rental, we were refused. The manager (Jackie) refused to accept our phone calls to discuss it and hid in her office when we stopped by to chat about it.  Completely unprofessional and unacceptable. This is a small town, and I own a small business. This could have been a great working relationship for many years to come, but instead I'll pass the word along to everyone to avoid them at all costs.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r287665997-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
   </si>
   <si>
@@ -1425,27 +2247,66 @@
     <t>The hotel was extremely clean &amp; neat. Kuddos to housekeeping.  Also, excellent customer service and attentive staff.  Breakfast was wonderful!  Special kuddos to Stormy &amp; the manager on duty who found my lost keys!  I did not discover that I lost my keys until days after our stay at the Holiday Inn.  After arrival in Michigan, I called the hotel &amp; Stormy said my keys were there &amp; they would Fed-Ex them to me.  Stormy needs to change her  name to "Sunny"!!!!!!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r283325555-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>283325555</t>
+  </si>
+  <si>
+    <t>06/27/2015</t>
+  </si>
+  <si>
+    <t>New, Modern, Hip - NICE!!</t>
+  </si>
+  <si>
+    <t>Was totally impressed -- this hotel is brand new and it shows. It's decorated modern and hip - very stylish. The lobby is beautiful and the rooms nicely done (and the beds are super super comfy!! Nice bedding too). Stayed here to be with family down the road. I love it. Close to everything and not far from Denver South. Grandkids swam in the pool and enjoyed an afternoon. Breakfast is awesome - eggs, sausage, waffles, pancakes---basically everything you could want and it's super clean and well maintained. Will definitely come back.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jackie L, General Manager at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded June 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 30, 2015</t>
+  </si>
+  <si>
+    <t>Was totally impressed -- this hotel is brand new and it shows. It's decorated modern and hip - very stylish. The lobby is beautiful and the rooms nicely done (and the beds are super super comfy!! Nice bedding too). Stayed here to be with family down the road. I love it. Close to everything and not far from Denver South. Grandkids swam in the pool and enjoyed an afternoon. Breakfast is awesome - eggs, sausage, waffles, pancakes---basically everything you could want and it's super clean and well maintained. Will definitely come back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r282714793-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>282714793</t>
+  </si>
+  <si>
+    <t>06/24/2015</t>
+  </si>
+  <si>
+    <t>Nice, Clean, Great Value</t>
+  </si>
+  <si>
+    <t>This hotel is clean and comfortable. They set out free cookies and had free coffee throughout the day. The complimentary breakfast was great with pretty much every breakfast food you could imagine. The indoor pool and hot tub were also nice. Staff was very nice and friendly - even giving our toddler bubbles to play with. Would recommend if you're traveling with an infant or toddler because of the overall property quietness and room is very uncluttered (which I find best for kids!) Suites come with more room plus mini-fridge with cooler and microwave.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jackie L, General Manager at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded June 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 26, 2015</t>
+  </si>
+  <si>
+    <t>This hotel is clean and comfortable. They set out free cookies and had free coffee throughout the day. The complimentary breakfast was great with pretty much every breakfast food you could imagine. The indoor pool and hot tub were also nice. Staff was very nice and friendly - even giving our toddler bubbles to play with. Would recommend if you're traveling with an infant or toddler because of the overall property quietness and room is very uncluttered (which I find best for kids!) Suites come with more room plus mini-fridge with cooler and microwave.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r282646693-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
   </si>
   <si>
     <t>282646693</t>
   </si>
   <si>
-    <t>06/24/2015</t>
-  </si>
-  <si>
     <t>I don't want to leave!</t>
   </si>
   <si>
     <t>Although I have beloved family in Denver, I needed a couple of days on my road trip to regroup and visit some friends on the south side of town.I'm a Hilton HHonors Diamond member, but I think Holiday Inn has my business from here on out. This property in particular is gorgeous. It's brand new. I checked in and my friend, who's an interior designer, asked me to take pictures of the lobby for her. The room is equally beautiful. Plus, the workout room has REAL equipment and it all works!The staff is really great, too. Bernadette, the breakfast attendant, was constantly cleaning. I was just going to have coffee, but the breakfast items were pretty enticing. I never see greek yogurt at the Hampton Inn. So, sorry, Hampton, it's Holiday Inn for me from now on.I thought about checking out a day early to be with the family, but they're going to have to wait. This place (which is across the street from the outlet mall) is too good to leave.MoreShow less</t>
   </si>
   <si>
-    <t>Jackie L, General Manager at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded June 26, 2015</t>
-  </si>
-  <si>
-    <t>Responded June 26, 2015</t>
-  </si>
-  <si>
     <t>Although I have beloved family in Denver, I needed a couple of days on my road trip to regroup and visit some friends on the south side of town.I'm a Hilton HHonors Diamond member, but I think Holiday Inn has my business from here on out. This property in particular is gorgeous. It's brand new. I checked in and my friend, who's an interior designer, asked me to take pictures of the lobby for her. The room is equally beautiful. Plus, the workout room has REAL equipment and it all works!The staff is really great, too. Bernadette, the breakfast attendant, was constantly cleaning. I was just going to have coffee, but the breakfast items were pretty enticing. I never see greek yogurt at the Hampton Inn. So, sorry, Hampton, it's Holiday Inn for me from now on.I thought about checking out a day early to be with the family, but they're going to have to wait. This place (which is across the street from the outlet mall) is too good to leave.More</t>
   </si>
   <si>
@@ -1488,9 +2349,6 @@
     <t>This is a new Holiday Inn Express, a very nice property.  The staff here is terrific, I did not get names but the young man who is the Operations Manager, the young lady who checked us in, and everyone else on the front desk were helpful, polite, friendly and professional.  A good breakfast selection with terrific staff too.  I highly recommend this Holiday Inn Express.MoreShow less</t>
   </si>
   <si>
-    <t>May 2015</t>
-  </si>
-  <si>
     <t>Jackie L, General Manager at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded June 8, 2015</t>
   </si>
   <si>
@@ -1500,6 +2358,54 @@
     <t>This is a new Holiday Inn Express, a very nice property.  The staff here is terrific, I did not get names but the young man who is the Operations Manager, the young lady who checked us in, and everyone else on the front desk were helpful, polite, friendly and professional.  A good breakfast selection with terrific staff too.  I highly recommend this Holiday Inn Express.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r274636673-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>274636673</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>The best</t>
+  </si>
+  <si>
+    <t>I travel about 1 week a month for work and this is the best Holiday Inn Express I have stayed at. Brand new hotel, nice location and very clean, great staff. I will stay here again when I am in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jackie L, General Manager at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded May 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 27, 2015</t>
+  </si>
+  <si>
+    <t>I travel about 1 week a month for work and this is the best Holiday Inn Express I have stayed at. Brand new hotel, nice location and very clean, great staff. I will stay here again when I am in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r274267635-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>274267635</t>
+  </si>
+  <si>
+    <t>05/24/2015</t>
+  </si>
+  <si>
+    <t>Superior hotel and excellent customer care</t>
+  </si>
+  <si>
+    <t>This is a brand new hotel with excellent accommodations and superior service. We checked in and needed a room with two queen beds and were upgraded to a spacious double queen suite. The entire hotel was superior and so was the staff. The location is great with many attractions near by including an AMC theater and shopping galore. I would recommend this hotel to anyone traveling to this area......Oh they have great meeting room space too and a wonderful indoor swimming pool and hot tub.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jackie L, General Manager at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded May 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 26, 2015</t>
+  </si>
+  <si>
+    <t>This is a brand new hotel with excellent accommodations and superior service. We checked in and needed a room with two queen beds and were upgraded to a spacious double queen suite. The entire hotel was superior and so was the staff. The location is great with many attractions near by including an AMC theater and shopping galore. I would recommend this hotel to anyone traveling to this area......Oh they have great meeting room space too and a wonderful indoor swimming pool and hot tub.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r271631215-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
   </si>
   <si>
@@ -1575,6 +2481,51 @@
     <t>I would like to express my continuing appreciation for the staff that always shows exemplary hospitality. Tori and Glenn at the front desk and Jackie and Steve at the management level. It is without question they are the best in the business. Thanks Bunches.Respectfully,PaulMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r268198881-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>268198881</t>
+  </si>
+  <si>
+    <t>04/26/2015</t>
+  </si>
+  <si>
+    <t>Welcome to Castle Rock...</t>
+  </si>
+  <si>
+    <t>A group of us traveled to Castle Rock for a birthday weekend.  A friend recommended the brand new Holiday Inn Express Hotel.  We were very impressed with the lobby, room and pool areas. The staff were friendly and accomodating.  Both Glen and Torry were very helpful in recommending nearby restaurants and shopping.  My wife and I were very happy with the hot breakfast in the morning.  The hostess greeted us each day with a big smile.  We look forward to returning to this hotel soon.MoreShow less</t>
+  </si>
+  <si>
+    <t>A group of us traveled to Castle Rock for a birthday weekend.  A friend recommended the brand new Holiday Inn Express Hotel.  We were very impressed with the lobby, room and pool areas. The staff were friendly and accomodating.  Both Glen and Torry were very helpful in recommending nearby restaurants and shopping.  My wife and I were very happy with the hot breakfast in the morning.  The hostess greeted us each day with a big smile.  We look forward to returning to this hotel soon.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r260461202-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>260461202</t>
+  </si>
+  <si>
+    <t>03/18/2015</t>
+  </si>
+  <si>
+    <t>Best staff, great hotel</t>
+  </si>
+  <si>
+    <t>Definitely will be returning to this holiday inn. Love the people, love the food, love the ambiance, and love the brand!!! No matter where I travel, I choose IHG priority, this hotel tops the ranks in all my travels! Platinum IHG rewards member treatment to the "t"MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Jackie L, General Manager at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded March 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 19, 2015</t>
+  </si>
+  <si>
+    <t>Definitely will be returning to this holiday inn. Love the people, love the food, love the ambiance, and love the brand!!! No matter where I travel, I choose IHG priority, this hotel tops the ranks in all my travels! Platinum IHG rewards member treatment to the "t"More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r259763456-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
   </si>
   <si>
@@ -1590,9 +2541,6 @@
     <t>I had to spend two weeks in Castle Rock for work.  I stayed the first week at the Best Western Plus (across the cul-de-sac from this hotel).  On a tip from a colleague, I stayed at this newly opened hotel the second week.I think it is the nicest hotel of its class in which I have ever stayed.  That it is minty fresh new certainly helps.  But it is more than that.  Very tasteful and relaxing choices throughout.  The beds are comfortable, the lighting excellent and it has a walk in shower with sliding glass door (I hate those hotel bathtub combinations). It has a great fitness center full of Precor machines, free and fast wi-fi, nice business alcove in the lobby with computers and printers and pretty good coffee with a decent breakfast choice.It was a terrific surprise.  The staff was wonderfully friendly and helpful (particularly Torie (?) and the manager who sent us to a nearby restaurant for a great burger!).All in all, a wonderful stay.  It is unquestionably the nicest place to stay in the area.MoreShow less</t>
   </si>
   <si>
-    <t>March 2015</t>
-  </si>
-  <si>
     <t>Jackie L, General Manager at Holiday Inn Express and Suites Castle Rock, responded to this reviewResponded March 17, 2015</t>
   </si>
   <si>
@@ -1645,6 +2593,24 @@
   </si>
   <si>
     <t>I had the pleasure of staying in this hotel on my first business trip to Colorado. The hotel had only been open about a month. I have been traveling for business for the past 8 years and the customer service was unlike any I have experienced in a long time. Steven and Jackie (GM) were top notch. They acknowledged me, by name every time they saw me. The front desk staff were friendly and acommodating. Any questions or concerns I had were promptly answered and addressed. The housekeeping staff were just as friendly. I had an opportunity to chat with one young lady as she came to service my room. She left me the sweetest note of appreciation the day before I left. Every morning I had a delicious breakfast, with fresh bagels and fruit. I don't eat pork or beef and was pleasantly surprised that they served turkey sausage! The staff serving breakfast came out every morning to greet me and offered to refill my tea and to provide me with any additional good items I wanted. One young lady always brought a small bag over with an extra piece of fruit and my favorite muffin for me to take as a snack for the day. The hotel was clean and stylish. The gym and indoor pool and sauna were nice amenities that I had the pleasure of using.  I was there for 9 days and when I left,...I had the pleasure of staying in this hotel on my first business trip to Colorado. The hotel had only been open about a month. I have been traveling for business for the past 8 years and the customer service was unlike any I have experienced in a long time. Steven and Jackie (GM) were top notch. They acknowledged me, by name every time they saw me. The front desk staff were friendly and acommodating. Any questions or concerns I had were promptly answered and addressed. The housekeeping staff were just as friendly. I had an opportunity to chat with one young lady as she came to service my room. She left me the sweetest note of appreciation the day before I left. Every morning I had a delicious breakfast, with fresh bagels and fruit. I don't eat pork or beef and was pleasantly surprised that they served turkey sausage! The staff serving breakfast came out every morning to greet me and offered to refill my tea and to provide me with any additional good items I wanted. One young lady always brought a small bag over with an extra piece of fruit and my favorite muffin for me to take as a snack for the day. The hotel was clean and stylish. The gym and indoor pool and sauna were nice amenities that I had the pleasure of using.  I was there for 9 days and when I left, I felt like I was leaving from a visit with family. I highly recommend this hotel when visiting the Castle Rock area. It is worth the visit!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33345-d7184997-r257194499-Holiday_Inn_Express_and_Suites_Castle_Rock-Castle_Rock_Colorado.html</t>
+  </si>
+  <si>
+    <t>257194499</t>
+  </si>
+  <si>
+    <t>03/01/2015</t>
+  </si>
+  <si>
+    <t>Excellent! Nicest hotel around!</t>
+  </si>
+  <si>
+    <t>Just what the title says! This is, indeed, the nicest hotel in Castle Rock. This is a brand new hotel, opened mid-January 2015. Easy parking, very nice lobby, great strong wifi signal, excellent staff, and wonderful rooms! There is an indoor pool! Great in Colorado in the winter months! Plenty of eating places nearby. MoreShow less</t>
+  </si>
+  <si>
+    <t>Just what the title says! This is, indeed, the nicest hotel in Castle Rock. This is a brand new hotel, opened mid-January 2015. Easy parking, very nice lobby, great strong wifi signal, excellent staff, and wonderful rooms! There is an indoor pool! Great in Colorado in the winter months! Plenty of eating places nearby. More</t>
   </si>
 </sst>
 </file>
@@ -2187,12 +3153,18 @@
       <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -2246,7 +3218,7 @@
         <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2258,13 +3230,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="X3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -2280,7 +3252,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -2289,43 +3261,47 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="O4" t="s">
-        <v>63</v>
-      </c>
-      <c r="P4" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -2341,7 +3317,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -2350,43 +3326,39 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="L5" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
-      <c r="N5" t="s">
-        <v>76</v>
-      </c>
-      <c r="O5" t="s">
-        <v>63</v>
-      </c>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
-      <c r="R5" t="n">
-        <v>5</v>
-      </c>
+      <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>5</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
+      <c r="W5" t="s">
+        <v>81</v>
+      </c>
+      <c r="X5" t="s">
+        <v>82</v>
+      </c>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
@@ -2402,7 +3374,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -2411,47 +3383,39 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="L6" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="O6" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
-      <c r="S6" t="n">
-        <v>5</v>
-      </c>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>83</v>
-      </c>
-      <c r="X6" t="s">
-        <v>84</v>
-      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
@@ -2467,7 +3431,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -2476,25 +3440,25 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="O7" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2505,10 +3469,14 @@
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
+      <c r="W7" t="s">
+        <v>63</v>
+      </c>
+      <c r="X7" t="s">
+        <v>64</v>
+      </c>
       <c r="Y7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
@@ -2524,7 +3492,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -2533,47 +3501,43 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="J8" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="K8" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="L8" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="O8" t="s">
-        <v>97</v>
-      </c>
-      <c r="P8" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>5</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="X8" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="Y8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9">
@@ -2589,7 +3553,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -2598,34 +3562,34 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O9" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
       </c>
       <c r="Q9" t="s"/>
-      <c r="R9" t="n">
-        <v>5</v>
-      </c>
-      <c r="S9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
         <v>5</v>
@@ -2634,13 +3598,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="X9" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="Y9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10">
@@ -2656,7 +3620,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -2665,25 +3629,25 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O10" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2694,14 +3658,10 @@
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s">
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
         <v>113</v>
-      </c>
-      <c r="X10" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="11">
@@ -2717,52 +3677,48 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>115</v>
+      </c>
+      <c r="J11" t="s">
         <v>116</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
         <v>117</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>118</v>
       </c>
-      <c r="K11" t="s">
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
         <v>119</v>
       </c>
-      <c r="L11" t="s">
+      <c r="O11" t="s">
         <v>120</v>
       </c>
-      <c r="M11" t="n">
-        <v>4</v>
-      </c>
-      <c r="N11" t="s">
-        <v>121</v>
-      </c>
-      <c r="O11" t="s">
-        <v>97</v>
-      </c>
-      <c r="P11" t="n">
-        <v>4</v>
-      </c>
+      <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>4</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12">
@@ -2778,52 +3734,52 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
         <v>122</v>
       </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>123</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>124</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>125</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
         <v>126</v>
       </c>
-      <c r="M12" t="n">
-        <v>4</v>
-      </c>
-      <c r="N12" t="s">
-        <v>121</v>
-      </c>
       <c r="O12" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s">
-        <v>127</v>
-      </c>
-      <c r="X12" t="s">
-        <v>128</v>
-      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13">
@@ -2839,46 +3795,54 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>128</v>
+      </c>
+      <c r="J13" t="s">
+        <v>129</v>
+      </c>
+      <c r="K13" t="s">
         <v>130</v>
       </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="L13" t="s">
         <v>131</v>
       </c>
-      <c r="J13" t="s">
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
         <v>132</v>
       </c>
-      <c r="K13" t="s">
-        <v>133</v>
-      </c>
-      <c r="L13" t="s">
-        <v>134</v>
-      </c>
-      <c r="M13" t="n">
-        <v>5</v>
-      </c>
-      <c r="N13" t="s">
-        <v>121</v>
-      </c>
       <c r="O13" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
-      <c r="S13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
+      <c r="W13" t="s">
+        <v>133</v>
+      </c>
+      <c r="X13" t="s">
+        <v>134</v>
+      </c>
       <c r="Y13" t="s">
         <v>135</v>
       </c>
@@ -2920,21 +3884,17 @@
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="O14" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
-      <c r="S14" t="n">
-        <v>5</v>
-      </c>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>5</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
@@ -2957,54 +3917,52 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
+        <v>141</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
         <v>142</v>
       </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>143</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>144</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>145</v>
       </c>
-      <c r="L15" t="s">
-        <v>146</v>
-      </c>
       <c r="M15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="O15" t="s">
-        <v>97</v>
-      </c>
-      <c r="P15" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>5</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>5</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>146</v>
+      </c>
+      <c r="X15" t="s">
+        <v>147</v>
+      </c>
       <c r="Y15" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16">
@@ -3020,7 +3978,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -3029,25 +3987,25 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J16" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="O16" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3058,10 +4016,14 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>146</v>
+      </c>
+      <c r="X16" t="s">
+        <v>147</v>
+      </c>
       <c r="Y16" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17">
@@ -3077,7 +4039,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -3086,25 +4048,25 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
+        <v>157</v>
+      </c>
+      <c r="J17" t="s">
+        <v>158</v>
+      </c>
+      <c r="K17" t="s">
+        <v>159</v>
+      </c>
+      <c r="L17" t="s">
+        <v>160</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
         <v>154</v>
       </c>
-      <c r="J17" t="s">
-        <v>155</v>
-      </c>
-      <c r="K17" t="s">
-        <v>156</v>
-      </c>
-      <c r="L17" t="s">
-        <v>157</v>
-      </c>
-      <c r="M17" t="n">
-        <v>5</v>
-      </c>
-      <c r="N17" t="s">
-        <v>141</v>
-      </c>
       <c r="O17" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -3119,10 +4081,14 @@
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
+      <c r="W17" t="s">
+        <v>161</v>
+      </c>
+      <c r="X17" t="s">
+        <v>162</v>
+      </c>
       <c r="Y17" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18">
@@ -3138,7 +4104,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -3147,31 +4113,33 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="J18" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="K18" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="L18" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="O18" t="s">
-        <v>63</v>
-      </c>
-      <c r="P18" t="s"/>
-      <c r="Q18" t="n">
-        <v>5</v>
-      </c>
-      <c r="R18" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
@@ -3180,10 +4148,14 @@
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s"/>
-      <c r="X18" t="s"/>
+      <c r="W18" t="s">
+        <v>161</v>
+      </c>
+      <c r="X18" t="s">
+        <v>162</v>
+      </c>
       <c r="Y18" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19">
@@ -3199,7 +4171,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -3208,25 +4180,25 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="J19" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="K19" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="L19" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O19" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3238,13 +4210,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="X19" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="Y19" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20">
@@ -3260,7 +4232,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -3269,49 +4241,39 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="J20" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="K20" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="L20" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="O20" t="s">
-        <v>178</v>
+        <v>53</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
-      <c r="R20" t="n">
-        <v>4</v>
-      </c>
-      <c r="S20" t="n">
-        <v>5</v>
-      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>5</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s">
-        <v>179</v>
-      </c>
-      <c r="X20" t="s">
-        <v>180</v>
-      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21">
@@ -3327,7 +4289,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -3336,47 +4298,39 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="J21" t="s">
+        <v>187</v>
+      </c>
+      <c r="K21" t="s">
+        <v>188</v>
+      </c>
+      <c r="L21" t="s">
+        <v>189</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
         <v>184</v>
       </c>
-      <c r="K21" t="s">
-        <v>185</v>
-      </c>
-      <c r="L21" t="s">
-        <v>186</v>
-      </c>
-      <c r="M21" t="n">
-        <v>5</v>
-      </c>
-      <c r="N21" t="s">
-        <v>187</v>
-      </c>
       <c r="O21" t="s">
-        <v>178</v>
+        <v>94</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
-      <c r="S21" t="n">
-        <v>5</v>
-      </c>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>5</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s">
-        <v>188</v>
-      </c>
-      <c r="X21" t="s">
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
         <v>189</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="22">
@@ -3392,22 +4346,22 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
+        <v>190</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
         <v>191</v>
       </c>
-      <c r="G22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>192</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>193</v>
-      </c>
-      <c r="K22" t="s">
-        <v>12</v>
       </c>
       <c r="L22" t="s">
         <v>194</v>
@@ -3419,25 +4373,25 @@
         <v>195</v>
       </c>
       <c r="O22" t="s">
-        <v>178</v>
-      </c>
-      <c r="P22" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
       <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s">
-        <v>196</v>
-      </c>
-      <c r="X22" t="s">
-        <v>197</v>
-      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23">
@@ -3453,34 +4407,34 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
+        <v>196</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>197</v>
+      </c>
+      <c r="J23" t="s">
+        <v>198</v>
+      </c>
+      <c r="K23" t="s">
         <v>199</v>
       </c>
-      <c r="G23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="L23" t="s">
         <v>200</v>
       </c>
-      <c r="J23" t="s">
-        <v>201</v>
-      </c>
-      <c r="K23" t="s">
-        <v>202</v>
-      </c>
-      <c r="L23" t="s">
-        <v>203</v>
-      </c>
       <c r="M23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="O23" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3492,13 +4446,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="X23" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Y23" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24">
@@ -3514,58 +4468,48 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
+        <v>204</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>205</v>
+      </c>
+      <c r="J24" t="s">
+        <v>206</v>
+      </c>
+      <c r="K24" t="s">
+        <v>207</v>
+      </c>
+      <c r="L24" t="s">
         <v>208</v>
       </c>
-      <c r="G24" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" t="s">
-        <v>209</v>
-      </c>
-      <c r="J24" t="s">
-        <v>210</v>
-      </c>
-      <c r="K24" t="s">
-        <v>211</v>
-      </c>
-      <c r="L24" t="s">
-        <v>212</v>
-      </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="O24" t="s">
-        <v>63</v>
-      </c>
-      <c r="P24" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
-      <c r="S24" t="n">
-        <v>5</v>
-      </c>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>5</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s">
-        <v>214</v>
-      </c>
-      <c r="X24" t="s">
-        <v>215</v>
-      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25">
@@ -3581,7 +4525,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3590,25 +4534,25 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="J25" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="K25" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="L25" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3620,13 +4564,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>222</v>
+        <v>161</v>
       </c>
       <c r="X25" t="s">
-        <v>223</v>
+        <v>162</v>
       </c>
       <c r="Y25" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26">
@@ -3642,7 +4586,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3651,22 +4595,26 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="J26" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="K26" t="s">
+        <v>219</v>
+      </c>
+      <c r="L26" t="s">
+        <v>220</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>195</v>
+      </c>
+      <c r="O26" t="s">
         <v>94</v>
       </c>
-      <c r="L26" t="s">
-        <v>228</v>
-      </c>
-      <c r="M26" t="n">
-        <v>5</v>
-      </c>
-      <c r="N26" t="s"/>
-      <c r="O26" t="s"/>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
       <c r="R26" t="s"/>
@@ -3677,13 +4625,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="X26" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="Y26" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27">
@@ -3699,7 +4647,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3708,43 +4656,43 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="J27" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="K27" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="L27" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="O27" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
       <c r="R27" t="s"/>
-      <c r="S27" t="s"/>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
       <c r="T27" t="s"/>
-      <c r="U27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s">
-        <v>229</v>
-      </c>
-      <c r="X27" t="s">
-        <v>230</v>
-      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="28">
@@ -3760,7 +4708,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3769,34 +4717,34 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="J28" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="K28" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="L28" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="O28" t="s">
-        <v>63</v>
-      </c>
-      <c r="P28" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
       <c r="Q28" t="n">
         <v>5</v>
       </c>
       <c r="R28" t="s"/>
-      <c r="S28" t="n">
-        <v>5</v>
-      </c>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
         <v>5</v>
@@ -3804,14 +4752,10 @@
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s">
-        <v>244</v>
-      </c>
-      <c r="X28" t="s">
-        <v>245</v>
-      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29">
@@ -3827,7 +4771,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3836,49 +4780,39 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="J29" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="K29" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="L29" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="M29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="O29" t="s">
-        <v>178</v>
+        <v>53</v>
       </c>
       <c r="P29" t="s"/>
-      <c r="Q29" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q29" t="s"/>
       <c r="R29" t="s"/>
-      <c r="S29" t="n">
-        <v>5</v>
-      </c>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>5</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s">
-        <v>253</v>
-      </c>
-      <c r="X29" t="s">
-        <v>254</v>
-      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30">
@@ -3894,7 +4828,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3903,27 +4837,29 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="J30" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="K30" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="L30" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="O30" t="s">
-        <v>178</v>
-      </c>
-      <c r="P30" t="s"/>
+        <v>120</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
       <c r="Q30" t="n">
         <v>5</v>
       </c>
@@ -3937,13 +4873,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="X30" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="Y30" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
     </row>
     <row r="31">
@@ -3959,7 +4895,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3968,30 +4904,30 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="J31" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="K31" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="L31" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>269</v>
+        <v>229</v>
       </c>
       <c r="O31" t="s">
-        <v>97</v>
-      </c>
-      <c r="P31" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q31" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
       <c r="R31" t="s"/>
       <c r="S31" t="s"/>
       <c r="T31" t="s"/>
@@ -4001,14 +4937,10 @@
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s">
-        <v>270</v>
-      </c>
-      <c r="X31" t="s">
-        <v>271</v>
-      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
     </row>
     <row r="32">
@@ -4024,7 +4956,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -4033,49 +4965,43 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="J32" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="K32" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="L32" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="M32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="O32" t="s">
-        <v>278</v>
+        <v>53</v>
       </c>
       <c r="P32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q32" t="s"/>
-      <c r="R32" t="n">
-        <v>4</v>
-      </c>
+      <c r="R32" t="s"/>
       <c r="S32" t="s"/>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s">
-        <v>270</v>
-      </c>
-      <c r="X32" t="s">
-        <v>271</v>
-      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
     </row>
     <row r="33">
@@ -4091,7 +5017,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -4100,43 +5026,43 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="J33" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="K33" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="L33" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="M33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="O33" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P33" t="s"/>
-      <c r="Q33" t="s"/>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
       <c r="R33" t="s"/>
       <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s">
-        <v>270</v>
-      </c>
-      <c r="X33" t="s">
-        <v>271</v>
-      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
     </row>
     <row r="34">
@@ -4152,7 +5078,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -4161,25 +5087,25 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="J34" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="K34" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="L34" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="M34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N34" t="s">
         <v>269</v>
       </c>
       <c r="O34" t="s">
-        <v>278</v>
+        <v>53</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4191,13 +5117,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="X34" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="Y34" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
     </row>
     <row r="35">
@@ -4213,7 +5139,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -4222,43 +5148,49 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="J35" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="K35" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="L35" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>269</v>
+      </c>
+      <c r="O35" t="s">
+        <v>120</v>
+      </c>
+      <c r="P35" t="n">
         <v>4</v>
       </c>
-      <c r="N35" t="s">
-        <v>299</v>
-      </c>
-      <c r="O35" t="s">
-        <v>63</v>
-      </c>
-      <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
-      <c r="R35" t="s"/>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
       <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="X35" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="Y35" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
     </row>
     <row r="36">
@@ -4274,7 +5206,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -4283,43 +5215,49 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="J36" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="K36" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="L36" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="O36" t="s">
-        <v>63</v>
-      </c>
-      <c r="P36" t="s"/>
-      <c r="Q36" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
       <c r="R36" t="s"/>
       <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="X36" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="Y36" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
     </row>
     <row r="37">
@@ -4335,7 +5273,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -4344,43 +5282,49 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="J37" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="K37" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="L37" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="O37" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
-      <c r="R37" t="s"/>
-      <c r="S37" t="s"/>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
       <c r="T37" t="s"/>
-      <c r="U37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="X37" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="Y37" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
     </row>
     <row r="38">
@@ -4396,7 +5340,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4405,43 +5349,47 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="J38" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="K38" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="L38" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="O38" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
       <c r="R38" t="s"/>
-      <c r="S38" t="s"/>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
       <c r="T38" t="s"/>
-      <c r="U38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
       <c r="X38" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="Y38" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
     </row>
     <row r="39">
@@ -4457,7 +5405,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4466,25 +5414,25 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="J39" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="K39" t="s">
-        <v>332</v>
+        <v>12</v>
       </c>
       <c r="L39" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="M39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="O39" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4496,13 +5444,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="X39" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="Y39" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
     </row>
     <row r="40">
@@ -4518,7 +5466,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4527,47 +5475,39 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="J40" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="K40" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="L40" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="M40" t="n">
-        <v>5</v>
-      </c>
-      <c r="N40" t="s">
-        <v>343</v>
-      </c>
-      <c r="O40" t="s">
-        <v>63</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
-      <c r="R40" t="n">
-        <v>5</v>
-      </c>
+      <c r="R40" t="s"/>
       <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="n">
-        <v>5</v>
-      </c>
+      <c r="U40" t="s"/>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
       <c r="X40" t="s">
-        <v>345</v>
+        <v>322</v>
       </c>
       <c r="Y40" t="s">
-        <v>346</v>
+        <v>323</v>
       </c>
     </row>
     <row r="41">
@@ -4583,7 +5523,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>347</v>
+        <v>324</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4592,43 +5532,47 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="J41" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="K41" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="L41" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
       <c r="M41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="O41" t="s">
-        <v>178</v>
-      </c>
-      <c r="P41" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
       <c r="Q41" t="s"/>
       <c r="R41" t="s"/>
       <c r="S41" t="s"/>
       <c r="T41" t="s"/>
-      <c r="U41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="X41" t="s">
-        <v>353</v>
+        <v>331</v>
       </c>
       <c r="Y41" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
     </row>
     <row r="42">
@@ -4644,7 +5588,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4653,22 +5597,26 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>356</v>
+        <v>334</v>
       </c>
       <c r="J42" t="s">
-        <v>357</v>
+        <v>335</v>
       </c>
       <c r="K42" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="L42" t="s">
-        <v>359</v>
+        <v>337</v>
       </c>
       <c r="M42" t="n">
-        <v>4</v>
-      </c>
-      <c r="N42" t="s"/>
-      <c r="O42" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>329</v>
+      </c>
+      <c r="O42" t="s">
+        <v>72</v>
+      </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
       <c r="R42" t="s"/>
@@ -4679,13 +5627,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="X42" t="s">
-        <v>361</v>
+        <v>339</v>
       </c>
       <c r="Y42" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
     </row>
     <row r="43">
@@ -4701,7 +5649,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4710,30 +5658,30 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="J43" t="s">
-        <v>365</v>
+        <v>343</v>
       </c>
       <c r="K43" t="s">
-        <v>366</v>
+        <v>344</v>
       </c>
       <c r="L43" t="s">
-        <v>367</v>
+        <v>345</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>368</v>
+        <v>346</v>
       </c>
       <c r="O43" t="s">
         <v>53</v>
       </c>
-      <c r="P43" t="s"/>
-      <c r="Q43" t="n">
-        <v>5</v>
-      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="s"/>
       <c r="R43" t="s"/>
       <c r="S43" t="n">
         <v>5</v>
@@ -4746,13 +5694,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
       <c r="X43" t="s">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="Y43" t="s">
-        <v>371</v>
+        <v>349</v>
       </c>
     </row>
     <row r="44">
@@ -4768,7 +5716,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4777,47 +5725,43 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>373</v>
+        <v>351</v>
       </c>
       <c r="J44" t="s">
-        <v>374</v>
+        <v>352</v>
       </c>
       <c r="K44" t="s">
-        <v>375</v>
+        <v>353</v>
       </c>
       <c r="L44" t="s">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>377</v>
+        <v>346</v>
       </c>
       <c r="O44" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="P44" t="s"/>
-      <c r="Q44" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q44" t="s"/>
       <c r="R44" t="s"/>
       <c r="S44" t="s"/>
       <c r="T44" t="s"/>
-      <c r="U44" t="n">
-        <v>5</v>
-      </c>
+      <c r="U44" t="s"/>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>378</v>
+        <v>355</v>
       </c>
       <c r="X44" t="s">
-        <v>379</v>
+        <v>356</v>
       </c>
       <c r="Y44" t="s">
-        <v>380</v>
+        <v>357</v>
       </c>
     </row>
     <row r="45">
@@ -4833,7 +5777,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>381</v>
+        <v>358</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4842,32 +5786,32 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>382</v>
+        <v>359</v>
       </c>
       <c r="J45" t="s">
-        <v>383</v>
+        <v>360</v>
       </c>
       <c r="K45" t="s">
-        <v>384</v>
+        <v>361</v>
       </c>
       <c r="L45" t="s">
-        <v>385</v>
+        <v>362</v>
       </c>
       <c r="M45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>386</v>
+        <v>346</v>
       </c>
       <c r="O45" t="s">
-        <v>63</v>
-      </c>
-      <c r="P45" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
       <c r="R45" t="s"/>
-      <c r="S45" t="s"/>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
         <v>5</v>
@@ -4876,13 +5820,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
       <c r="X45" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="Y45" t="s">
-        <v>389</v>
+        <v>365</v>
       </c>
     </row>
     <row r="46">
@@ -4898,7 +5842,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4907,32 +5851,34 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>391</v>
+        <v>367</v>
       </c>
       <c r="J46" t="s">
-        <v>383</v>
+        <v>360</v>
       </c>
       <c r="K46" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="L46" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="M46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="O46" t="s">
-        <v>63</v>
-      </c>
-      <c r="P46" t="n">
-        <v>5</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
-      <c r="R46" t="s"/>
-      <c r="S46" t="s"/>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
         <v>5</v>
@@ -4941,13 +5887,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
       <c r="X46" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="Y46" t="s">
-        <v>394</v>
+        <v>371</v>
       </c>
     </row>
     <row r="47">
@@ -4963,7 +5909,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -4972,47 +5918,39 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>396</v>
+        <v>373</v>
       </c>
       <c r="J47" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
       <c r="K47" t="s">
-        <v>398</v>
+        <v>159</v>
       </c>
       <c r="L47" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
-      <c r="N47" t="s">
-        <v>400</v>
-      </c>
-      <c r="O47" t="s">
-        <v>63</v>
-      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
       <c r="R47" t="s"/>
-      <c r="S47" t="n">
-        <v>5</v>
-      </c>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
-      <c r="U47" t="n">
-        <v>5</v>
-      </c>
+      <c r="U47" t="s"/>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>401</v>
+        <v>376</v>
       </c>
       <c r="X47" t="s">
-        <v>402</v>
+        <v>377</v>
       </c>
       <c r="Y47" t="s">
-        <v>403</v>
+        <v>378</v>
       </c>
     </row>
     <row r="48">
@@ -5028,7 +5966,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>404</v>
+        <v>379</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -5037,49 +5975,43 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>405</v>
+        <v>380</v>
       </c>
       <c r="J48" t="s">
-        <v>406</v>
+        <v>381</v>
       </c>
       <c r="K48" t="s">
-        <v>407</v>
+        <v>382</v>
       </c>
       <c r="L48" t="s">
-        <v>408</v>
+        <v>383</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>409</v>
+        <v>346</v>
       </c>
       <c r="O48" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="P48" t="s"/>
-      <c r="Q48" t="n">
-        <v>5</v>
-      </c>
-      <c r="R48" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
       <c r="S48" t="s"/>
       <c r="T48" t="s"/>
-      <c r="U48" t="n">
-        <v>5</v>
-      </c>
+      <c r="U48" t="s"/>
       <c r="V48" t="n">
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="X48" t="s">
-        <v>411</v>
+        <v>377</v>
       </c>
       <c r="Y48" t="s">
-        <v>412</v>
+        <v>384</v>
       </c>
     </row>
     <row r="49">
@@ -5095,7 +6027,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>413</v>
+        <v>385</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -5104,29 +6036,29 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>414</v>
+        <v>386</v>
       </c>
       <c r="J49" t="s">
-        <v>415</v>
+        <v>387</v>
       </c>
       <c r="K49" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="L49" t="s">
-        <v>417</v>
+        <v>389</v>
       </c>
       <c r="M49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>400</v>
+        <v>370</v>
       </c>
       <c r="O49" t="s">
-        <v>278</v>
+        <v>53</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R49" t="s"/>
       <c r="S49" t="n">
@@ -5140,13 +6072,13 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>418</v>
+        <v>390</v>
       </c>
       <c r="X49" t="s">
-        <v>419</v>
+        <v>391</v>
       </c>
       <c r="Y49" t="s">
-        <v>420</v>
+        <v>392</v>
       </c>
     </row>
     <row r="50">
@@ -5162,7 +6094,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>421</v>
+        <v>393</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -5171,25 +6103,25 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>422</v>
+        <v>394</v>
       </c>
       <c r="J50" t="s">
-        <v>423</v>
+        <v>395</v>
       </c>
       <c r="K50" t="s">
-        <v>424</v>
+        <v>396</v>
       </c>
       <c r="L50" t="s">
-        <v>425</v>
+        <v>397</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="O50" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -5201,13 +6133,13 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>426</v>
+        <v>399</v>
       </c>
       <c r="X50" t="s">
-        <v>427</v>
+        <v>400</v>
       </c>
       <c r="Y50" t="s">
-        <v>428</v>
+        <v>401</v>
       </c>
     </row>
     <row r="51">
@@ -5223,7 +6155,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>429</v>
+        <v>402</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -5232,49 +6164,43 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>430</v>
+        <v>403</v>
       </c>
       <c r="J51" t="s">
-        <v>431</v>
+        <v>404</v>
       </c>
       <c r="K51" t="s">
-        <v>432</v>
+        <v>405</v>
       </c>
       <c r="L51" t="s">
-        <v>433</v>
+        <v>406</v>
       </c>
       <c r="M51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>409</v>
+        <v>370</v>
       </c>
       <c r="O51" t="s">
-        <v>63</v>
-      </c>
-      <c r="P51" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>3</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
       <c r="R51" t="s"/>
       <c r="S51" t="s"/>
       <c r="T51" t="s"/>
-      <c r="U51" t="n">
-        <v>3</v>
-      </c>
+      <c r="U51" t="s"/>
       <c r="V51" t="n">
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>434</v>
+        <v>407</v>
       </c>
       <c r="X51" t="s">
-        <v>435</v>
+        <v>408</v>
       </c>
       <c r="Y51" t="s">
-        <v>436</v>
+        <v>409</v>
       </c>
     </row>
     <row r="52">
@@ -5290,7 +6216,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>437</v>
+        <v>410</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -5299,32 +6225,34 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="J52" t="s">
-        <v>439</v>
+        <v>412</v>
       </c>
       <c r="K52" t="s">
-        <v>440</v>
+        <v>413</v>
       </c>
       <c r="L52" t="s">
-        <v>441</v>
+        <v>414</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="O52" t="s">
-        <v>178</v>
+        <v>120</v>
       </c>
       <c r="P52" t="s"/>
-      <c r="Q52" t="s"/>
-      <c r="R52" t="n">
-        <v>5</v>
-      </c>
-      <c r="S52" t="s"/>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="s"/>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
         <v>5</v>
@@ -5333,13 +6261,13 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>442</v>
+        <v>407</v>
       </c>
       <c r="X52" t="s">
-        <v>443</v>
+        <v>408</v>
       </c>
       <c r="Y52" t="s">
-        <v>444</v>
+        <v>416</v>
       </c>
     </row>
     <row r="53">
@@ -5355,7 +6283,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>445</v>
+        <v>417</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -5364,33 +6292,31 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="J53" t="s">
-        <v>447</v>
+        <v>419</v>
       </c>
       <c r="K53" t="s">
-        <v>448</v>
+        <v>420</v>
       </c>
       <c r="L53" t="s">
-        <v>449</v>
+        <v>421</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="O53" t="s">
-        <v>63</v>
-      </c>
-      <c r="P53" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q53" t="s"/>
-      <c r="R53" t="n">
-        <v>5</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="s"/>
       <c r="S53" t="s"/>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
@@ -5400,13 +6326,13 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>450</v>
+        <v>422</v>
       </c>
       <c r="X53" t="s">
-        <v>451</v>
+        <v>423</v>
       </c>
       <c r="Y53" t="s">
-        <v>452</v>
+        <v>424</v>
       </c>
     </row>
     <row r="54">
@@ -5422,7 +6348,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -5431,39 +6357,47 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="J54" t="s">
-        <v>455</v>
+        <v>427</v>
       </c>
       <c r="K54" t="s">
-        <v>456</v>
+        <v>428</v>
       </c>
       <c r="L54" t="s">
-        <v>457</v>
+        <v>429</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
-      <c r="N54" t="s"/>
-      <c r="O54" t="s"/>
-      <c r="P54" t="s"/>
+      <c r="N54" t="s">
+        <v>430</v>
+      </c>
+      <c r="O54" t="s">
+        <v>72</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
       <c r="Q54" t="s"/>
       <c r="R54" t="s"/>
       <c r="S54" t="s"/>
       <c r="T54" t="s"/>
-      <c r="U54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
       <c r="V54" t="n">
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>458</v>
+        <v>431</v>
       </c>
       <c r="X54" t="s">
-        <v>459</v>
+        <v>432</v>
       </c>
       <c r="Y54" t="s">
-        <v>460</v>
+        <v>433</v>
       </c>
     </row>
     <row r="55">
@@ -5479,7 +6413,7 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>461</v>
+        <v>434</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5488,49 +6422,49 @@
         <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>462</v>
+        <v>435</v>
       </c>
       <c r="J55" t="s">
-        <v>463</v>
+        <v>436</v>
       </c>
       <c r="K55" t="s">
-        <v>464</v>
+        <v>437</v>
       </c>
       <c r="L55" t="s">
-        <v>465</v>
+        <v>438</v>
       </c>
       <c r="M55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>377</v>
+        <v>415</v>
       </c>
       <c r="O55" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="P55" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q55" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
       <c r="R55" t="s"/>
-      <c r="S55" t="n">
-        <v>5</v>
-      </c>
+      <c r="S55" t="s"/>
       <c r="T55" t="s"/>
       <c r="U55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V55" t="n">
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>466</v>
+        <v>431</v>
       </c>
       <c r="X55" t="s">
-        <v>467</v>
+        <v>432</v>
       </c>
       <c r="Y55" t="s">
-        <v>468</v>
+        <v>439</v>
       </c>
     </row>
     <row r="56">
@@ -5546,7 +6480,7 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>469</v>
+        <v>440</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -5555,47 +6489,43 @@
         <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>470</v>
+        <v>441</v>
       </c>
       <c r="J56" t="s">
-        <v>471</v>
+        <v>442</v>
       </c>
       <c r="K56" t="s">
-        <v>472</v>
+        <v>443</v>
       </c>
       <c r="L56" t="s">
-        <v>473</v>
+        <v>444</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>377</v>
+        <v>415</v>
       </c>
       <c r="O56" t="s">
-        <v>178</v>
+        <v>53</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
-      <c r="R56" t="n">
-        <v>5</v>
-      </c>
+      <c r="R56" t="s"/>
       <c r="S56" t="s"/>
       <c r="T56" t="s"/>
-      <c r="U56" t="n">
-        <v>5</v>
-      </c>
+      <c r="U56" t="s"/>
       <c r="V56" t="n">
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>474</v>
+        <v>431</v>
       </c>
       <c r="X56" t="s">
-        <v>475</v>
+        <v>432</v>
       </c>
       <c r="Y56" t="s">
-        <v>476</v>
+        <v>445</v>
       </c>
     </row>
     <row r="57">
@@ -5611,7 +6541,7 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>477</v>
+        <v>446</v>
       </c>
       <c r="G57" t="s">
         <v>46</v>
@@ -5620,49 +6550,49 @@
         <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>478</v>
+        <v>447</v>
       </c>
       <c r="J57" t="s">
-        <v>479</v>
+        <v>448</v>
       </c>
       <c r="K57" t="s">
-        <v>480</v>
+        <v>449</v>
       </c>
       <c r="L57" t="s">
-        <v>481</v>
+        <v>450</v>
       </c>
       <c r="M57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>377</v>
+        <v>415</v>
       </c>
       <c r="O57" t="s">
-        <v>63</v>
+        <v>451</v>
       </c>
       <c r="P57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q57" t="s"/>
       <c r="R57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S57" t="s"/>
       <c r="T57" t="s"/>
       <c r="U57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>482</v>
+        <v>431</v>
       </c>
       <c r="X57" t="s">
-        <v>483</v>
+        <v>432</v>
       </c>
       <c r="Y57" t="s">
-        <v>484</v>
+        <v>452</v>
       </c>
     </row>
     <row r="58">
@@ -5678,7 +6608,7 @@
         <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>485</v>
+        <v>453</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -5687,47 +6617,43 @@
         <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>486</v>
+        <v>454</v>
       </c>
       <c r="J58" t="s">
-        <v>487</v>
+        <v>455</v>
       </c>
       <c r="K58" t="s">
-        <v>488</v>
+        <v>456</v>
       </c>
       <c r="L58" t="s">
-        <v>489</v>
+        <v>457</v>
       </c>
       <c r="M58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>490</v>
+        <v>415</v>
       </c>
       <c r="O58" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
       <c r="R58" t="s"/>
-      <c r="S58" t="n">
-        <v>5</v>
-      </c>
+      <c r="S58" t="s"/>
       <c r="T58" t="s"/>
-      <c r="U58" t="n">
-        <v>5</v>
-      </c>
+      <c r="U58" t="s"/>
       <c r="V58" t="n">
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>491</v>
+        <v>431</v>
       </c>
       <c r="X58" t="s">
-        <v>492</v>
+        <v>432</v>
       </c>
       <c r="Y58" t="s">
-        <v>493</v>
+        <v>458</v>
       </c>
     </row>
     <row r="59">
@@ -5743,7 +6669,7 @@
         <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>494</v>
+        <v>459</v>
       </c>
       <c r="G59" t="s">
         <v>46</v>
@@ -5752,49 +6678,43 @@
         <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>495</v>
+        <v>460</v>
       </c>
       <c r="J59" t="s">
-        <v>496</v>
+        <v>461</v>
       </c>
       <c r="K59" t="s">
-        <v>497</v>
+        <v>462</v>
       </c>
       <c r="L59" t="s">
-        <v>498</v>
+        <v>463</v>
       </c>
       <c r="M59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N59" t="s">
-        <v>490</v>
+        <v>430</v>
       </c>
       <c r="O59" t="s">
-        <v>97</v>
-      </c>
-      <c r="P59" t="n">
-        <v>5</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="P59" t="s"/>
       <c r="Q59" t="s"/>
-      <c r="R59" t="n">
-        <v>5</v>
-      </c>
+      <c r="R59" t="s"/>
       <c r="S59" t="s"/>
       <c r="T59" t="s"/>
-      <c r="U59" t="n">
-        <v>5</v>
-      </c>
+      <c r="U59" t="s"/>
       <c r="V59" t="n">
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>499</v>
+        <v>464</v>
       </c>
       <c r="X59" t="s">
-        <v>500</v>
+        <v>465</v>
       </c>
       <c r="Y59" t="s">
-        <v>501</v>
+        <v>466</v>
       </c>
     </row>
     <row r="60">
@@ -5810,7 +6730,7 @@
         <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>502</v>
+        <v>467</v>
       </c>
       <c r="G60" t="s">
         <v>46</v>
@@ -5819,25 +6739,25 @@
         <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>503</v>
+        <v>468</v>
       </c>
       <c r="J60" t="s">
-        <v>504</v>
+        <v>469</v>
       </c>
       <c r="K60" t="s">
-        <v>505</v>
+        <v>470</v>
       </c>
       <c r="L60" t="s">
-        <v>506</v>
+        <v>471</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>490</v>
+        <v>430</v>
       </c>
       <c r="O60" t="s">
-        <v>178</v>
+        <v>53</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -5855,13 +6775,13 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>507</v>
+        <v>472</v>
       </c>
       <c r="X60" t="s">
-        <v>508</v>
+        <v>473</v>
       </c>
       <c r="Y60" t="s">
-        <v>509</v>
+        <v>474</v>
       </c>
     </row>
     <row r="61">
@@ -5877,7 +6797,7 @@
         <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>510</v>
+        <v>475</v>
       </c>
       <c r="G61" t="s">
         <v>46</v>
@@ -5886,47 +6806,43 @@
         <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>511</v>
+        <v>476</v>
       </c>
       <c r="J61" t="s">
-        <v>512</v>
+        <v>477</v>
       </c>
       <c r="K61" t="s">
-        <v>513</v>
+        <v>478</v>
       </c>
       <c r="L61" t="s">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="M61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N61" t="s">
-        <v>515</v>
+        <v>430</v>
       </c>
       <c r="O61" t="s">
-        <v>178</v>
-      </c>
-      <c r="P61" t="n">
-        <v>5</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="P61" t="s"/>
       <c r="Q61" t="s"/>
       <c r="R61" t="s"/>
       <c r="S61" t="s"/>
       <c r="T61" t="s"/>
-      <c r="U61" t="n">
-        <v>5</v>
-      </c>
+      <c r="U61" t="s"/>
       <c r="V61" t="n">
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>516</v>
+        <v>480</v>
       </c>
       <c r="X61" t="s">
-        <v>517</v>
+        <v>481</v>
       </c>
       <c r="Y61" t="s">
-        <v>518</v>
+        <v>482</v>
       </c>
     </row>
     <row r="62">
@@ -5942,7 +6858,7 @@
         <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>519</v>
+        <v>483</v>
       </c>
       <c r="G62" t="s">
         <v>46</v>
@@ -5951,49 +6867,43 @@
         <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>520</v>
+        <v>484</v>
       </c>
       <c r="J62" t="s">
-        <v>521</v>
+        <v>485</v>
       </c>
       <c r="K62" t="s">
-        <v>522</v>
+        <v>486</v>
       </c>
       <c r="L62" t="s">
-        <v>523</v>
+        <v>487</v>
       </c>
       <c r="M62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>524</v>
+        <v>488</v>
       </c>
       <c r="O62" t="s">
-        <v>178</v>
-      </c>
-      <c r="P62" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P62" t="s"/>
       <c r="Q62" t="s"/>
-      <c r="R62" t="n">
-        <v>5</v>
-      </c>
+      <c r="R62" t="s"/>
       <c r="S62" t="s"/>
       <c r="T62" t="s"/>
-      <c r="U62" t="n">
-        <v>5</v>
-      </c>
+      <c r="U62" t="s"/>
       <c r="V62" t="n">
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>525</v>
+        <v>480</v>
       </c>
       <c r="X62" t="s">
-        <v>526</v>
+        <v>481</v>
       </c>
       <c r="Y62" t="s">
-        <v>527</v>
+        <v>489</v>
       </c>
     </row>
     <row r="63">
@@ -6009,7 +6919,7 @@
         <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>528</v>
+        <v>490</v>
       </c>
       <c r="G63" t="s">
         <v>46</v>
@@ -6018,25 +6928,25 @@
         <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>529</v>
+        <v>491</v>
       </c>
       <c r="J63" t="s">
-        <v>530</v>
+        <v>492</v>
       </c>
       <c r="K63" t="s">
-        <v>531</v>
+        <v>493</v>
       </c>
       <c r="L63" t="s">
-        <v>532</v>
+        <v>494</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>524</v>
+        <v>488</v>
       </c>
       <c r="O63" t="s">
-        <v>178</v>
+        <v>53</v>
       </c>
       <c r="P63" t="s"/>
       <c r="Q63" t="s"/>
@@ -6048,13 +6958,13 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>533</v>
+        <v>495</v>
       </c>
       <c r="X63" t="s">
-        <v>534</v>
+        <v>496</v>
       </c>
       <c r="Y63" t="s">
-        <v>535</v>
+        <v>497</v>
       </c>
     </row>
     <row r="64">
@@ -6070,7 +6980,7 @@
         <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>536</v>
+        <v>498</v>
       </c>
       <c r="G64" t="s">
         <v>46</v>
@@ -6079,25 +6989,25 @@
         <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>537</v>
+        <v>499</v>
       </c>
       <c r="J64" t="s">
-        <v>538</v>
+        <v>500</v>
       </c>
       <c r="K64" t="s">
-        <v>539</v>
+        <v>501</v>
       </c>
       <c r="L64" t="s">
-        <v>540</v>
+        <v>502</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>541</v>
+        <v>503</v>
       </c>
       <c r="O64" t="s">
-        <v>178</v>
+        <v>53</v>
       </c>
       <c r="P64" t="s"/>
       <c r="Q64" t="s"/>
@@ -6109,13 +7019,2959 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
+        <v>504</v>
+      </c>
+      <c r="X64" t="s">
+        <v>505</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>507</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>508</v>
+      </c>
+      <c r="J65" t="s">
+        <v>509</v>
+      </c>
+      <c r="K65" t="s">
+        <v>510</v>
+      </c>
+      <c r="L65" t="s">
+        <v>511</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>512</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>513</v>
+      </c>
+      <c r="X65" t="s">
+        <v>514</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>516</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>517</v>
+      </c>
+      <c r="J66" t="s">
+        <v>518</v>
+      </c>
+      <c r="K66" t="s">
+        <v>519</v>
+      </c>
+      <c r="L66" t="s">
+        <v>520</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>521</v>
+      </c>
+      <c r="O66" t="s">
+        <v>120</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>522</v>
+      </c>
+      <c r="X66" t="s">
+        <v>523</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>525</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>526</v>
+      </c>
+      <c r="J67" t="s">
+        <v>527</v>
+      </c>
+      <c r="K67" t="s">
+        <v>528</v>
+      </c>
+      <c r="L67" t="s">
+        <v>529</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>512</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>530</v>
+      </c>
+      <c r="X67" t="s">
+        <v>531</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
         <v>533</v>
       </c>
-      <c r="X64" t="s">
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
         <v>534</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="J68" t="s">
+        <v>535</v>
+      </c>
+      <c r="K68" t="s">
+        <v>536</v>
+      </c>
+      <c r="L68" t="s">
+        <v>537</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s">
+        <v>538</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="s"/>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>539</v>
+      </c>
+      <c r="X68" t="s">
+        <v>540</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
         <v>542</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>543</v>
+      </c>
+      <c r="J69" t="s">
+        <v>544</v>
+      </c>
+      <c r="K69" t="s">
+        <v>545</v>
+      </c>
+      <c r="L69" t="s">
+        <v>546</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>547</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>548</v>
+      </c>
+      <c r="X69" t="s">
+        <v>549</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>551</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>552</v>
+      </c>
+      <c r="J70" t="s">
+        <v>553</v>
+      </c>
+      <c r="K70" t="s">
+        <v>554</v>
+      </c>
+      <c r="L70" t="s">
+        <v>555</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>547</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="s"/>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>556</v>
+      </c>
+      <c r="X70" t="s">
+        <v>557</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>559</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>560</v>
+      </c>
+      <c r="J71" t="s">
+        <v>561</v>
+      </c>
+      <c r="K71" t="s">
+        <v>562</v>
+      </c>
+      <c r="L71" t="s">
+        <v>563</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>564</v>
+      </c>
+      <c r="O71" t="s">
+        <v>120</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>565</v>
+      </c>
+      <c r="X71" t="s">
+        <v>566</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>568</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>569</v>
+      </c>
+      <c r="J72" t="s">
+        <v>570</v>
+      </c>
+      <c r="K72" t="s">
+        <v>571</v>
+      </c>
+      <c r="L72" t="s">
+        <v>572</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>547</v>
+      </c>
+      <c r="O72" t="s">
+        <v>120</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="s"/>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>573</v>
+      </c>
+      <c r="X72" t="s">
+        <v>574</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>576</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>577</v>
+      </c>
+      <c r="J73" t="s">
+        <v>578</v>
+      </c>
+      <c r="K73" t="s">
+        <v>579</v>
+      </c>
+      <c r="L73" t="s">
+        <v>580</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s"/>
+      <c r="O73" t="s"/>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="s"/>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>581</v>
+      </c>
+      <c r="X73" t="s">
+        <v>582</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>584</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>585</v>
+      </c>
+      <c r="J74" t="s">
+        <v>586</v>
+      </c>
+      <c r="K74" t="s">
+        <v>587</v>
+      </c>
+      <c r="L74" t="s">
+        <v>588</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>564</v>
+      </c>
+      <c r="O74" t="s">
+        <v>94</v>
+      </c>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="s"/>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>589</v>
+      </c>
+      <c r="X74" t="s">
+        <v>590</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>592</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>593</v>
+      </c>
+      <c r="J75" t="s">
+        <v>594</v>
+      </c>
+      <c r="K75" t="s">
+        <v>595</v>
+      </c>
+      <c r="L75" t="s">
+        <v>596</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>564</v>
+      </c>
+      <c r="O75" t="s">
+        <v>72</v>
+      </c>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>597</v>
+      </c>
+      <c r="X75" t="s">
+        <v>598</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>600</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>601</v>
+      </c>
+      <c r="J76" t="s">
+        <v>602</v>
+      </c>
+      <c r="K76" t="s">
+        <v>603</v>
+      </c>
+      <c r="L76" t="s">
+        <v>604</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>398</v>
+      </c>
+      <c r="O76" t="s">
+        <v>120</v>
+      </c>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>605</v>
+      </c>
+      <c r="X76" t="s">
+        <v>606</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>608</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>609</v>
+      </c>
+      <c r="J77" t="s">
+        <v>602</v>
+      </c>
+      <c r="K77" t="s">
+        <v>610</v>
+      </c>
+      <c r="L77" t="s">
+        <v>611</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>612</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="s"/>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>605</v>
+      </c>
+      <c r="X77" t="s">
+        <v>606</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>614</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>615</v>
+      </c>
+      <c r="J78" t="s">
+        <v>616</v>
+      </c>
+      <c r="K78" t="s">
+        <v>617</v>
+      </c>
+      <c r="L78" t="s">
+        <v>618</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>398</v>
+      </c>
+      <c r="O78" t="s">
+        <v>53</v>
+      </c>
+      <c r="P78" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="s"/>
+      <c r="S78" t="s"/>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>619</v>
+      </c>
+      <c r="X78" t="s">
+        <v>620</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>622</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>623</v>
+      </c>
+      <c r="J79" t="s">
+        <v>616</v>
+      </c>
+      <c r="K79" t="s">
+        <v>624</v>
+      </c>
+      <c r="L79" t="s">
+        <v>625</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>398</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="s"/>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>619</v>
+      </c>
+      <c r="X79" t="s">
+        <v>620</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>627</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>628</v>
+      </c>
+      <c r="J80" t="s">
+        <v>616</v>
+      </c>
+      <c r="K80" t="s">
+        <v>629</v>
+      </c>
+      <c r="L80" t="s">
+        <v>630</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>398</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="s"/>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="s"/>
+      <c r="S80" t="s"/>
+      <c r="T80" t="s"/>
+      <c r="U80" t="s"/>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>619</v>
+      </c>
+      <c r="X80" t="s">
+        <v>620</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>632</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>633</v>
+      </c>
+      <c r="J81" t="s">
+        <v>634</v>
+      </c>
+      <c r="K81" t="s">
+        <v>635</v>
+      </c>
+      <c r="L81" t="s">
+        <v>636</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>398</v>
+      </c>
+      <c r="O81" t="s">
+        <v>53</v>
+      </c>
+      <c r="P81" t="s"/>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="s"/>
+      <c r="S81" t="s"/>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>637</v>
+      </c>
+      <c r="X81" t="s">
+        <v>638</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>640</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>641</v>
+      </c>
+      <c r="J82" t="s">
+        <v>642</v>
+      </c>
+      <c r="K82" t="s">
+        <v>643</v>
+      </c>
+      <c r="L82" t="s">
+        <v>644</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>645</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="s"/>
+      <c r="Q82" t="s"/>
+      <c r="R82" t="s"/>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>646</v>
+      </c>
+      <c r="X82" t="s">
+        <v>647</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>649</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>650</v>
+      </c>
+      <c r="J83" t="s">
+        <v>651</v>
+      </c>
+      <c r="K83" t="s">
+        <v>652</v>
+      </c>
+      <c r="L83" t="s">
+        <v>653</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>654</v>
+      </c>
+      <c r="O83" t="s">
+        <v>72</v>
+      </c>
+      <c r="P83" t="s"/>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="s"/>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>655</v>
+      </c>
+      <c r="X83" t="s">
+        <v>656</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>658</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>659</v>
+      </c>
+      <c r="J84" t="s">
+        <v>660</v>
+      </c>
+      <c r="K84" t="s">
+        <v>661</v>
+      </c>
+      <c r="L84" t="s">
+        <v>662</v>
+      </c>
+      <c r="M84" t="n">
+        <v>3</v>
+      </c>
+      <c r="N84" t="s">
+        <v>645</v>
+      </c>
+      <c r="O84" t="s">
+        <v>451</v>
+      </c>
+      <c r="P84" t="s"/>
+      <c r="Q84" t="n">
+        <v>3</v>
+      </c>
+      <c r="R84" t="s"/>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>663</v>
+      </c>
+      <c r="X84" t="s">
+        <v>664</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>666</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>667</v>
+      </c>
+      <c r="J85" t="s">
+        <v>668</v>
+      </c>
+      <c r="K85" t="s">
+        <v>669</v>
+      </c>
+      <c r="L85" t="s">
+        <v>670</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>645</v>
+      </c>
+      <c r="O85" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" t="s"/>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="s"/>
+      <c r="S85" t="s"/>
+      <c r="T85" t="s"/>
+      <c r="U85" t="s"/>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>671</v>
+      </c>
+      <c r="X85" t="s">
+        <v>672</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>674</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>675</v>
+      </c>
+      <c r="J86" t="s">
+        <v>676</v>
+      </c>
+      <c r="K86" t="s">
+        <v>677</v>
+      </c>
+      <c r="L86" t="s">
+        <v>678</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>645</v>
+      </c>
+      <c r="O86" t="s">
+        <v>120</v>
+      </c>
+      <c r="P86" t="s"/>
+      <c r="Q86" t="s"/>
+      <c r="R86" t="s"/>
+      <c r="S86" t="s"/>
+      <c r="T86" t="s"/>
+      <c r="U86" t="s"/>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>679</v>
+      </c>
+      <c r="X86" t="s">
+        <v>680</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>682</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>683</v>
+      </c>
+      <c r="J87" t="s">
+        <v>684</v>
+      </c>
+      <c r="K87" t="s">
+        <v>685</v>
+      </c>
+      <c r="L87" t="s">
+        <v>686</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>645</v>
+      </c>
+      <c r="O87" t="s">
+        <v>53</v>
+      </c>
+      <c r="P87" t="s"/>
+      <c r="Q87" t="s"/>
+      <c r="R87" t="s"/>
+      <c r="S87" t="s"/>
+      <c r="T87" t="s"/>
+      <c r="U87" t="s"/>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>687</v>
+      </c>
+      <c r="X87" t="s">
+        <v>688</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>690</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>691</v>
+      </c>
+      <c r="J88" t="s">
+        <v>692</v>
+      </c>
+      <c r="K88" t="s">
+        <v>693</v>
+      </c>
+      <c r="L88" t="s">
+        <v>694</v>
+      </c>
+      <c r="M88" t="n">
+        <v>3</v>
+      </c>
+      <c r="N88" t="s">
+        <v>654</v>
+      </c>
+      <c r="O88" t="s">
+        <v>53</v>
+      </c>
+      <c r="P88" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>3</v>
+      </c>
+      <c r="R88" t="s"/>
+      <c r="S88" t="s"/>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>3</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>695</v>
+      </c>
+      <c r="X88" t="s">
+        <v>696</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>698</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>699</v>
+      </c>
+      <c r="J89" t="s">
+        <v>700</v>
+      </c>
+      <c r="K89" t="s">
+        <v>701</v>
+      </c>
+      <c r="L89" t="s">
+        <v>702</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>654</v>
+      </c>
+      <c r="O89" t="s">
+        <v>120</v>
+      </c>
+      <c r="P89" t="s"/>
+      <c r="Q89" t="s"/>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="s"/>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>703</v>
+      </c>
+      <c r="X89" t="s">
+        <v>704</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>706</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>707</v>
+      </c>
+      <c r="J90" t="s">
+        <v>700</v>
+      </c>
+      <c r="K90" t="s">
+        <v>708</v>
+      </c>
+      <c r="L90" t="s">
+        <v>709</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>654</v>
+      </c>
+      <c r="O90" t="s">
+        <v>120</v>
+      </c>
+      <c r="P90" t="s"/>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="s"/>
+      <c r="S90" t="s"/>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>703</v>
+      </c>
+      <c r="X90" t="s">
+        <v>704</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>711</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>712</v>
+      </c>
+      <c r="J91" t="s">
+        <v>713</v>
+      </c>
+      <c r="K91" t="s">
+        <v>714</v>
+      </c>
+      <c r="L91" t="s">
+        <v>715</v>
+      </c>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="N91" t="s">
+        <v>654</v>
+      </c>
+      <c r="O91" t="s">
+        <v>120</v>
+      </c>
+      <c r="P91" t="s"/>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="s"/>
+      <c r="S91" t="s"/>
+      <c r="T91" t="s"/>
+      <c r="U91" t="s"/>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>703</v>
+      </c>
+      <c r="X91" t="s">
+        <v>704</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>717</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>718</v>
+      </c>
+      <c r="J92" t="s">
+        <v>719</v>
+      </c>
+      <c r="K92" t="s">
+        <v>720</v>
+      </c>
+      <c r="L92" t="s">
+        <v>721</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>654</v>
+      </c>
+      <c r="O92" t="s">
+        <v>53</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="s"/>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="s"/>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>722</v>
+      </c>
+      <c r="X92" t="s">
+        <v>723</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>725</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>726</v>
+      </c>
+      <c r="J93" t="s">
+        <v>727</v>
+      </c>
+      <c r="K93" t="s">
+        <v>728</v>
+      </c>
+      <c r="L93" t="s">
+        <v>729</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s"/>
+      <c r="O93" t="s"/>
+      <c r="P93" t="s"/>
+      <c r="Q93" t="s"/>
+      <c r="R93" t="s"/>
+      <c r="S93" t="s"/>
+      <c r="T93" t="s"/>
+      <c r="U93" t="s"/>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>730</v>
+      </c>
+      <c r="X93" t="s">
+        <v>731</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>733</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>734</v>
+      </c>
+      <c r="J94" t="s">
+        <v>735</v>
+      </c>
+      <c r="K94" t="s">
+        <v>736</v>
+      </c>
+      <c r="L94" t="s">
+        <v>737</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>612</v>
+      </c>
+      <c r="O94" t="s">
+        <v>72</v>
+      </c>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="s"/>
+      <c r="R94" t="s"/>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>738</v>
+      </c>
+      <c r="X94" t="s">
+        <v>739</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>741</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>742</v>
+      </c>
+      <c r="J95" t="s">
+        <v>743</v>
+      </c>
+      <c r="K95" t="s">
+        <v>744</v>
+      </c>
+      <c r="L95" t="s">
+        <v>745</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>612</v>
+      </c>
+      <c r="O95" t="s">
+        <v>53</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="s"/>
+      <c r="R95" t="s"/>
+      <c r="S95" t="s"/>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>746</v>
+      </c>
+      <c r="X95" t="s">
+        <v>747</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>749</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>750</v>
+      </c>
+      <c r="J96" t="s">
+        <v>751</v>
+      </c>
+      <c r="K96" t="s">
+        <v>752</v>
+      </c>
+      <c r="L96" t="s">
+        <v>753</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>612</v>
+      </c>
+      <c r="O96" t="s">
+        <v>53</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="s"/>
+      <c r="R96" t="s"/>
+      <c r="S96" t="s"/>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>754</v>
+      </c>
+      <c r="X96" t="s">
+        <v>755</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>757</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>758</v>
+      </c>
+      <c r="J97" t="s">
+        <v>751</v>
+      </c>
+      <c r="K97" t="s">
+        <v>759</v>
+      </c>
+      <c r="L97" t="s">
+        <v>760</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>612</v>
+      </c>
+      <c r="O97" t="s">
+        <v>120</v>
+      </c>
+      <c r="P97" t="s"/>
+      <c r="Q97" t="s"/>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="s"/>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>754</v>
+      </c>
+      <c r="X97" t="s">
+        <v>755</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>762</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>763</v>
+      </c>
+      <c r="J98" t="s">
+        <v>764</v>
+      </c>
+      <c r="K98" t="s">
+        <v>765</v>
+      </c>
+      <c r="L98" t="s">
+        <v>766</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>612</v>
+      </c>
+      <c r="O98" t="s">
+        <v>53</v>
+      </c>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="s"/>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="s"/>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>4</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s">
+        <v>767</v>
+      </c>
+      <c r="X98" t="s">
+        <v>768</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>770</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>771</v>
+      </c>
+      <c r="J99" t="s">
+        <v>772</v>
+      </c>
+      <c r="K99" t="s">
+        <v>773</v>
+      </c>
+      <c r="L99" t="s">
+        <v>774</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>521</v>
+      </c>
+      <c r="O99" t="s">
+        <v>53</v>
+      </c>
+      <c r="P99" t="s"/>
+      <c r="Q99" t="s"/>
+      <c r="R99" t="s"/>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s">
+        <v>775</v>
+      </c>
+      <c r="X99" t="s">
+        <v>776</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>778</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>779</v>
+      </c>
+      <c r="J100" t="s">
+        <v>780</v>
+      </c>
+      <c r="K100" t="s">
+        <v>781</v>
+      </c>
+      <c r="L100" t="s">
+        <v>782</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s">
+        <v>521</v>
+      </c>
+      <c r="O100" t="s">
+        <v>120</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="s"/>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="s"/>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s">
+        <v>783</v>
+      </c>
+      <c r="X100" t="s">
+        <v>784</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>786</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>787</v>
+      </c>
+      <c r="J101" t="s">
+        <v>788</v>
+      </c>
+      <c r="K101" t="s">
+        <v>789</v>
+      </c>
+      <c r="L101" t="s">
+        <v>790</v>
+      </c>
+      <c r="M101" t="n">
+        <v>5</v>
+      </c>
+      <c r="N101" t="s">
+        <v>521</v>
+      </c>
+      <c r="O101" t="s">
+        <v>53</v>
+      </c>
+      <c r="P101" t="s"/>
+      <c r="Q101" t="s"/>
+      <c r="R101" t="n">
+        <v>5</v>
+      </c>
+      <c r="S101" t="s"/>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s">
+        <v>791</v>
+      </c>
+      <c r="X101" t="s">
+        <v>792</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>794</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>795</v>
+      </c>
+      <c r="J102" t="s">
+        <v>796</v>
+      </c>
+      <c r="K102" t="s">
+        <v>797</v>
+      </c>
+      <c r="L102" t="s">
+        <v>798</v>
+      </c>
+      <c r="M102" t="n">
+        <v>5</v>
+      </c>
+      <c r="N102" t="s">
+        <v>521</v>
+      </c>
+      <c r="O102" t="s">
+        <v>72</v>
+      </c>
+      <c r="P102" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q102" t="s"/>
+      <c r="R102" t="n">
+        <v>5</v>
+      </c>
+      <c r="S102" t="s"/>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s">
+        <v>799</v>
+      </c>
+      <c r="X102" t="s">
+        <v>800</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>802</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>803</v>
+      </c>
+      <c r="J103" t="s">
+        <v>804</v>
+      </c>
+      <c r="K103" t="s">
+        <v>805</v>
+      </c>
+      <c r="L103" t="s">
+        <v>806</v>
+      </c>
+      <c r="M103" t="n">
+        <v>5</v>
+      </c>
+      <c r="N103" t="s">
+        <v>521</v>
+      </c>
+      <c r="O103" t="s">
+        <v>120</v>
+      </c>
+      <c r="P103" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q103" t="s"/>
+      <c r="R103" t="n">
+        <v>5</v>
+      </c>
+      <c r="S103" t="s"/>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>5</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s">
+        <v>807</v>
+      </c>
+      <c r="X103" t="s">
+        <v>808</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>810</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>811</v>
+      </c>
+      <c r="J104" t="s">
+        <v>812</v>
+      </c>
+      <c r="K104" t="s">
+        <v>813</v>
+      </c>
+      <c r="L104" t="s">
+        <v>814</v>
+      </c>
+      <c r="M104" t="n">
+        <v>5</v>
+      </c>
+      <c r="N104" t="s">
+        <v>815</v>
+      </c>
+      <c r="O104" t="s">
+        <v>120</v>
+      </c>
+      <c r="P104" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q104" t="s"/>
+      <c r="R104" t="s"/>
+      <c r="S104" t="s"/>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>5</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s">
+        <v>816</v>
+      </c>
+      <c r="X104" t="s">
+        <v>817</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>819</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>820</v>
+      </c>
+      <c r="J105" t="s">
+        <v>821</v>
+      </c>
+      <c r="K105" t="s">
+        <v>822</v>
+      </c>
+      <c r="L105" t="s">
+        <v>823</v>
+      </c>
+      <c r="M105" t="n">
+        <v>5</v>
+      </c>
+      <c r="N105" t="s">
+        <v>815</v>
+      </c>
+      <c r="O105" t="s">
+        <v>94</v>
+      </c>
+      <c r="P105" t="s"/>
+      <c r="Q105" t="s"/>
+      <c r="R105" t="n">
+        <v>5</v>
+      </c>
+      <c r="S105" t="n">
+        <v>5</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>5</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s">
+        <v>816</v>
+      </c>
+      <c r="X105" t="s">
+        <v>817</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>825</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>826</v>
+      </c>
+      <c r="J106" t="s">
+        <v>827</v>
+      </c>
+      <c r="K106" t="s">
+        <v>828</v>
+      </c>
+      <c r="L106" t="s">
+        <v>829</v>
+      </c>
+      <c r="M106" t="n">
+        <v>5</v>
+      </c>
+      <c r="N106" t="s">
+        <v>830</v>
+      </c>
+      <c r="O106" t="s">
+        <v>120</v>
+      </c>
+      <c r="P106" t="s"/>
+      <c r="Q106" t="s"/>
+      <c r="R106" t="s"/>
+      <c r="S106" t="s"/>
+      <c r="T106" t="s"/>
+      <c r="U106" t="s"/>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s">
+        <v>831</v>
+      </c>
+      <c r="X106" t="s">
+        <v>832</v>
+      </c>
+      <c r="Y106" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>834</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>835</v>
+      </c>
+      <c r="J107" t="s">
+        <v>836</v>
+      </c>
+      <c r="K107" t="s">
+        <v>837</v>
+      </c>
+      <c r="L107" t="s">
+        <v>838</v>
+      </c>
+      <c r="M107" t="n">
+        <v>5</v>
+      </c>
+      <c r="N107" t="s">
+        <v>830</v>
+      </c>
+      <c r="O107" t="s">
+        <v>120</v>
+      </c>
+      <c r="P107" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q107" t="s"/>
+      <c r="R107" t="n">
+        <v>5</v>
+      </c>
+      <c r="S107" t="s"/>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>5</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s">
+        <v>839</v>
+      </c>
+      <c r="X107" t="s">
+        <v>840</v>
+      </c>
+      <c r="Y107" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>842</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>843</v>
+      </c>
+      <c r="J108" t="s">
+        <v>844</v>
+      </c>
+      <c r="K108" t="s">
+        <v>845</v>
+      </c>
+      <c r="L108" t="s">
+        <v>846</v>
+      </c>
+      <c r="M108" t="n">
+        <v>5</v>
+      </c>
+      <c r="N108" t="s">
+        <v>830</v>
+      </c>
+      <c r="O108" t="s">
+        <v>120</v>
+      </c>
+      <c r="P108" t="s"/>
+      <c r="Q108" t="s"/>
+      <c r="R108" t="s"/>
+      <c r="S108" t="s"/>
+      <c r="T108" t="s"/>
+      <c r="U108" t="s"/>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s">
+        <v>847</v>
+      </c>
+      <c r="X108" t="s">
+        <v>848</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>850</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>851</v>
+      </c>
+      <c r="J109" t="s">
+        <v>852</v>
+      </c>
+      <c r="K109" t="s">
+        <v>853</v>
+      </c>
+      <c r="L109" t="s">
+        <v>854</v>
+      </c>
+      <c r="M109" t="n">
+        <v>5</v>
+      </c>
+      <c r="N109" t="s">
+        <v>855</v>
+      </c>
+      <c r="O109" t="s">
+        <v>120</v>
+      </c>
+      <c r="P109" t="s"/>
+      <c r="Q109" t="s"/>
+      <c r="R109" t="s"/>
+      <c r="S109" t="s"/>
+      <c r="T109" t="s"/>
+      <c r="U109" t="s"/>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s">
+        <v>847</v>
+      </c>
+      <c r="X109" t="s">
+        <v>848</v>
+      </c>
+      <c r="Y109" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>63673</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>857</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>858</v>
+      </c>
+      <c r="J110" t="s">
+        <v>859</v>
+      </c>
+      <c r="K110" t="s">
+        <v>860</v>
+      </c>
+      <c r="L110" t="s">
+        <v>861</v>
+      </c>
+      <c r="M110" t="n">
+        <v>5</v>
+      </c>
+      <c r="N110" t="s">
+        <v>855</v>
+      </c>
+      <c r="O110" t="s">
+        <v>94</v>
+      </c>
+      <c r="P110" t="s"/>
+      <c r="Q110" t="s"/>
+      <c r="R110" t="s"/>
+      <c r="S110" t="s"/>
+      <c r="T110" t="s"/>
+      <c r="U110" t="s"/>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s">
+        <v>847</v>
+      </c>
+      <c r="X110" t="s">
+        <v>848</v>
+      </c>
+      <c r="Y110" t="s">
+        <v>862</v>
       </c>
     </row>
   </sheetData>
